--- a/news.xlsx
+++ b/news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,30 +475,30 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">国家主席习近平发表二〇二三年新年贺词  </t>
+          <t xml:space="preserve">担负新的文化使命  凝聚团结奋进力量  </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://paper.people.com.cn/rmrb/html/2023-01/01/nw.D110000renmrb_20230101_1-01.htm</t>
+          <t>http://paper.people.com.cn/rmrb/html/2024-01/03/nw.D110000renmrb_20240103_1-01.htm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>人民日报   2023年01月01日 星期日</t>
+          <t>人民日报   2024年01月03日 星期三</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>国家主席习近平发表二〇二三年新年贺词
+          <t>担负新的文化使命  凝聚团结奋进力量
+——二〇二三年宣传思想文化工作综述
 《
           人民日报
           》（
-          2023年01月01日
+          2024年01月03日
           第 01
           版）
- 　　新年前夕，国家主席习近平通过中央广播电视总台和互联网，发表二〇二三年新年贺词。　　新华社记者  鞠  鹏摄
-　　■ 2022年，我们胜利召开党的二十大，擘画了全面建设社会主义现代化国家、以中国式现代化全面推进中华民族伟大复兴的宏伟蓝图，吹响了奋进新征程的时代号角　　■ 我国继续保持世界第二大经济体的地位，经济稳健发展，全年国内生产总值预计超过120万亿元。面对全球粮食危机，我国粮食生产实现“十九连丰”，中国人的饭碗端得更牢了。我们巩固脱贫攻坚成果，全面推进乡村振兴，采取减税降费等系列措施为企业纾难解困，着力解决人民群众急难愁盼问题　　■ 疫情发生以来，我们始终坚持人民至上、生命至上，坚持科学精准防控，因时因势优化调整防控措施，最大限度保护了人民生命安全和身体健康。广大干部群众特别是医务人员、基层工作者不畏艰辛、勇毅坚守。经过艰苦卓绝的努力，我们战胜了前所未有的困难和挑战，每个人都不容易。目前，疫情防控进入新阶段，仍是吃劲的时候，大家都在坚忍不拔努力，曙光就在前头。大家再加把劲，坚持就是胜利，团结就是胜利　　■ 历史长河波澜壮阔，一代又一代人接续奋斗创造了今天的中国　　■ 今天的中国，是梦想接连实现的中国。今天的中国，是充满生机活力的中国。今天的中国，是赓续民族精神的中国。今天的中国，是紧密联系世界的中国　　■ 党的二十大后我和同事们一起去了延安，重温党中央在延安时期战胜世所罕见困难的光辉岁月，感悟老一辈共产党人的精神力量。我常说，艰难困苦，玉汝于成。中国共产党百年栉风沐雨、披荆斩棘，历程何其艰辛又何其伟大。我们要一往无前、顽强拼搏，让明天的中国更美好　　■ 明天的中国，奋斗创造奇迹。明天的中国，力量源于团结。明天的中国，希望寄予青年　　■ 祝愿祖国繁荣昌盛、国泰民安！祝愿世界和平美好、幸福安宁！祝愿大家新年快乐、皆得所愿！ 　　新华社北京12月31日电  新年前夕，国家主席习近平通过中央广播电视总台和互联网，发表了二〇二三年新年贺词。全文如下：　　大家好！2023年即将到来，我在北京向大家致以美好的新年祝福！　　2022年，我们胜利召开党的二十大，擘画了全面建设社会主义现代化国家、以中国式现代化全面推进中华民族伟大复兴的宏伟蓝图，吹响了奋进新征程的时代号角。　　我国继续保持世界第二大经济体的地位，经济稳健发展，全年国内生产总值预计超过120万亿元。面对全球粮食危机，我国粮食生产实现“十九连丰”，中国人的饭碗端得更牢了。我们巩固脱贫攻坚成果，全面推进乡村振兴，采取减税降费等系列措施为企业纾难解困，着力解决人民群众急难愁盼问题。　　疫情发生以来，我们始终坚持人民至上、生命至上，坚持科学精准防控，因时因势优化调整防控措施，最大限度保护了人民生命安全和身体健康。广大干部群众特别是医务人员、基层工作者不畏艰辛、勇毅坚守。经过艰苦卓绝的努力，我们战胜了前所未有的困难和挑战，每个人都不容易。目前，疫情防控进入新阶段，仍是吃劲的时候，大家都在坚忍不拔努力，曙光就在前头。大家再加把劲，坚持就是胜利，团结就是胜利。　　2022年，江泽民同志离开了我们。我们深切缅怀他的丰功伟绩和崇高风范，珍惜他留下的宝贵精神财富。我们要继承他的遗志，把新时代中国特色社会主义事业不断推向前进。　　历史长河波澜壮阔，一代又一代人接续奋斗创造了今天的中国。　　今天的中国，是梦想接连实现的中国。北京冬奥会、冬残奥会成功举办，冰雪健儿驰骋赛场，取得了骄人成绩。神舟十三号、十四号、十五号接力腾飞，中国空间站全面建成，我们的“太空之家”遨游苍穹。人民军队迎来95岁生日，广大官兵在强军伟业征程上昂扬奋进。第三艘航母“福建号”下水，首架C919大飞机正式交付，白鹤滩水电站全面投产……这一切，凝结着无数人的辛勤付出和汗水。点点星火，汇聚成炬，这就是中国力量！　　今天的中国，是充满生机活力的中国。各自由贸易试验区、海南自由贸易港蓬勃兴起，沿海地区踊跃创新，中西部地区加快发展，东北振兴蓄势待发，边疆地区兴边富民。中国经济韧性强、潜力大、活力足，长期向好的基本面依然不变。只要笃定信心、稳中求进，就一定能实现我们的既定目标。今年我去了香港，看到香港将由治及兴十分欣慰。坚定不移落实好“一国两制”，香港、澳门必将长期繁荣稳定。　　今天的中国，是赓续民族精神的中国。这一年发生的地震、洪水、干旱、山火等自然灾害和一些安全事故，让人揪心，令人难过，但一幕幕舍生取义、守望相助的场景感人至深，英雄的事迹永远铭记在我们心中。每当辞旧迎新，总会念及中华民族千年传承的浩然之气，倍增前行信心。　　今天的中国，是紧密联系世界的中国。这一年，我在北京迎接了不少新老朋友，也走出国门讲述中国主张。百年变局加速演进，世界并不太平。我们始终如一珍视和平和发展，始终如一珍惜朋友和伙伴，坚定站在历史正确的一边、站在人类文明进步的一边，努力为人类和平与发展事业贡献中国智慧、中国方案。　　党的二十大后我和同事们一起去了延安，重温党中央在延安时期战胜世所罕见困难的光辉岁月，感悟老一辈共产党人的精神力量。我常说，艰难困苦，玉汝于成。中国共产党百年栉风沐雨、披荆斩棘，历程何其艰辛又何其伟大。我们要一往无前、顽强拼搏，让明天的中国更美好。　　明天的中国，奋斗创造奇迹。苏轼有句话：“犯其至难而图其至远”，意思是说“向最难之处攻坚，追求最远大的目标”。路虽远，行则将至；事虽难，做则必成。只要有愚公移山的志气、滴水穿石的毅力，脚踏实地，埋头苦干，积跬步以至千里，就一定能够把宏伟目标变为美好现实。　　明天的中国，力量源于团结。中国这么大，不同人会有不同诉求，对同一件事也会有不同看法，这很正常，要通过沟通协商凝聚共识。14亿多中国人心往一处想、劲往一处使，同舟共济、众志成城，就没有干不成的事、迈不过的坎。海峡两岸一家亲。衷心希望两岸同胞相向而行、携手并进，共创中华民族绵长福祉。　　明天的中国，希望寄予青年。青年兴则国家兴，中国发展要靠广大青年挺膺担当。年轻充满朝气，青春孕育希望。广大青年要厚植家国情怀、涵养进取品格，以奋斗姿态激扬青春，不负时代，不负华年。　　此时此刻，许多人还在辛苦忙碌，大家辛苦了！新年的钟声即将敲响，让我们怀着对未来的美好向往，共同迎接2023年的第一缕阳光。　　祝愿祖国繁荣昌盛、国泰民安！祝愿世界和平美好、幸福安宁！祝愿大家新年快乐、皆得所愿！　　谢谢！</t>
+　　2023年，是全面贯彻党的二十大精神的开局之年。　　面对波谲云诡的国际政治经济环境和繁重艰巨的改革发展稳定任务，以习近平同志为核心的党中央团结带领全党全国各族人民顶住外部压力、克服内部困难，锚定党的二十大擘画的宏伟蓝图，在强国建设、民族复兴新征程上迈出坚实一步。　　强国建设、民族复兴，需要强大的物质力量，也需要强大的精神力量。　　回望过去一年，宣传思想文化战线自觉担负起新的文化使命，围绕贯彻党的二十大关于文化建设的战略部署，强化思想引领、不断守正创新，大力唱响强信心的主旋律，为党和国家事业发展提供了坚强思想保证、强大精神力量、有利文化条件。　　高擎思想旗帜　　深化理论武装　　2023年10月7日至8日，全国宣传思想文化工作会议在京召开。　　围绕习近平总书记在宣传思想文化领域提出的一系列新思想新观点新论断，与会同志进行了深入讨论。在与会同志形成高度共识的基础上，会议正式提出了习近平文化思想。　　时代孕育思想，思想指引航程。　　习近平文化思想，是新时代党领导文化建设实践经验的理论总结，丰富和发展了马克思主义文化理论，构成了习近平新时代中国特色社会主义思想的文化篇，为做好新时代新征程宣传思想文化工作、担负起新的文化使命提供了强大思想武器和科学行动指南。　　将学习宣传贯彻习近平文化思想，置于全方位、系统性宣传阐释习近平新时代中国特色社会主义思想的大格局中，2023年宣传思想文化战线不断推动党的创新理论深入人心、落地生根。　　深化主题教育，掀起学习热潮——　　2023年11月18日，一场精彩的“主题教育进行时”专题学习活动在江苏省海安市滨海新区举行。　　活动中，滨海新区驻沪流动党员们进行理论学习、开展分享交流，一轮接一轮助力家乡发展的探讨更将现场气氛推向高潮。　　从大江南北到长城内外，从东海之滨到青藏高原，学习贯彻习近平新时代中国特色社会主义思想主题教育在全党深入开展。　　从精心准备权威学习材料到创新学习方式，把书本学、实践学、现场学结合起来，再到拓展学习载体，注重可视化、数字化学习，推出一大批鲜活的新媒体产品……　　主题教育开展以来，宣传思想文化战线用一系列扎实有效的举措，帮助广大党员、干部在读原著、学原文、悟原理中不断提高思想认识、感悟真理力量，为全党“大学习”提供有力支持、营造浓厚氛围。　　推进理论研究，成果不断涌现——　　走进北京图书大厦，《习近平著作选读》摆放在醒目位置，吸引了许多读者驻足阅读。　　作为深入学习贯彻党的创新理论的权威教材，这部以中共中央文献编辑委员会名义编辑的习近平总书记重要著作，已成为广大党员、干部的“案头卷”。　　一年来，《习近平新时代中国特色社会主义思想专题摘编》《习近平新时代中国特色社会主义思想学习纲要（2023年版）》等陆续出版，《习近平法治思想学习问答》《习近平外交思想学习问答》等相继推出，《习近平新时代中国特色社会主义思想概论》作为统编教材用于高校思政教学……　　理论成果不断涌现，进一步深化拓展了习近平新时代中国特色社会主义思想的体系化、学理化研究，进一步帮助全党全社会更好理解和把握党的创新理论的基本精神、基本内容、基本要求。　　创新宣传方式，不断入脑入心——　　2023年4月26日，一场别开生面的“微讲座”在天津大学附属中学开讲。围绕党的二十大精神，天津大学马克思主义学院副院长张宇讲得深入浅出，学生们听得聚精会神。　　为引导学生更好掌握党的政策方针，天津大学还引导学生把学到的理论知识用于分析热点问题，并通过微信、抖音等学生喜闻乐见的平台推送，吸引更多同龄人了解党的政策、传播党的理论。　　把鲜活的思想讲鲜活，把彻底的理论讲彻底。　　通俗理论读物《中国式现代化面对面》把宏大主题转化为具体可感的故事、文风清新的表达；纪录片《通向繁荣之路》用镜头语言和案例故事展现共建“一带一路”倡议的历史价值和现实意义……宣传思想文化战线创新表达方式，推动党的创新理论来到百姓身边，走进群众心间。　　让科学理论“飞入寻常百姓家”，新闻媒体发挥着重要作用。　　一年来，中央主要新闻媒体精心策划了“总书记的人民情怀”“习近平的文化足迹”“新思想引领新征程”等重点栏目，推出了《人民江山》《习近平的文化情缘》等大批镇版刷屏之作，并在总书记考察调研报道中运用多种体裁，生动阐释党中央治国理政新理念新思想新战略，全方位展现习近平总书记大党大国领袖的人格魅力和襟怀风范。　　形式多样的理论学习、聚焦前沿的理论研究、润物无声的理论阐释……宣传思想文化战线的一系列新举措、新成效，不断推动党的创新理论往深里走、往实里走、往心里走。　　赓续中华文脉　　推动创新发展　　2023年6月1日，习近平总书记来到位于北京中轴线北延的中国国家版本馆中央总馆考察。　　走进国家书房，总书记的目光望向屋顶。目之所及，宋代石刻天文图展现古人智慧，星汉灿烂、浩渺深邃。书房内，近3万册新中国精品出版物蔚为大观。　　文脉弦歌不辍，文明生生不息。　　在次日召开的文化传承发展座谈会上，习近平总书记以贯通古今的文化自觉，鲜明提出中华文明五个突出特性，深入阐释“两个结合”的重大意义，发出振奋人心的号召：　　“在新的起点上继续推动文化繁荣、建设文化强国、建设中华民族现代文明，是我们在新时代新的文化使命。”　　赓续中华文脉、传承文明薪火，宣传思想文化战线使命如磐、重任在肩。　　一年来，宣传思想文化战线深植中华优秀传统文化的丰厚沃土，推动创造性转化、创新性发展，中华文化的“一池春水”被彻底激活，焕发出勃勃生机。　　展现文明担当，文化遗产保护取得新成就——　　位于苏州古城东北隅的平江历史文化街区，是苏州迄今保存最典型、最完整的历史文化保护区，有着2500多年悠久历史。　　2023年6月以来，“平江九巷”城市更新项目及“古城保护更新伙伴计划”持续推进。这个昆曲、评弹、苏绣、缂丝等非遗的聚集地，展现着原汁原味的姑苏风韵。　　守护文化传统，留住历史根脉。　　从召开文化遗产保护传承座谈会，到有序推进长城、石窟寺等重大文物保护工程；从南海西北陆坡一号、二号沉船遗址等重大考古项目取得新进展，到中华文明探源工程第五阶段研究取得新成果；从“普洱景迈山古茶林文化景观”入选《世界遗产名录》，到大型中医药古籍整理保护项目《中华医藏》首批成果发布……　　一年来，我国文物和文化遗产保护力度持续加大，非物质文化遗产保护渠道和途径不断拓展，中华文脉绵延繁盛、历久弥新。　　推动活化利用，传统文化激扬时代风采——　　金面具、青铜神坛、青铜骑兽顶尊人像……四川三星堆博物馆新馆内，一件件精美的出土文物令人目不暇接。　　数百件新出土“重器”首次展出、AI算法实现文物复原、裸眼3D还原考古“方舱”，新馆全面提升观展体验，力求更好呈现文物背后的故事，为观众开启一场历史文化盛宴。　　善于把弘扬优秀传统文化和发展现实文化有机统一、紧密结合起来，才能在继承中发展、在发展中继承。　　山东曲阜，大型演出《金声玉振》尽显古风古韵；青海西宁，舞剧《河湟》融入了青海花儿、河湟皮影戏等多项国家级非物质文化遗产；打开“数字敦煌”网站，经典洞窟、壁画可随时在线观赏……　　如今，收藏在博物馆里的文物、陈列在广阔大地上的遗产、书写在古籍里的文字逐渐活起来了，赋予中华优秀传统文化新的时代内涵、表现形式和生命活力。　　浸润百姓心田，人民群众文化热情日益高涨——　　6600万人次！这是2023年中秋国庆假期，全国博物馆接待的观众总量。　　在北京，中国考古博物馆和北京城市副中心三大文化建筑等建成开放；在西安，许多年轻人身着传统服饰，流连于大唐不夜城；在大同，云冈石窟景点前游人如织、络绎不绝……今日之中国，“文博热”火爆、“文创风”劲吹、“诗词热”兴起，传统文化点亮群众幸福生活。　　宣传思想文化战线用人民群众喜闻乐见、雅俗共赏的呈现方式，推动中华优秀传统文化融入百姓日常生活。在文旅融合中，人们聆听着跨越时空的文明回响，领略着中华文化的崭新气象。　　提振发展信心　　凝聚精神力量　　新时代同心逐梦，新征程凯歌以行。　　宣传思想文化战线胸怀大局、把握大势，充分发挥价值引领作用，坚持团结稳定鼓劲、正面宣传为主，不断强信心、聚民心、暖人心、筑同心。　　2023年，是三年新冠疫情防控转段后经济恢复发展的一年。　　紧扣时代脉搏，宣传思想文化战线以浓墨重彩、亮点频现的经济宣传和舆论引导，充分反映中国经济回升向好的发展态势，描绘出中国号巨轮破浪前行的壮阔图景。　　围绕中央经济工作会议、中央农村工作会议等重要会议精神，一系列宣传报道深入阐释党中央对当前我国经济形势的重大判断和工作部署，助力同心同向、共谋发展；　　着眼展现高质量发展壮美画卷，“高质量发展调研行”“四季看新疆”等主题采访记录下各地的生动实践；中央各主要媒体开设“强信心·开新局”“乡村行·看振兴”等专栏，深入挖掘典型案例和鲜活故事，以小见大反映中国经济的韧性与活力；　　聚焦推动各项政策举措深入人心，深入解读党中央、国务院促进民营经济发展壮大的重要部署，清晰释放我国恢复和扩大消费6方面20条举措、稳妥降低存量首套房贷利率等政策利好，助力社会预期持续改善；　　瞄准群众急难愁盼的民生问题，持续追踪各地优化调整稳就业一揽子政策，深度关注新就业形态劳动者职业发展状况等，充分彰显民生“温度”、幸福“质感”。　　宣传思想文化战线以一个个有力事实、一件件生动案例、一篇篇翔实报道，及时回应社会关切，把应对挑战的有力举措讲明白，把市场关心的热点问题讲透彻，切实改善社会预期、提振各类经营主体的信心，广泛凝聚推动高质量发展的共识、推进中国式现代化的合力。　　凝聚精神力量，离不开榜样的示范带动作用。　　2023年12月，“中央宣传部追授鲍卫忠同志‘时代楷模’称号”的消息刷屏，一周时间内，全网阅读量累计超2.6亿次。　　“致敬人民的好法官”“他用名字注解人生，他用生命践行誓言”……网友真挚的留言表达着对模范的由衷敬意。　　从“时代楷模”“最美人物”“中国好人”等持续发布，到正式启动第九届全国道德模范评选表彰活动、举办表彰大会表彰全国三八红旗手和全国巾帼建功标兵等先进典型；从精心组织第六十个学雷锋纪念日活动，到致敬防汛抗洪、抗震救灾和灾后恢复重建中的逆行身影、凡人善举……　　一年来，宣传思想文化战线倾情讲述榜样事迹、展现英模品格，在全社会厚植精神沃土、涵养文明底蕴，汇聚起向上向善的精神动力。　　文艺是时代前进的号角，最能代表一个时代的风貌，最能引领一个时代的风气。　　2023年，《长安三万里》《封神第一部：朝歌风云》《志愿军：雄兵出击》等影片深受观众喜爱。2023年我国电影总票房为549.15亿元，观影人次为12.99亿。其中，国产电影票房为460.05亿元，占比为83.77%。　　电视剧《问苍茫》传承革命光荣传统，长篇小说《雪山大地》《宝水》以细腻笔触书写祖国山乡巨变，电视剧《欢迎来到麦乐村》展现中国援外医疗队员的大爱担当……　　一年来，一大批文艺精品力作不断涌现，以新故事、新形象、新旋律、新风格抒发人民奋斗豪情，传递民族精神之光，不断满足人民文化需求、增强人民精神力量。　　凝聚精神力量，需要筑牢网上网下同心圆。　　2023年11月8日至10日，世界互联网大会乌镇峰会举办，千年古镇再吹数字新风。　　有火热的前沿技术，也有冷静的行业思考。在乌镇古朴娴雅的氛围里，一系列关于数字未来的思想火花激情碰撞。　　举办2023年中国网络文明大会，开展“网络中国节”系列主题活动……宣传思想文化战线聚焦工作主阵地，维护好亿万民众共同的精神家园。　　开展专项行动整治自媒体乱象，有力遏制网络戾气传播扩散，整治短视频信息内容导向不良问题……宣传思想文化战线聚焦舆论斗争主战场，推动建设良好的网络生态。　　一年来，网络空间综合治理不断完善、网络生态持续向好、网络安全屏障不断筑牢，网络强国建设迈出新的步伐。　　深化文明互鉴　　增进民心相通　　“一朵鲜花打扮不出美丽的春天，百花齐放才能让世界春色满园。”　　2023年8月22日，南非约翰内斯堡。2023年金砖国家工商论坛闭幕式上，习近平总书记的演讲直抵人心。　　向世界展现可信、可爱、可敬的中国形象，营造多元互动、百花齐放的人文交流局面，是宣传思想文化工作的职责使命。　　一年来，宣传思想文化战线坚持国家站位、全球视野，更加鲜明地展现中国故事及其背后的文化内涵和精神力量，推动中华文明在同其他文明的交流互鉴中，不断焕发新的生命力。　　启迪人心的中国理念，为各国携手战胜挑战注入强大精神动力。　　“以文明交流超越文明隔阂、文明互鉴超越文明冲突、文明包容超越文明优越。”　　2023年3月15日，在中国共产党与世界政党高层对话会上，习近平总书记首次提出全球文明倡议，引发国内外广泛关注。　　借助中国共产党与世界政党高层对话会等重要平台，宣传思想文化战线全面介绍全球文明倡议等重要理念；　　以中国—中亚峰会等活动为契机，适应时代发展的全球观、发展观、开放观、合作观等不断深入人心；　　宣介第三届“一带一路”国际合作高峰论坛成果，《全球人工智能治理倡议》成为人工智能发展、安全、治理的中国方案；　　……　　通过多个语种、各类媒体、不同渠道，一个个蕴含着全人类共同价值的中国主张、中国方案走向世界，为人类社会共同发展繁荣提供了理念思路和方法路径。　　中国方案走向世界，中国魅力惊艳全球。灿烂多姿的中华文化，让世界更好读懂中华文明。　　2023年4月，春日繁花似锦，坐落在白云山麓的松园依山傍水，别有风情。　　习近平总书记邀请法国总统马克龙漫步岭南园林，临水而坐，观景品茗。千年古琴奏出一曲《流水》，两国元首一起欣赏。　　“了解今天的中国，要从了解中国的历史开始”，习近平总书记纵论古今，坚定表明“我们对中国发展前景充满信心”。　　“这两天里，我们的交流友好深入，使我进一步领略了中国悠久灿烂的历史文化，增进了对现代中国治国理政理念的了解。”马克龙深有感触地说。　　以润物细无声的方式推动中华文化更好走向世界，习近平总书记为宣传思想文化战线树立了光辉典范。　　一年来，宣传思想文化战线用好海外文化阵地、用好多种文化形式和文化载体，推动中华文明国际影响力不断提升。　　透过“世界中国学大会·上海论坛”的发言，我们发现，越来越多的国家关注中国文化、研究中华文明；　　走进2023年“读懂中国”国际会议现场，外宾坦言，读懂中国关键要读懂中国式现代化；　　来到首届兰花奖、首届金熊猫奖评选和颁奖活动，评委坚信，中国会积极促成更多各国间的对话交流合作；　　置身第七十五届法兰克福书展，读者表示，图书作为媒介和桥梁，可以进一步帮助世界了解中国。　　中华文化的魅力吸引着国际社会的目光，为更好读懂中国、读懂中国人民、读懂中国共产党、读懂中华民族开启了一扇扇窗口：　　在成都，大运圣火熊熊燃烧，青春与梦想激扬赛场；　　在杭州，亚运之光照亮西子湖畔，东方古国向八方来客盛情张开怀抱；　　在上海，万商云集浦江两岸，进博会在新冠疫情后首次全面恢复线下办展；　　在广州，全球主流媒体负责人齐聚世界媒体峰会，为人类更加美好的未来共寻发展之道、贡献媒体力量。　　近者悦，远者来。如今，一个日新月异的中国，正以开放包容的胸怀、守正创新的精神展现在世界面前。　　又踏层峰望眼开，更扬云帆立潮头。　　2024年的大幕已经开启。回望来路，我们豪情满怀；展望前程，我们信心百倍。　　新征程上，在以习近平同志为核心的党中央坚强领导下，在习近平文化思想科学指引下，共同努力创造属于我们这个时代的新文化、建设中华民族现代文明，宣传思想文化战线笃行实干、阔步前行。　　（新华社北京1月2日电  记者王子铭、王鹏、高蕾、王明玉）</t>
         </is>
       </c>
     </row>
@@ -506,221 +506,228 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">中俄两国元首互致新年贺电  </t>
+          <t xml:space="preserve">这一年的步伐，我们走得很见神采  </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://paper.people.com.cn/rmrb/html/2023-01/01/nw.D110000renmrb_20230101_2-01.htm</t>
+          <t>http://paper.people.com.cn/rmrb/html/2024-01/03/nw.D110000renmrb_20240103_2-01.htm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>人民日报   2023年01月01日 星期日</t>
+          <t>人民日报   2024年01月03日 星期三</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>中俄两国元首互致新年贺电
-中俄两国总理互致新年贺电
-《
-          人民日报
-          》（
-          2023年01月01日
-          第 01
-          版）
-　　新华社北京12月31日电  2022年12月31日，国家主席习近平和俄罗斯总统普京互致新年贺电。　　习近平代表中国政府和中国人民，向普京总统和俄罗斯人民致以诚挚的祝贺和美好的祝愿。习近平指出，2022年是极不平凡的一年。面对加速演变的国际形势和持续蔓延的全球疫情，中俄关系始终保持健康发展势头。这一年，中俄经贸合作稳步推进，能源、投资、互联互通等领域合作取得新成果，为两国共同发展提供了助力。双方正式启动中俄体育交流年，两国民众的相互了解和传统友谊进一步加深。　　习近平指出，即将到来的2023年是中国全面落实中共二十大精神的开局之年，中俄关系也将迎来新的发展机遇。我愿同普京总统保持密切交往，引领双方深化全面战略协作和各领域务实合作，造福两国和两国人民。　　普京总统向习近平主席致以衷心的节日祝贺，祝愿友好的中国人民幸福安康。普京表示，在即将过去的一年里，俄中全面战略协作伙伴关系持续加强，展现出强劲发展势头，经受住外部挑战考验。两国政治对话内容丰富，双边贸易额创历史新高，重大跨境交通基础设施项目建设完工。俄中体育交流年顺利举办，为推动双方人文合作作出重要贡献。相信通过共同努力，双方能够将两国合作提升至新的更高水平，造福俄中两国人民。　　同日，国务院总理李克强同俄罗斯总理米舒斯京互致新年贺电。李克强表示，过去的一年，中俄全方位务实合作持续深化，人文交流日益密切，两国友好的社会民意基础愈加稳固。双方成功举行了中俄总理第二十七次定期会晤，达成重要共识。我愿同米舒斯京总理加强沟通交流，推动两国各领域务实合作取得更多实实在在的成果。米舒斯京表示，俄中全面战略协作伙伴关系不断向前发展，相信两国总理定期会晤框架下达成的各项共识将有助于增进两国战略协作，提升两国人民福祉。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">为实现党的二十大确定的目标任务而团结奋斗  </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>http://paper.people.com.cn/rmrb/html/2023-01/01/nw.D110000renmrb_20230101_3-01.htm</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>人民日报   2023年01月01日 星期日</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>《求是》杂志发表习近平总书记重要讲话
-为实现党的二十大确定的目标任务而团结奋斗
-《
-          人民日报
-          》（
-          2023年01月01日
-          第 01
-          版）
-　　新华社北京12月31日电  2023年1月1日出版的第1期《求是》杂志将发表中共中央总书记、国家主席、中央军委主席习近平在党的二十届一中全会上的讲话《为实现党的二十大确定的目标任务而团结奋斗》。　　讲话强调，这次中央全会已经完成了选举产生新一届中央领导机构的任务。要牢记党和人民的重托，不忘初心、牢记使命，为全面建设社会主义现代化国家、全面推进中华民族伟大复兴而团结奋斗。　　讲话指出，党的二十大是在全党全国各族人民迈上全面建设社会主义现代化国家新征程、向第二个百年奋斗目标进军的关键时刻召开的一次十分重要的大会，是一次高举旗帜、凝聚力量、团结奋进的大会，为新时代新征程党和国家事业发展、实现第二个百年奋斗目标指明了前进方向、确立了行动指南。　　讲话指出，全面贯彻党的二十大精神，为实现党的二十大确定的目标任务而团结奋斗，是新一届中央领导集体的重大政治任务。第一，深刻认识我国发展面临的形势，始终保持战略清醒。既要坚定战略自信、保持必胜信念，又要增强忧患意识、坚持底线思维，准备经受风高浪急甚至惊涛骇浪的重大考验，继续披荆斩棘、勇毅前行，奋力开创事业发展新局面。第二，继续推进党的理论创新，不断提高马克思主义理论水平。要坚持把马克思主义基本原理同中国具体实际相结合、同中华优秀传统文化相结合，学懂弄通做实新时代中国特色社会主义思想，坚持好、运用好贯穿其中的立场观点方法，把这一思想贯彻落实到党和国家工作各方面全过程。第三，深刻把握中国式现代化的中国特色和本质要求，牢牢掌握我国发展主动权。要坚持党的基本理论、基本路线、基本方略不动摇，坚定道路自信、理论自信、制度自信、文化自信，坚持独立自主、自力更生，坚持道不变、志不改，既不走封闭僵化的老路，也不走改旗易帜的邪路，坚持把国家和民族发展放在自己力量的基点上，坚持把中国发展进步的命运牢牢掌握在自己手中。第四，扎实贯彻全面建设社会主义现代化国家各项部署，着力实现高质量发展。要聚焦实现高质量发展这个主题，进一步统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，完整、准确、全面贯彻新发展理念，用好改革这个关键一招，把教育、科技、人才作为全面建设社会主义现代化国家的基础性、战略性支撑，坚持走中国特色社会主义法治道路，坚定不移贯彻总体国家安全观。第五，全面落实以人民为中心的发展思想，扎实推进共同富裕。要把促进全体人民共同富裕摆在更加突出的位置，深入实施区域协调发展战略、区域重大战略、乡村振兴战略，着力保障和改善民生，坚持多劳多得，鼓励勤劳致富，完善促进机会公平、维护社会公平正义的制度机制，让每个人都获得发展自我和奉献社会的机会，共同享有人生出彩的机会，共同享有梦想成真的机会。第六，深入推进新时代党的建设新的伟大工程，着力推动全面从严治党取得新成效。要落实新时代党的建设总要求，健全全面从严治党体系，全面推进党的自我净化、自我完善、自我革新、自我提高，使我们党坚守初心使命，始终成为中国特色社会主义事业的坚强领导核心。要把学习贯彻党章作为贯彻党的二十大精神的重要内容，作为常态化长效化开展党史学习教育的重要举措，把党章要求贯彻到党的工作和党的建设各方面全过程。　　讲话指出，新一届中央委员会成员承载着全党全国各族人民信任和重托，这既是莫大光荣，又是重大责任。一是牢记“国之大者”。要时刻把事关党和国家前途命运、事关人民根本利益的大事放在心上，旗帜鲜明讲政治，做政治上的明白人，把维护党中央权威和集中统一领导作为最根本的政治纪律和政治规矩，自觉在思想上政治上行动上同党中央保持高度一致，增强大局观念，牢固树立全国一盘棋思想，因地制宜、因时制宜，创造性开展工作，真正让党中央决策部署落地见效。二是全面增强本领。要加强思想淬炼、理论训练、政治历练、实践锻炼，坚持党的群众路线，继承和发扬党的优良传统，增强服务群众本领，保持强烈的忧患意识、风险意识，增强防范化解风险的意识和本领。三是增强斗争精神。要增强斗争的骨气、底气，在坚决斗争中赢得战略主动，敢于斗争、善于斗争，既当好指挥员，又当好战斗员，团结带领广大党员、干部、群众，依靠顽强斗争打开事业发展新天地。四是保持清正廉洁。必须做到洁身自爱、公道正派、坚守底线，为全党作表率。要树立正确权力观，自觉遵守中央八项规定精神，履行好抓班子、带队伍、正风气的领导责任，管好家人亲属、管好身边人身边事，树立良好家风。　　讲话强调，做好全国人大、全国政协换届和省区市人大、政府、政协换届工作，意义重大。要把贯彻落实党的二十大精神和做好换届工作结合起来，统筹做好当前各项工作，确保人心稳定、工作有序。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">习近平向拉马福萨当选连任南非非洲人国民大会主席致贺电  </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>http://paper.people.com.cn/rmrb/html/2023-01/01/nw.D110000renmrb_20230101_4-01.htm</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>人民日报   2023年01月01日 星期日</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>习近平向拉马福萨当选连任南非非洲人国民大会主席致贺电
-《
-          人民日报
-          》（
-          2023年01月01日
-          第 01
-          版）
-　　新华社北京12月31日电  12月31日，中共中央总书记习近平致电祝贺拉马福萨当选连任南非非洲人国民大会主席。　　习近平在贺电中说，欣悉你当选连任南非非洲人国民大会主席，我谨致以诚挚的祝贺，祝你在这一崇高岗位上取得新的更大成就。　　习近平指出，中国共产党同南非非洲人国民大会传统友谊深厚，交流合作成果丰硕，为推动两国全面战略伙伴关系深入发展发挥了重要作用。我愿同主席先生一道，共同引领中南两党两国关系迈向更高水平，携手构建新时代中非命运共同体和人类命运共同体。</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">今天的中国，是梦想接连实现的中国  </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>http://paper.people.com.cn/rmrb/html/2023-01/01/nw.D110000renmrb_20230101_5-01.htm</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>人民日报   2023年01月01日 星期日</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>今天的中国，是梦想接连实现的中国
-——习近平主席二〇二三年新年贺词启示录①
+          <t>这一年的步伐，我们走得很见神采
+——习近平主席二〇二四年新年贺词启示录③
                         本报评论员
                         《
           人民日报
           》（
-          2023年01月01日
+          2024年01月03日
           第 01
           版）
-　　日月开新元，万象启新篇。告别2022年，迎来2023年，时间再次刻印下我们前行的坐标。　　“历史长河波澜壮阔，一代又一代人接续奋斗创造了今天的中国。”新年前夕，习近平主席发表二〇二三年新年贺词，总结今天的中国“是梦想接连实现的中国”“是充满生机活力的中国”“是赓续民族精神的中国”“是紧密联系世界的中国”，展望明天的中国“奋斗创造奇迹”“力量源于团结”“希望寄予青年”。豪情满怀的宣示、语重心长的嘱托、殷切深情的祝福，给人以深刻的启示、奋进的力量，激励亿万人民踔厉奋发、勇毅前行，让明天的中国更美好。　　回望2022年，这是党和国家历史上极为重要的一年。党的二十大胜利召开，擘画了全面建设社会主义现代化国家、以中国式现代化全面推进中华民族伟大复兴的宏伟蓝图，吹响了奋进新征程的时代号角。面对风高浪急的国际环境和艰巨繁重的国内改革发展稳定任务，在以习近平同志为核心的党中央坚强领导下，全党全国各族人民迎难而上，统筹国内国际两个大局，统筹疫情防控和经济社会发展，统筹发展和安全，加大宏观调控力度，应对超预期因素冲击，保持了经济社会大局稳定，全面建设社会主义现代化国家新征程迈出坚实步伐。劈波斩浪、行稳致远，“中国号”巨轮扬帆再出发，向着实现中华民族伟大复兴的梦想壮阔行进。　　事非经过不知难。经过艰苦卓绝的努力，我们战胜了前所未有的困难和挑战。在抗疫斗争中，我们始终坚持人民至上、生命至上，坚持科学精准防控，因时因势优化调整防控措施，最大限度保护了人民生命安全和身体健康。从经济稳健发展，全年国内生产总值预计超过120万亿元，到全国粮食总产量达13730.6亿斤，实现“十九连丰”；从巩固脱贫攻坚成果、全面推进乡村振兴，到成功举办北京冬奥会、冬残奥会；从中国空间站全面建成、第三艘航母“福建号”下水，到首架C919大飞机正式交付、白鹤滩水电站全面投产……中国人民是具有伟大梦想精神的人民，始终心怀梦想、不懈追求，把梦想的蓝图一步步变为美好现实。实现梦想的征途上，我们都在努力奔跑，每个人都是追梦人。正如习近平主席强调的，“这一切，凝结着无数人的辛勤付出和汗水。点点星火，汇聚成炬，这就是中国力量！”　　今天的中国，发展具备了更为坚实的物质基础、更为完善的制度保证，中国人民的前进动力更加强大、奋斗精神更加昂扬、必胜信念更加坚定，焕发出更为强烈的历史自觉和主动精神，中国共产党和中国人民正信心百倍推进中华民族从站起来、富起来到强起来的伟大飞跃，实现中华民族伟大复兴进入了不可逆转的历史进程。同时必须清醒看到，前进道路上我们面临的风险考验只会越来越复杂，甚至会遇到难以想象的惊涛骇浪，必须准备付出更为艰巨、更为艰苦的努力。习近平主席强调：“路虽远，行则将至；事虽难，做则必成。”梦想如号角，吹响亿万人民团结奋斗的时代旋律；梦想如画笔，绘写民族伟大复兴的万千气象。不管有多少涉滩之险、多少爬坡之艰、多少闯关之难，只要坚定信心、知难而进，一仗接着一仗打，就一定能攻克那些看似不可攻克的难关险阻、创造更多令人刮目相看的人间奇迹，把光荣镌刻在实现伟大梦想的非凡征程上。　　今天的中国，梦想接连实现；明天的中国，更加灿烂美好。在充满光荣和梦想的新征程上，我们同舟共济、众志成城，脚步坚定、足音铿锵。让我们更加紧密地团结在以习近平同志为核心的党中央周围，撸起袖子加油干，风雨无阻向前行，为全面建设社会主义现代化国家、全面推进中华民族伟大复兴而团结奋斗，在新时代新征程上赢得更加伟大的胜利和荣光！</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">贺词里的追梦人  </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>http://paper.people.com.cn/rmrb/html/2023-01/01/nw.D110000renmrb_20230101_6-01.htm</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>人民日报   2023年01月01日 星期日</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>贺词里的追梦人
-                        本报记者  廖文根  张  烁  李昌禹  杨  昊
+　　历经风雨洗礼，阔步伟大征程。在二〇二四年新年贺词中，习近平主席强调“这一年的步伐，我们走得很见神采”，深情点赞“大家不惧风雨、守望相助，直面挑战、攻坚克难”，指出“人民永远是我们战胜一切困难挑战的最大依靠”。　　过去一年，在以习近平同志为核心的党中央坚强领导下，亿万人民坚定信心、振奋精神，撸起袖子加油干、风雨无阻向前行，用勤劳的双手和诚实的劳动创造美好生活，把光荣和梦想书写在强国建设、民族复兴的新征程上，刻印在奋斗不息、前进不止的共同记忆中。从精彩纷呈的成都大运会、杭州亚运会，到人潮涌动的假日旅游、红红火火的电影市场，从活力四射的“村超”“村晚”，到渐成风尚的低碳生活……今天的中国，处处活跃着各行各业劳动者的奋斗身影，处处展示出生机勃勃、丰富多彩的生活场景。正如习近平主席所强调：“温暖的生活气息、复苏的忙碌劲头，诠释了人们对美好幸福的追求，也展现了一个活力满满、热气腾腾的中国。”　　在历史洪流中奋勇向前，精神是一个民族发展的不竭动力。精神上强，才是更持久、更深沉、更有力量的。回望过去这一年，我国发展面临的形势错综复杂，国际政治经济环境不利因素增多，国内周期性和结构性矛盾叠加。一些企业面临经营压力，一些群众就业、生活遇到困难，一些地方发生洪涝、台风、地震等自然灾害，习近平主席始终牵挂在心。战洪水、抗地震、稳经济、促发展、应变局、开新局……党和人民一道拼、一道干、一道奋斗，各行各业的人们都在挥洒汗水，每一个平凡的人都作出了不平凡的贡献。实践充分证明，中国人民具有伟大创造精神、伟大奋斗精神、伟大团结精神、伟大梦想精神，只要党和人民始终站在一起、想在一起、干在一起，任何风浪都动摇不了我们的钢铁意志，任何困难都阻挡不了我们的铿锵步伐。　　中国式现代化是全体人民的共同事业，也是一项充满风险挑战、需要付出艰辛努力的宏伟事业。必须清醒认识到，社会主义是干出来的，幸福都是奋斗出来的，中国人民对美好生活的向往，是中国发展最大内生动力。无数个拼搏进取的足迹，叠加起来就是国家前行的坚定步履；无数张梦想成真的笑脸，共同展现的就是新时代的精神风貌。以中国式现代化全面推进强国建设、民族复兴伟业，为亿万人民追求美好幸福指明了光明未来、赋予了光荣使命、提供了宝贵机遇。坚持全体人民共同参与、共同建设、共同享有，鼓起奋进新征程、建功新时代的精气神，以永不懈怠的精神状态和一往无前的奋斗姿态推进历史伟业，“中国人民一定能，中国一定行”。　　道阻且长，行则将至。我们所处的时代是催人奋进的伟大时代，我们进行的事业是前无古人的伟大事业，紧紧依靠全体人民和衷共济、共襄大业，方能成就新的精彩、谱写壮美华章。让我们迎着新年的曙光，保持“拼”的精神、“闯”的劲头、“实”的干劲，以团结凝聚力量，以奋斗铸就伟业。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">看准了就抓紧干  </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>http://paper.people.com.cn/rmrb/html/2024-01/03/nw.D110000renmrb_20240103_3-01.htm</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>人民日报   2024年01月03日 星期三</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>看准了就抓紧干
+——2024年首个工作日见闻
+                        本报记者
                         《
           人民日报
           》（
-          2023年01月01日
+          2024年01月03日
           第 01
           版）
-　　新年的钟声敲响，又是朝气蓬勃、充满希望的新一年。　　深情回望过去一年难忘瞬间，殷殷寄语新的一年美好前景，习近平主席的新年贺词，在14亿多中国人民心中澎湃激荡。　　岁月不居，时光如流。每年的新年贺词中，习近平主席都会深情关切在各条战线、各个岗位上奋斗打拼的追梦人。他们中，有的奔波在田间地头，为乡亲们的幸福美好生活辛勤劳作；有的奋战在科技前沿，为打造大国重器殚精竭虑；有的坚守在抗疫一线，为守护人民群众的生命健康安全夜以继日……在飞逝的时光里，我们看到的、感悟到的中国，是一个坚韧不拔、欣欣向荣的中国。这里有可亲可敬的人民，有日新月异的发展，有赓续传承的事业。　　踔厉奋发，笃行不怠。十年砥砺奋进，党和国家事业取得历史性成就、发生历史性变革，凝结着新时代奋斗者的心血和汗水，彰显了不同凡响的中国风采、中国力量。　　我们都在努力奔跑，我们都是追梦人。历史长河波澜壮阔，一代又一代人接续奋斗创造了今天的中国。新征程上再出发，不管乱云飞渡、风吹浪打，我们都将以坚如磐石的信心、只争朝夕的劲头、坚韧不拔的毅力，一步一个脚印把前无古人的伟大事业推向前进！　　“280多万驻村干部、第一书记，工作很投入、很给力”　　——我们经过接续奋斗，实现了小康这个中华民族的千年梦想，历史性地解决了绝对贫困问题，为全球减贫事业作出了重大贡献　　数九寒冬，祖国西部边陲帕米尔高原，寒风凛冽、滴水成冰。新疆阿克陶县布伦口乡党委书记李文娟这几天忙着琢磨产业发展的“新招”。　　“今年我们要做大做强牦牛合作社，还要在骑牦牛、看牦牛、领养牦牛上做文章，延伸产业链，让老百姓的腰包更鼓。”李文娟说。　　“历经8年，现行标准下近1亿农村贫困人口全部脱贫，832个贫困县全部摘帽。”在二〇二一年新年贺词中，习近平主席的郑重宣告让全国人民为之振奋。　　同年7月1日，习近平总书记在天安门城楼上代表党和人民庄严宣告：“经过全党全国各族人民持续奋斗，我们实现了第一个百年奋斗目标，在中华大地上全面建成了小康社会，历史性地解决了绝对贫困问题”。　　千年梦想，今朝梦圆。我们完成脱贫攻坚、全面建成小康社会的历史任务，实现了第一个百年奋斗目标。　　“农村转移人口市民化更便利了，许多贫困地区孩子们上学条件改善了”。　　“‘安得广厦千万间，大庇天下寒士俱欢颜！’340万贫困人口实现易地扶贫搬迁、有了温暖的新家”。　　“280多万驻村干部、第一书记，工作很投入、很给力，一定要保重身体。”　　“这些年，我去了全国14个集中连片特困地区，乡亲们愚公移山的干劲，广大扶贫干部倾情投入的奉献，时常浮现在脑海。”　　重温这些年的新年贺词，脱贫、小康，习近平主席一直念兹在兹。以习近平同志为核心的党中央把脱贫攻坚摆在治国理政突出位置，力度之大、规模之广、影响之深前所未有。　　这是一诺千金的庄严承诺：“全面建成小康社会，一个民族都不能少”“决不能落下一个贫困地区、一个贫困群众”……习近平总书记亲自挂帅、亲自出征、亲自督战，明确时间表、路线图，战鼓催征，全党全社会广泛动员，全面打响人类历史上规模最大的脱贫攻坚战。　　这是波澜壮阔的全国行动：从西海固到西南边陲，从乌蒙山区到秦巴腹地……到2020年底，25.5万个驻村工作队、300多万名第一书记和驻村干部、近200万名乡镇干部和数百万村干部，同群众想在一起、干在一起，一张张军令状直指贫中之贫、坚中之坚。　　在决战脱贫攻坚、决胜全面小康的战场上，无数追梦人在困难面前豁得出，关键时候顶得上，把心血和汗水洒遍千山万水、千家万户。　　云南省怒江傈僳族自治州贡山独龙族怒族自治县独龙江乡，山高谷深，自然条件恶劣。　　2014年元旦前夕，贡山县干部群众致信习近平总书记，汇报当地经济社会发展和人民生活改善情况。收到信后，习近平总书记立即作出重要批示。在二〇二〇年新年贺词中，习近平主席再次提到云南贡山独龙族群众。　　习近平主席的殷殷话语，给了当地群众无穷的追梦奋斗动力。多年来，贡山县“老县长”高德荣和当地党员干部带着大家斩穷根、去穷病。如今的独龙江乡，公路隧道贯通，1000余户群众全部住进了新房，特色种植养殖产业遍地开花，5G网络、广播电视信号覆盖全乡……　　千里之外，冬夜里的福建省寿宁县下党乡，流光溢彩、灯火璀璨。这里，也是新年贺词里让习近平主席牵挂的地方。　　“从前的下党乡，没有公路、没有自来水。”福建省寿宁县下党乡党委原副书记刘明华感慨颇多。乡党委带着支部干、支部带着党员干、党员带着群众干，如今，下党乡路通、水通、电通，古村落改造成了商业步行街，生态旅游发展之路越走越宽敞。　　提起新年贺词里“把青春和生命献给脱贫事业的黄文秀”，人们眼前总会浮现那美丽文静的笑脸。　　2016年，黄文秀毕业后返乡工作。2018年3月，她又主动申请到条件艰苦的广西壮族自治区乐业县新化镇百坭村担任驻村第一书记。一年多时间，黄文秀带领干部群众帮助全村88户418人脱贫。直到遇难前的最后一个工作日，她还在开会讨论村里工作，查看被山洪冲断的农田灌溉渠道……　　三十五年如一日扎根太行山、用科技把荒山秃岭抛进历史的李保国，率众在绝壁凿出“生命渠”、用实干兑现“水过不去、拿命来铺”的黄大发，扎根脱贫一线、担任湖南炎陵县委书记的9年里走遍全县120个村庄的黄诗燕……　　中华大地上全面建成小康社会，第一个百年奋斗目标如期实现，背后是千千万万追梦人的接续奋斗、倾情奉献。他们以热血赴使命、以行动践诺言，凝聚起战胜一切艰难险阻的磅礴伟力，让无数人的命运因此而改变、无数人的梦想因此而实现、无数人的幸福因此而成就！　　前行之路，步履铿锵。“实现第二个百年奋斗目标也就是一两代人的事，我们正逢其时、不可辜负，要作出我们这一代的贡献。”2022年10月28日，习近平总书记在河南安阳考察时殷殷嘱托。　　从脱贫攻坚到乡村振兴，从全面建成小康社会到全面建成社会主义现代化强国，迈上实现第二个百年奋斗目标的新征程，年轻一代正接过时代的接力棒，把青春热血镌刻在历史的丰碑上！　　“这些成就是全国各族人民撸起袖子干出来的，是新时代奋斗者挥洒汗水拼出来的”　　——我们贯彻新发展理念，着力推进高质量发展，推动构建新发展格局，实施供给侧结构性改革，我国经济实力实现历史性跃升　　东部多个省份“包机出海”抢订单、中部不少城市集中开工重大项目、西部许多地方忙着招商推介……各地抢抓时间、鼓起干劲，经济活力加快升腾，市场信心持续恢复。　　“长江两岸绿意盎然，建三江万亩大地号稻浪滚滚，深圳前海生机勃勃，上海张江活力四射，港珠澳大桥飞架三地……这些成就是全国各族人民撸起袖子干出来的，是新时代奋斗者挥洒汗水拼出来的。”在二〇一九年新年贺词中，习近平主席深情说道。　　新时代十年，是我国经济社会发展取得历史性成就、发生历史性变革、转向高质量发展的十年——　　我国继续保持世界第二大经济体的地位，经济稳健发展，2022年全年国内生产总值预计超过120万亿元。面对全球粮食危机，我国粮食生产实现“十九连丰”，中国人的饭碗端得更牢了。　　十年来，以习近平同志为核心的党中央，把握从“有没有”转向“好不好”的发展主动，领航中国经济巨轮驶入高质量发展航道，推动经济发展质量变革、效率变革、动力变革。放眼神州大地，各自由贸易试验区、海南自由贸易港蓬勃兴起，沿海地区踊跃创新，中西部地区加快发展，东北振兴蓄势待发，边疆地区兴边富民。中国经济韧性强、潜力大、活力足，长期向好的基本面依然不变。只要笃定信心、稳中求进，就一定能实现我们的既定目标。　　湘江北去，橘子洲头。在湖南长沙经济技术开发区，山河智能装备股份有限公司挖掘机研究院院长范峥嵘正与同事们一起在试验场开展科研攻关。　　近年来，范峥嵘参与研发的具有自主知识产权的挖掘机产品达16个型号，他与同事们一起攻克了不少技术难关，让新一代产品在外观造型、性能指标和综合可靠性等方面都实现飞跃。　　“自主创新是企业的生命，是企业爬坡过坎、发展壮大的根本。关键核心技术必须牢牢掌握在自己手里。”范峥嵘说，“作为一名工程师，我深感责任重大，必须牢牢抓住自主创新这条生命线，坚持创新驱动发展，才能在国际市场赢得主动”。　　汽笛鸣响，一列“长安号”中欧班列正缓缓驶出西安国际港站。85后集卡司机丁磊转运的集装箱，正启程“出远门”。50个集装箱满载冰箱、洗衣机等家电，将于十几天后抵达“一带一路”沿线的欧洲国家。　　“一年比一年忙。作为司机，也最盼着忙。”丁磊笑呵呵地说，“2022年，‘长安号’开行量首次突破4000列。我们的工作节奏也成倍加快。”小小的驾驶室，满是忙碌的痕迹：保温壶里，早上灌的热水，中午还没打开；旁边的大饭盒，透着余温，却顾不上扒拉一口……运货更多了，腰包更鼓了，丁磊把老家的房子整葺一新，“了了多年的心愿。”　　“先行先试变成了示范引领，探索创新成为了创新引领。”对二〇二一年新年贺词，香港青年陈升有着特别的感受。他说，“置身春潮涌动的南海之滨，我感慨良多。”　　距离深圳湾不远的前海深港青年梦工场，是陈升梦开始的地方。2015年，前海深港青年梦工场启用，陈升和伙伴们是第一批入驻团队。如今，梦工场已累计孵化创业团队600多家。“越来越多港澳青年融入大湾区奋斗逐梦，让青春在这里绽放！”他说。　　新时代十年，随着互联网经济等新经济形态的迅猛发展，快递业快速增长。我国日均快递业务量达3亿件，收寄快递成为新开门“七件事”之一。一包一裹、一收一派，快递小哥成了服务广大人民群众不可或缺的角色。　　“快递小哥、环卫工人、出租车司机以及千千万万的劳动者，还在辛勤工作，我们要感谢这些美好生活的创造者、守护者。”在二〇一九年新年贺词中，习近平主席饱含深情地说。　　2019年春节前夕，北京前门石头胡同快递站点，刘阔和同事们遇到了前来看望他们的习近平总书记。听说大家年三十才能回家，总书记说，“快递小哥”工作很辛苦，起早贪黑、风雨无阻，越是节假日越忙碌，像勤劳的小蜜蜂，是最辛勤的劳动者，为大家生活带来了便利。这席话，温暖着刘阔的心窝。　　这是一个属于奋斗者的时代，每个人都在奔跑中拥抱梦想，用汗水浇灌未来。一个个努力拼搏的追梦人，共同绘就了同心共圆中国梦的壮阔画卷。　　“我要向每一位科学家、每一位工程师、每一位‘大国工匠’、每一位建设者和参与者致敬”　　——我们加快推进科技自立自强，一些关键核心技术实现突破，战略性新兴产业发展壮大，进入创新型国家行列　　“神舟十三号、十四号、十五号接力腾飞，中国空间站全面建成，我们的‘太空之家’遨游苍穹。”在二〇二三年新年贺词中，习近平主席点赞“太空之家”。　　2022年12月2日晚，一个特殊的交接仪式在距离地球400公里的中国空间站举行，神舟十四号乘组指令长陈冬向神舟十五号乘组指令长费俊龙移交了中国空间站的钥匙。　　这是中国航天员乘组完成的首次在轨交接。多年来，筑梦苍穹的过程，就是一棒交接一棒的接力赛，背后是广大科技工作者不惧艰辛、攻坚克难的付出和努力。　　纵观人类发展史，创新始终是一个国家、一个民族发展的不竭动力和生产力提升的关键要素。谁走好了科技创新这步先手棋，谁就能占领先机、赢得优势。　　新年贺词中，习近平主席多次为中国制造、中国创造、中国建造点赞，为中国人民迸发出来的创造伟力喝彩：　　“我国自主研制的C919大型客机总装下线，中国超级计算机破世界纪录蝉联‘六连冠’，我国科学家研制的暗物质探测卫星发射升空”。　　“我要向每一位科学家、每一位工程师、每一位‘大国工匠’、每一位建设者和参与者致敬”。　　“嫦娥四号在人类历史上第一次登陆月球背面，长征五号遥三运载火箭成功发射，雪龙2号首航南极，北斗导航全球组网进入冲刺期，5G商用加速推出，北京大兴国际机场‘凤凰展翅’……”　　“‘天问一号’、‘嫦娥五号’、‘奋斗者’号等科学探测实现重大突破。”　　党的十八大以来，习近平总书记高度重视科技创新，提出一系列重大论断，发表一系列重要论述，亲自谋划、亲自部署、亲自推动一系列重大战略举措，擘画了我国科技创新发展的宏伟蓝图，走出了一条从人才强、科技强到产业强、经济强、国家强的创新发展新路径。　　2019年1月3日，嫦娥四号探测器顺利在月球背面预选区成功着陆，探测器系统总设计师孙泽洲与同事们激动得紧紧拥抱在一起。探月工程，圆了中华民族自强不息的飞天揽月之梦，工程全线数万名科技工作者都是追梦人。“习近平总书记的重要讲话指引着我们不断追求新的梦想，不断实现新的突破。”孙泽洲说。　　2022年12月26日，好消息传来，我国自行研制、具有自主知识产权的C919大型客机交付东航的全球首架机的首班验证飞行开启。C919的起飞，是中华民族“大飞机梦”的腾飞。“我们要做一个强国，就一定要把装备制造业搞上去，把大飞机搞上去，起带动作用、标志性作用。”习近平总书记的嘱托，中国商飞公司上海飞机制造有限公司技术专家孟见新心中时时牢记。他用工匠精神要求自己：“要干就要干到极致！造飞机，不能没匠心！”　　伶仃洋上，一桥飞架三地，如同海上巨龙。　　“人工建岛和海底沉管隧道，当时对我们来说都是‘超级难题’。”港珠澳大桥管理局总工程师苏权科介绍，“港珠澳大桥是一座名副其实的科技大桥，在这些世界级挑战的背后，是一系列创新攻坚和科技支撑的强力驱动。”　　2万多名施工人员、1000多名科研设计人员，经历无数个日日夜夜，终于托举起这座世界级工程……“我们将不负习近平总书记嘱托，逢山开路、遇水搭桥，继续攀登新的高峰！”苏权科振奋地说。　　党的二十大报告提出，我国全社会研发经费支出从1万亿元增加到2.8万亿元。国家创新能力综合排名上升至世界第十一位，累计授权发明专利395.3万件。　　国产C919大飞机市场化运营加速，时速600公里高速磁浮试验样车下线，高性能装备、智能机器人、增材制造、激光制造等技术有力推动“中国制造”迈向更高水平，5G移动通信技术率先实现规模化应用……新时代十年，我们坚定不移走自主创新道路，把创新发展主动权牢牢掌握在自己手中。　　当前，世界新一轮科技革命和产业变革加速演进和拓展，科技创新正在深刻改变世界发展格局，我国发展面临千载难逢的历史机遇。　　习近平总书记在党的二十大报告中指出：“必须坚持科技是第一生产力、人才是第一资源、创新是第一动力，深入实施科教兴国战略、人才强国战略、创新驱动发展战略，开辟发展新领域新赛道，不断塑造发展新动能新优势。”　　于危机中育先机、于变局中开新局。新征程上，我们要坚定创新自信，抢抓创新机遇，勇攀科技高峰，破解发展难题，加快实现高水平科技自立自强，加快建设科技强国。　　“广大人民群众坚持爱国奉献，无怨无悔，让我感到千千万万普通人最伟大，同时让我感到幸福都是奋斗出来的”　　——社会主义核心价值观广泛传播，全党全国各族人民文化自信明显增强、精神面貌更加奋发昂扬　　“广大人民群众坚持爱国奉献，无怨无悔，让我感到千千万万普通人最伟大，同时让我感到幸福都是奋斗出来的。”在二〇一八年新年贺词中，习近平主席谈到了之前回信的南开大学新入伍的大学生。　　在习近平主席的勉励下，这群年轻人完成了从地方大学生到青年军人的蜕变。这些年来，他们有的在军营建功立业，有的退役不褪色，在“第二战场”拼搏奋斗，续写绚烂的青春篇章。　　“明天的中国，希望寄予青年。青年兴则国家兴，中国发展要靠广大青年挺膺担当。年轻充满朝气，青春孕育希望。广大青年要厚植家国情怀、涵养进取品格，以奋斗姿态激扬青春，不负时代，不负华年。”在二〇二三年新年贺词中，习近平主席深情地说。　　好儿女志在四方，有志者奋斗无悔。如今，越来越多的有志青年到祖国和人民最需要的地方去建功立业，把艰苦和磨砺当成人生精彩篇章的序曲，绽放绚丽的青春之花。　　“豁出命改变她们的命，值！”“七一勋章”获得者、云南丽江华坪女子高级中学校长张桂梅扎根贫困地区40余年，帮助近2000名女孩走出大山。　　张桂梅的奉献，激励着越来越多青年投身山区教育。周云丽是华坪女高的第一届学生，因家庭贫困面临失学的她，在华坪女高得到了继续读书的机会。2015年，听说母校缺老师，她毫不犹豫回校。如今，周云丽已成为学校的骨干教师，和许多老师一起，接过了校长张桂梅手中的接力棒。　　追梦人在一次次接力中完成了梦想的传递。　　习近平主席在二〇一五年新年贺词中说：“对一切为国家、为民族、为和平付出宝贵生命的人们，不管时代怎样变化，我们都要永远铭记他们的牺牲和奉献。”　　2022年9月17日上午，第九批在韩中国人民志愿军烈士遗骸安葬仪式在沈阳抗美援朝烈士陵园举行。苍松低吟，翠柏肃立，“抗美援朝烈士英灵永垂不朽”题字更显遒劲。　　山河无恙，英雄归来。陵园下沉式纪念广场中央，环形烈士英名墙下摆满了黄白相间的菊花，寄托着人们的深切哀思。戴着红领巾的学生搀扶着志愿军老战士走在前面，一颗颗源自伟大抗美援朝精神的种子播撒在少先队员们的心田。　　一场场唤醒历史的纪念，一次次触动心灵的激励。“英雄的事迹永远铭记在我们心中。每当辞旧迎新，总会念及中华民族千年传承的浩然之气，倍增前行信心。”在二〇二三年新年贺词中，习近平主席说。　　奋斗，是革命先烈前赴后继的无畏身影，是青年突击队、青年志愿垦荒队在山川大地树起的鲜艳旗帜，是“团结起来，振兴中华”的时代强音，是“清澈的爱、只为中国”的深情告白，是“请党放心、强国有我”的铿锵誓言……　　“让更多人参与到冰雪运动中来，这也是奥林匹克运动的题中之义。我们将竭诚为世界奉献一届奥运盛会。世界期待中国，中国做好了准备。”在二〇二二年新年贺词中，习近平主席向全世界宣告。　　北京冬奥会、冬残奥会成功举办，冰雪健儿驰骋赛场，取得了骄人成绩。中国单板滑雪运动员苏翊鸣收获金、银牌，为中国冰雪运动取得历史性突破。十年磨一剑。苏翊鸣曾一周滑坏4块雪板，冬天去雪场练，夏天跳模拟气垫，“不知道经过多少次失败才能解锁一个新动作”。　　北京冬奥会夺冠后，苏翊鸣给习近平总书记写了一封信。“翊鸣同学：你好！来信收悉。”总书记的回信，苏翊鸣读了一遍又一遍，他说：“小时候戴红领巾，长大披五星红旗。对一份心中所爱，都能去试一下拼一把，是这个时代给我们青年人的礼物！”　　“疫情发生以来，我们始终坚持人民至上、生命至上，坚持科学精准防控，因时因势优化调整防控措施，最大限度保护了人民生命安全和身体健康。广大干部群众特别是医务人员、基层工作者不畏艰辛、勇毅坚守。经过艰苦卓绝的努力，我们战胜了前所未有的困难和挑战，每个人都不容易。”在二〇二三年新年贺词中，习近平主席这样说。　　广大医务工作者义无反顾、逆行出征，白衣执甲、不负重托，英勇无畏冲向疫情防控斗争第一线，用实际行动践行了敬佑生命、救死扶伤、甘于奉献、大爱无疆的崇高精神。460多万个基层党组织冲锋陷阵，400多万名社区工作者在全国65万个城乡社区日夜值守，让党旗在抗疫第一线高高飘扬……一个个动人故事，闪耀着平凡而伟大的光芒。以爱国主义为核心的民族精神，始终指引着梦想的方向。　　在塞罕坝机械林场海拔1900米的月亮山上，矗立着一座“望海楼”。刘军、王娟夫妇每天要对森林进行定时瞭望。24年来，夫妻俩过着几乎“与世隔绝”的生活。“干林业苦不苦？苦！但不吃这份苦，哪来的山青水碧天蓝？”看到漫山遍野的林子，夫妻俩觉得很欣慰。　　“黄河安澜，国泰民安”，浓缩了中华儿女的千年夙愿。山东省东营市垦利区黄河河务局义和管理段段长陈建武十多年来一直守护在这126公里的沿黄岸线。每年汛期，他就成了段上的“常住人口”，巡堤查险、夜探根石、工程管护……24小时连轴转。这十年，上游调水调沙、下游疏浚河道，陈建武明显感受到黄河水生态环境日益改善。　　平凡铸就伟大，英雄来自人民。“向所有平凡的英雄致敬！我为伟大的祖国和人民而骄傲，为自强不息的民族精神而自豪！”在二〇二一年新年贺词中，习近平主席的话语振聋发聩。　　千千万万中华儿女坚持爱国奉献，无怨无悔，以奋斗的底色和奔跑的姿态，朝着心中的梦想进发，绘成一幅为实现中华民族伟大复兴而奋斗的壮丽图景。　　“人民子弟兵永远是保卫祖国的钢铁长城，让我们向守护家园的忠诚卫士们致敬！”　　——人民军队体制一新、结构一新、格局一新、面貌一新，现代化水平和实战能力显著提升，中国特色强军之路越走越宽广　　深情的祝福，殷切的关怀，伴随着新年钟声传遍神州大地，传到全军官兵。　　“人民军队迎来95岁生日，广大官兵在强军伟业征程上昂扬奋进。第三艘航母‘福建号’下水……”在二〇二三年新年贺词中，习近平主席说。　　从林海雪原到天涯海角，从西北大漠到东南沿海，从中原腹地到万里边关……聆听习近平主席发表的二〇二三年新年贺词，全军官兵心潮澎湃、倍感温暖。　　同基层官兵在一起的照片，多次出现在习近平主席身后的书架上。踏边关、走戈壁、登战机、上战舰……这一张张定格的画面，诉说着基层官兵在统帅心中的特殊位置。　　党的十八大以来，中国特色社会主义进入新时代，国防和军队建设也进入新时代。　　人民军队这十年，是浴火重生的十年，是强军兴军的十年，是阔步迈向世界一流的十年。强军事业取得历史性成就、发生历史性变革，我军现代化水平和实战能力显著提升，中国特色强军之路越走越宽广。　　每年新年贺词中提到的闪亮名字，更是号角催征、鼓舞士气：　　——“一辈子深藏功名、初心不改的张富清”。　　曾是西北野战军突击队员的张富清，冒着枪林弹雨，立下卓著战功。1955年，他退役转业，主动选择到湖北省最偏远的来凤县工作，为贫困山区默默奉献一生，即使生活过得并不宽裕，他也没向组织提过任何要求。直到2018年底，国家开展退役军人信息登记，他隐藏半个多世纪的战功才得以被发现。　　——“用自己身体保护战友的杜富国”。　　2018年10月，云南边境排雷行动中，面对不明爆炸物，陆军某扫雷排爆大队战士杜富国对战友喊出“你退后，让我来”，却在进一步查明情况时突遇爆炸，失去双手双眼，同组战友安然无恙。没有双手双眼，还能做什么？杜富国记得习近平主席“把身体养好”的叮嘱，他说：“我还有一双完整的腿，我可以继续为梦想奔跑！”　　——“全军英模挂像里多了林俊德和张超两位同志”。　　林俊德，中国爆炸力学与核试验工程领域著名专家、中国工程院院士。他隐姓埋名，投身我国国防科技领域50余年，即使在生命最后一刻，也争分夺秒，整理重要科研资料。他说：“我这辈子只做了一件事，就是核试验，我很满意。”　　张超，海军某舰载航空兵部队正营职中队长，一级飞行员。2016年4月，他驾驶117号歼—15飞机进入着“舰”航线，已经接地滑跑的飞机突报“电传故障”，猛然下坠。张超竭尽全力推操纵杆，力图避免战机损毁。弹射跳伞后，他被重重摔下，壮烈牺牲。　　…………　　“人民子弟兵永远是保卫祖国的钢铁长城，让我们向守护家园的忠诚卫士们致敬！”习近平主席牵挂着人民子弟兵，以及许许多多无怨无悔、倾情奉献的无名英雄。　　他们把热血和青春献给了国防和军队现代化事业，以普通人的平凡书写了不平凡的人生。他们是新时代最可爱的人，永远值得我们怀念和学习。　　见贤思齐、崇尚英雄、争做先锋。官兵们纷纷表示，一定要时刻牢记习主席的深切关怀和殷殷嘱托，全面加强练兵备战，高标准完成好各项任务，为实现党在新时代的强军目标、把人民军队全面建成世界一流军队不懈奋斗。　　“大家跟我说了很多心里话，我一直记在心上。”温暖的话语直抵人心，在二〇二〇年新年贺词中，习近平主席专门提到了给“王杰班”全体战士回信，坐在电视机前的陆军第71集团军某旅“王杰班”全体战士激动万分。　　2017年12月13日，党的十九大后，习近平主席第一次出京视察部队，再次来到了连队。“来，咱们坐下聊一聊！”在“王杰班”座谈交流时，习近平主席随和地招呼大家。战士们围拢在习主席周围，脸上洋溢着发自内心的喜悦。　　“王杰的枪，我们扛……”嘹亮的连歌，记录下官兵对王杰精神的传承。2017年，“王杰班”由工兵班调整组建为装甲步兵班，同时换装某新型步兵战车。“再苦再难也要迈过转型这道坎！”面向老班长王杰的雕塑，全班战士立下铮铮誓言。他们坚持苦练硬功，列装不足百天，就在新装备首次实弹射击中首发命中、发发命中。　　新时代强军征程，波澜壮阔。在以习近平同志为核心的党中央坚强领导下，人民军队坚定不移走中国特色强军之路，实现整体性革命性重塑，正以不可阻挡的步伐迈向世界一流。　　雄关漫道真如铁，而今迈步从头越。如期实现建军一百年奋斗目标，是党的意志、人民的期盼，是人民军队必须扛起的时代重任、必须交出的历史答卷。　　广大官兵纷纷表示，要更加紧密地团结在以习近平同志为核心的党中央周围，全面贯彻习近平新时代中国特色社会主义思想和党的二十大精神，强化思想引领，强化担当作为，强化工作落实，奋力实现建军一百年奋斗目标，打开强军事业发展新局面！ 　　今天，我们比历史上任何时期都更接近、更有信心和能力实现中华民族伟大复兴的目标。　　今天，我们也更清醒地认识到“中华民族伟大复兴绝不是轻轻松松、敲锣打鼓就能实现的，也绝不是一马平川、朝夕之间就能到达的”。　　点点星火，汇聚成炬。幸福都是奋斗出来的，成功总是属于积极进取、不懈追求的人们。新时代的伟大成就，是全国各族人民撸起袖子干出来的，是新时代奋斗者挥洒汗水拼出来的。　　新故相推，日生不滞。温暖的、明媚的2023年的阳光照在我们脸上，坚实的大地上跃动着无数追梦人前行的身影。党的二十大擘画了全面建设社会主义现代化国家、以中国式现代化全面推进中华民族伟大复兴的宏伟蓝图，吹响了奋进新征程的时代号角。要把这个蓝图变为现实，必须不驰于空想、不骛于虚声，一步一个脚印，踏踏实实干好工作。　　梦想有多么伟大，征程就有多么壮阔。　　明天的中国，奋斗创造奇迹。我们通过奋斗，披荆斩棘，走过了万水千山，创造了无数辉煌。我们还要继续奋斗，勇往直前，只要有愚公移山的志气、滴水穿石的毅力，脚踏实地，埋头苦干，积跬步以至千里，就一定能够把宏伟目标变为美好现实，创造更加灿烂的辉煌！</t>
-        </is>
-      </c>
+　　2024年是新中国成立75周年，是实现“十四五”规划目标任务的关键一年。1月2日，新年首个工作日，神州大地处处可见奋力攀登的姿态、奋斗拼搏的面貌。　　“必须把坚持高质量发展作为新时代的硬道理”。广大干部群众深入贯彻落实中央经济工作会议精神，抓住一切有利时机，利用一切有利条件，看准了就抓紧干，能多干就多干一些，推动发展活力勃发奔涌。　　锚定高质量发展　　新能源汽车、锂电池、光伏产品， “新三样”的崛起，成为新时代中国经济高质量发展的新动能。　　每53秒就有一台新能源汽车“驶”下生产线！　　1月2日，记者走进位于广东广州番禺区的广汽埃安智能生态工厂总装车间，只见工业机器人与产业工人协同作业，一派热气腾腾。　　“半年多前，下线所需时间是60秒。”总装车间高级经理张自初说，“不要小看减少的这7秒，我们调整优化220个工位、460名工人的工作内容，设计应用实时智能辅助系统，一处一处抠细节，才‘抠’出了效率。”　　“国家锚定高质量发展，对我们新能源汽车企业来说，就是要做到生产更加高效、技术持续升级，为中国制造增添新亮色。”张自初说。　　埋头做好自己的事　　新年首个工作日，各地科技工作者攻难题、攀高峰，助力释放科技创新引领产业创新的澎湃动能。　　将制备好的量子点薄膜晶体管芯片放到低温冷阱探针台中，设定好温度、电压等参数，通入二氧化氮气体，一系列有规律的波形数据很快在屏幕上显示……在华中科技大学的量子人工嗅觉学术前沿青年团队实验室，科研人员正在进行各项实验操作和数据记录。　　“高性能智能气体传感器可广泛应用于温室气体检测、流程工业安全、智慧医疗等领域，已成为各国科技竞逐的新赛道。”华中科技大学集成电路学院教授刘欢说，“新的一年，团队将围绕智能气体传感器芯片与微系统关键技术持续攻关。我们要沉住气、铆足劲，埋头做好自己的事。”　　“千年大计”需要久久为功　　习近平主席在二〇二四年新年贺词中指出“雄安新区拔节生长”，这让雄安新区的干部群众倍感振奋。　　白雪映照下，占地9800亩的雄安新区“千年秀林”大清河片林里油松苍翠、榆树挺拔。1月2日早上8点多，记者看到，大清河片林一区20多名护林员穿梭其中。“冬天的护林工作做细致做到位，春天树木的长势才会更好。”雄安集团生态建设投资公司副总经理徐成立说。　　高标准高质量推进雄安新区建设，既要保持“千年大计”的定力，又要拿出只争朝夕、稳扎稳打的干劲。　　雄安新区设立之初的两年，规划反复打磨，几乎没有动一砖一瓦。有了蓝图之后，新区面貌日新月异，处处能感受到“未来之城”强劲的发展步伐。1月2日，记者看到，被称为“雄安之眼”的雄安城市计算中心拱形东立面与湖景水面中的倒影相互融合；刚刚实现全线通车的京雄高速车流不息；走进北京四中雄安校区、雄安史家胡同小学两所学校，教室里传来琅琅读书声……　　倾情解民忧，温暖在心头　　“我们的目标很宏伟，也很朴素，归根到底就是让老百姓过上更好的日子。”从乡村到城市，各地着力保障和改善民生，倾情解民忧，温暖在心头。　　1月2日一大早，甘肃省临夏州积石山县石塬镇秦阴村驻村第一书记刘永东就忙碌起来。受地震影响，圈舍倒塌，村民们的存栏牛羊急需出售。“天冷牛羊容易掉膘，早一天卖出去，乡亲们就能早一天安心。”　　刘永东把采购商迎进村民家中，帮着找销路、谈价格。“现在我们已经帮乡亲们卖出了约300只羊、10多头牛，大伙再加把劲，可不能让村民一年的辛苦付出‘折了价’。”　　民生无小事，用心办更要抓紧办。新年上班第一天，上海市中心规模最大的居民小区拆除重建项目——蕃瓜弄小区旧住房改造施工现场机器轰鸣。　　这一天，蕃瓜弄小区旧住房改造项目负责人吴超行程满满当当——先去附近协调场地，“把要进场的上百名工人的临时住所搭建好，工期一刻不误”；接着赶往工地南侧的天目西路派出所，“蕃瓜弄小区新建的地下车库入口挨着派出所，扩宽入口需要协商”；再去静安区规划资源局，“静安区开辟了绿色通道，能提速审批配套项目。”　　一路走、一路忙，吴超满是干劲，“我们和蕃瓜弄居民约定了三年半工期，必须赶进度、保质量，不能歇脚缓劲。”　　接诉即办，件件有回音　　新年伊始，各地党员干部转变作风、真抓实干，把好事办好、实事办实、难事办妥，不断增强群众获得感、幸福感、安全感。　　1月2日早上8点30分，记者来到北京市海淀区紫竹院街道厂洼街3号院。见到厂洼第二社区党委书记董建平时，他已经和两名维修下水道的工人忙活了好一阵子，“整个元旦假期，一直放心不下这件事。”　　“这件事”要追溯到去年12月29日晚上，居民尹风茹老人家中下水道堵塞。接到老人诉求，董建平当晚就联系了街道城市管理办公室，调来清掏车，连续清了2个多小时，暂时止住了污水回流。但是，“要想彻底解决问题，必须更换老化严重的管线。”　　方案敲定，节后开工。切旧管、换新管、试水……临近中午，工程顺利完结，董建平这才稍稍舒了一口气：“件件有回音，事事有着落，老百姓才能满意放心。”　　（本报记者许晴、钱一彬、李刚、程远州、范昊天、邵玉姿、王锦涛、黄晓慧、王昊男）</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">完善制度机制  确保常态长效（学思想 强党性 重实践 建新功）  </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>http://paper.people.com.cn/rmrb/html/2024-01/03/nw.D110000renmrb_20240103_4-01.htm</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>人民日报   2024年01月03日 星期三</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>第二批主题教育中，各地将好做法好经验以制度形式固定下来——
+完善制度机制  确保常态长效（学思想 强党性 重实践 建新功）
+                        本报记者  李林蔚
+                        《
+          人民日报
+          》（
+          2024年01月03日
+          第 01
+          版）
+　　2023年12月，习近平总书记在广西考察时强调：“第二批主题教育处于尾声，要善始善终，建立健全以学铸魂、以学增智、以学正风、以学促干的长效机制。”　　第二批学习贯彻习近平新时代中国特色社会主义思想主题教育中，各地坚持“当下改”与“长久立”相结合，把主题教育探索的好做法好经验及时以制度形式固定下来，建立健全一系列行得通、做得实、长期管用的制度机制。　　建立健全理论学习长效机制，推动党的创新理论入脑入心　　“了解清洁能源的作用和未来，对墨脱县实施清洁能源强县具有很强的指导意义和实践价值……”西藏自治区林芝市墨脱县“强边学堂”第五课上，有关专家围绕“加快规划建设新型能源体系”进行授课，台下的党员、干部听得认真。借助这次授课的契机，授课人被聘为“墨脱县清洁能源高质量发展顾问”。　　第二批主题教育开展以来，墨脱县立足固边兴边富民实际，探索打造“强边学堂”，并将其作为理论学习的制度性安排，定期开展、长期坚持。受邀的授课人采取调研、座谈交流等方式，充分结合墨脱县当地情况，完善授课内容，并提出针对性建议。同时，墨脱县坚持“长线联系、促进发展”，积极构建长效联系机制，将授课人纳入专家库，为经济社会发展提供智力支持。　　“学思想”是这次主题教育的首要任务。各地牢牢把握深入学习贯彻习近平新时代中国特色社会主义思想这一主题主线和根本任务，把理论学习贯穿主题教育全过程，创新学习方式、拓展学习渠道，建立健全理论学习长效机制，推动理论学习往深里走、往实里走、往心里走。　　山东省日照市五莲县建立党员干部专题集中学、联系实际带着问题学等机制，定制7类理论学习任务清单，明确各领域基层党组织学习内容和方式方法。同时，聚焦巩固拓展主题教育学习成果，研究制定相关实施方案，健全完善“知势大讲堂”、片区党员夜校、“红杜鹃”宣讲等系列制度性举措，推动党员、干部学习常态化、长效化。　　浙江省金华市磐安县针对偏远山区外出人员较多、在村党员老龄化等特点，依托党建联建机制，将全县位于相对偏远片区的48个村、1272名党员按乡镇就近编入集中联学小组，分类指导、融合推进，确保主题教育全覆盖、见实效。　　河北省廊坊市香河县健全机制，采取结对互助共同学、包联对接推送学、送学上门帮带学等措施抓好学习。　　突出问题导向，建立健全为民办实事的长效机制　　“现在不仅接送孩子方便，每月房租还少了300多元，真是太高兴了！”申请到县里的公共租赁住房，云南省临沧市凤庆县凤山镇京竹林村村民杨桂菊难掩喜悦。杨桂菊在县城打工，孩子也在县城读书，此前她向县里申请了公共租赁住房，却因迟迟等不到房源，没少犯愁。　　面对公共租赁住房申请难这一群众急难愁盼问题，凤庆县住房城乡建设局结合开展主题教育，从“全清查、清空置、促公平、治违规、建机制”等方面着手，开展公共租赁住房百日整治行动。一方面，对配租房源现状进行公示，组织抽签现场会现场配租；另一方面，做好公共租赁住房、配租对象审核工作，取消不符合保障条件的拟配租对象的配租资格，让公共租赁住房真正分配给有需要的群众。　　主题教育中，各地教育引导广大党员、干部树牢造福人民的政绩观，既把群众关心的“关键小事”一件一件办好、一项一项抓实，又注重举一反三，通过“解剖一个问题”推动“解决一类问题”，不断完善解决民生问题的制度机制。　　江苏省苏州市开展“双报到、双服务”活动，推动机关企事业单位2万余名党员深入一线、服务基层，办好办实1.5万余件民生小事。张家港市针对群众反映较多的安置房办证窗口拥堵问题，建立多部门协作和定期会商机制，以高新区（塘桥镇）为试点，精简办证材料，实现“证件至多提供一次”；常熟市针对学生上下学高峰期问题，创新开通16条“校园快线”定制公交，优化“一站式”出行体验；苏州高新区建立“15分钟慢行健康圈”，在没有社区卫生服务站的社区设置“医养融合”家医工作室，解决社区居民就医“最后一百米”。　　主题教育中，各地充分运用好“四下基层”这个重要抓手，深入群众、贴近群众、服务群众，建立健全密切联系群众的长效机制，努力走好新时代党的群众路线。　　河南省郑州市聚焦群众普遍关注、亟待解决的信访问题、难题，市级领导带头下访、县级领导开门接访、乡镇领导随时接访、村级干部上门走访，推动群众合理诉求及时解决。在第二批主题教育中，郑州专门开辟远程视频接访通道，群众可以通过“郑好办”APP智慧信访专区实时查看各级领导接访计划等公示信息，并线上预约领导接访。　　打通发展堵点，以高质量发展的新成效检验主题教育成果　　走进位于安徽省合肥市庐阳区的合肥金融广场写字楼，大厅进门处一块写有“全程代办驿站”的指示牌格外醒目。“公司楼下就有驿站，现在办起业务来真是方便。”太平养老保险股份有限公司安徽分公司办公室负责人曹维钊说。　　第二批主题教育中，庐阳区聚焦优化营商环境，在全程代办的基础上，创新推出“驿站模式”，将政务服务窗口前移至区域内主要经济载体和产业招商最前沿，实现政务服务与企业需求精准匹配。下一步，庐阳区还将进一步完善服务布局，通过1个全程代办工作室和N个全程代办驿站将服务送到企业门口，让企业办理业务更加简单便捷。　　制度是管根本、管长远的。主题教育中，各地深入查找分析在贯彻新发展理念、构建新发展格局、推动高质量发展中的问题及其根源，找准切入点发力点，打通堵点淤点，建立健全推动高质量发展的长效机制，以高质量发展的新成效检验主题教育成果。　　“过去，企业之间近在咫尺，但是由于缺乏交流，错失了不少发展的机会，企业家沙龙活动让大家有了更多交流与合作的机会。”日前，贵州省黔南布依族苗族自治州福泉市举办以“实干担当促发展、千方百计抓项目”为主题的企业家沙龙活动，一名企业负责人在会后由衷地感慨。　　主题教育中，福泉市深化企业特派员和企业家沙龙服务机制，全面推行涉企网格化管理，选派企业特派员、优秀年轻干部下沉重点企业（项目）开展脱产服务；围绕新型工业化，打造企业家沙龙、企业之家，搭建政企零距离交流平台，推动构建信息互通、产业互融、优势互补、困难互帮、发展互助的工作格局。　　江苏省扬州市广陵区紧扣高质量发展这一首要任务，抓好招商引资“一号工程”，成立招商引资、重大项目建设等4个攻坚指挥部，组建1个招商引资攻坚党小组，聚力推进“百日招商会战”，研究制定《关于全面加强广陵区招商引资工作的实施意见》《关于全面加强广陵区招商引资工作的推进机制》，持续深化市场化手段，推动产业链和创新链“双链融合”，主题教育开展以来共促成14个项目签约。　　（本报记者王伟健、朱佩娴、杨文明、徐驭尧、李俊杰、陈隽逸参与采写）</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">图片报道  </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>http://paper.people.com.cn/rmrb/html/2024-01/03/nw.D110000renmrb_20240103_5-01.htm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>人民日报   2024年01月03日 星期三</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>图片报道
+《
+          人民日报
+          》（
+          2024年01月03日
+          第 01
+          版）
+　　1月2日，镇（巴）广（安）高速公路白马渠江特大桥顺利完成钢管拱合龙。镇广高速公路北连陕西省汉中市镇巴县，南连四川省广安市广安区，白马渠江特大桥是镇广高速公路的重点控制性工程。　　张国盛摄（影像中国）</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>人民日报</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">“让明天的中国更美好”  </t>
+          <t xml:space="preserve">今年全国粮食总产量达13908.2亿斤（新数据 新看点）  </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://paper.people.com.cn/rmrb/html/2023-01/01/nw.D110000renmrb_20230101_7-01.htm</t>
+          <t>http://paper.people.com.cn/rmrb/html/2023-12/12/nw.D110000renmrb_20231212_1-01.htm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>人民日报   2023年01月01日 星期日</t>
+          <t>人民日报   2023年12月12日 星期二</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>“让明天的中国更美好”
-——习近平主席二〇二三年新年贺词凝聚奋进力量
+          <t>今年全国粮食总产量达13908.2亿斤（新数据 新看点）
+增产177.6亿斤，总产量创历史新高
 《
           人民日报
           》（
-          2023年01月01日
+          2023年12月12日
           第 01
           版）
-　　“我们要一往无前、顽强拼搏，让明天的中国更美好。”国家主席习近平发表二〇二三年新年贺词，深情而坚定的话语，通过广播、电视、网络传遍大江南北。人们聆听着奋进中国的时代之声，感受着经济社会发展的强劲脉动，倍添阔步新征程的信念与信心。　　在非凡成就中品味收获的喜悦　　炊烟袅袅、茶香四溢……跨年之夜，广西苍梧县山坪村在浓浓的乡土气息中迎接新年的到来。几年前，这个偏远瑶寨还是个远近闻名的贫困村。　　“我们巩固脱贫攻坚成果，全面推进乡村振兴”。聆听习近平主席的新年贺词，家乡的巨变如过电影一般在山坪村党支部书记祝雪兰的脑海中闪现。　　通过种植茶叶，山坪村乡亲们拔了穷根，吃上了“茶香饭”，走上了“致富路”。　　“我们要牢记习近平总书记在参加二十大广西代表团讨论时‘要打出自己的品牌，把茶产业做大做强’的叮嘱，把日子越过越红火。”展望新的一年，祝雪兰充满信心。　　今天的中国，是梦想接连实现的中国。　　“北京冬奥会、冬残奥会成功举办，冰雪健儿驰骋赛场，取得了骄人成绩。”听到习近平总书记在新年贺词中专门提到冬奥会，北京冬奥会冠军武大靖心潮澎湃。　　“能够在北京冬奥会上实现‘家门口夺冠’的梦想，是我的幸运。”武大靖表示，在新的冬奥周期里，他将和队友强化每一次训练，拼好每一场比赛，继续为祖国体育事业增光添彩。　　“中国空间站全面建成，我们的‘太空之家’遨游苍穹。”总书记的话语激励着正在太空执行任务的神舟十五号乘组的心。　　一个月前，伴随着神舟十五号乘组入驻“天宫”，我国开启中国空间站长期有人驻留的时代。　　中国载人航天，筑梦于星辰大海。指令长费俊龙说：“我们一定不辜负党和人民的期望重托，坚决跑好我们这代航天人的历史接力棒。”　　今天的中国，是充满生机活力的中国。　　夜色中，海南洋浦国际集装箱码头外贸堆场灯火通明，接驳车往来穿梭，一派繁忙景象。　　留守值班的海南港航集装箱公司副总经理李捷在手机上认真学习了新年贺词。　　“总书记提到了海南自由贸易港蓬勃兴起，这让我倍感振奋。”李捷说，作为海南自贸港建设先行区，我们要继续用足用好各项政策，为加快建设具有世界影响力的中国特色自由贸易港作贡献。　　今天的中国，是赓续民族精神的中国。　　新年贺词中，习近平总书记为过去一年发生的地震、洪水、干旱、山火等自然灾害和一些安全事故揪心难过。　　总书记的话语让四川泸定得妥镇湾东水电站职工甘宇红了眼眶。在泸定地震发生时，甘宇不顾个人安危、拉开泄洪闸，挽救了下游村庄。　　“灾难面前，中国人的脊梁永远不会垮。”甘宇坚信，中华民族千年传承的浩然之气，将支撑每一个平凡的中国人闯关夺隘、执着前行。　　今天的中国，是紧密联系世界的中国。　　“我们始终如一珍视和平和发展，始终如一珍惜朋友和伙伴”。习近平主席的讲话，让埃塞俄比亚通讯社记者贝雷克特·西赛深有体会。在中国工作、生活期间，贝雷克特·西赛采访了中共二十大、进博会等重大活动。“中国敞开怀抱，给四海宾朋春风般的暖意，彰显大国气度。”贝雷克特·西赛相信，未来中国智慧、中国方案将会继续为全球发展注入新动力。　　在攻坚克难中砥砺前行的勇气　　习近平总书记为疫情发生以来广大干部群众特别是医务人员、基层工作者“不畏艰辛、勇毅坚守”点赞。　　温暖的话语让武汉大学中南医院重症医学科主任彭志勇回忆起战“疫”的点滴瞬间。他说：“疫情防控进入新阶段，现在仍是吃劲的时候。我们要守住人民生命健康的防线。坚持就是胜利，团结就是胜利。”　　路虽远，行则将至；事虽难，做则必成。　　辞旧迎新之际，中车长春轨道客车股份有限公司高速动车组装配车间里，崭新的“复兴号”中国标准动车组一字排开，准备驶向祖国各地。　　2022年以来，中车长客股份公司克服疫情影响，通过组织人员驻厂复工、精心统筹物料运输等方式，按期完成车辆研制任务。　　“正如总书记在贺词中所说，只要笃定信心、稳中求进，就一定能实现我们的既定目标。”中车长客股份公司高级技师胡俊祥说，“我们要继续攻克技术难题，让‘复兴号’跑得更快、行得更稳。”　　“犯其至难而图其至远”，新年贺词中引用的这句话让中华书局党委书记周绚隆印象深刻。　　“传统文化中蕴含着中华民族攻坚克难、砥砺前行的智慧和勇气。”周绚隆说，我们编纂《复兴文库》，正是希望能有更多人从中华传统文化中得到启迪。　　粮稳，则天下安。　　听到习近平总书记说“中国人的饭碗端得更牢了”，安徽省阜阳市太和县旧县镇张槐村种粮大户徐淙祥内心十分振奋。　　“面对疫情压力、极端天气、农资涨价等挑战，我们依旧创造了粮食生产‘十九连丰’的佳绩，实在不容易。”在徐淙祥看来，粮食生产离不开每个种粮人的努力。“我要继续带动乡亲们多种粮、种好粮，为守护国家粮食安全出力。”　　2022年，江泽民同志离开了我们。习近平总书记在回顾过去一年时，深切缅怀江泽民同志的丰功伟绩和崇高风范。　　“正如习近平总书记所说，我们要继承江泽民同志的遗志，把新时代中国特色社会主义事业不断推向前进。”江泽民同志母校的老师、江苏扬州市东关小学校长唐开权表示，要更加紧密地团结在以习近平同志为核心的党中央周围，为党和人民培养教育出更多合格的社会主义建设者和接班人。　　在美好展望中凝聚奋进的力量　　明天的中国，奋斗创造奇迹。　　在辽宁沈阳的新松智慧园移动机器人生产车间内，上千台移动机器人正在接受最后的调试，准备发往福建、四川等地。　　“新年贺词鼓舞人心、催人奋进。”新松机器人自动化股份有限公司总裁张进表示，作为科技创新企业，将勇于创新，突破更多“卡脖子”的技术难题。　　明天的中国，力量源于团结。　　在新疆于田县，聆听新年贺词后，库尔班大叔的曾外孙女如克亚木·麦提赛地又津津有味地给家里的小朋友们讲起了库尔班大叔“骑着毛驴上北京”的故事。　　“14亿多中国人心往一处想、劲往一处使，同舟共济、众志成城，就没有干不成的事、迈不过的坎。”如克亚木·麦提赛地表示，“我们要牢记总书记的嘱托，像石榴籽一样紧紧抱在一起。”　　习近平主席在贺词中提到，今年他去了香港，看到香港将由治及兴十分欣慰。　　习近平主席这番话，让香港青年梁婉琳深受鼓舞。她说：“香港好，国家好；国家好，香港更好。依托粤港澳大湾区的快速发展，香港年轻一代一定会有更广阔的人生舞台。”　　明天的中国，希望寄予青年。　　在中国人民大学教室里，商学院2021级硕士研究生郑琦琦和同学们一起收看了新年贺词。　　“2022年五四青年节前夕，习近平总书记寄语大家要在全面建设社会主义现代化国家新征程中勇当开路先锋、争当事业闯将。”郑琦琦说，青年兴则国家兴，作为即将走上工作岗位的青年党员，要厚植家国情怀、涵养进取品格，以奋斗姿态激扬青春，不负时代，不负华年。　　习近平总书记在贺词中回顾了党的二十大后不久带领中央政治局常委来到延安的初心之旅。这让延安革命纪念馆馆长茆梅芳感触很深。　　“中国共产党百年栉风沐雨、披荆斩棘，历程何其艰辛又何其伟大。我们要讲好党史故事，凝聚起奋进新征程的磅礴力量。”茆梅芳说。　　新年贺词一经发表，迅速在互联网上、“朋友圈”中“刷屏”。　　“心中有理想，行动有力量。”　　“点点星火，汇聚成炬。中国美好的明天需要我们共同书写。”　　“每个人都不容易。”　　“新年快乐、皆得所愿！”　　…………　　网友们纷纷写下美好的心愿，祝福祖国繁荣昌盛，期盼春暖花开时、明天会更好。　　（新华社北京12月31日电  新华社记者）</t>
+　　本报北京12月11日电  （记者刘志强、常钦、郁静娴）粮食丰收，颗粒归仓。山东省平原县鲁望农场种粮大户何石宝说：“新技术真管用！玉米合理密植，每亩地足足有5000多株，亩产提升了一大截，超过1500斤。”今年平原县大面积推广玉米密植新模式，带动秋粮增产5.3%。　　小账连大账。国家统计局11日公布的数据显示，2023年全国粮食总产量达到13908.2亿斤，创历史新高，增产177.6亿斤，粮食产量连续9年站稳1.3万亿斤台阶。尤其是全国300个粮食大县发挥了主力军作用，单产提升贡献率达73%。　　今年，在自然灾害多发频发情况下，粮食生产再获丰收，大面积单产提升行动功不可没。　　从年初开始，农业农村部重点在200个玉米主产县、100个大豆主产县整建制推进绿色高产高效行动和单产提升行动，强投入、推技术、增密度、提产量，辐射带动全国粮食综合生产能力稳步提升。　　强农政策见实效。重点县大豆密度每亩增加800—1000株、每亩增产30—50斤，玉米密度增加500—800株，每亩增产150—300斤。在重点县示范带动下，全国粮食单产提升0.8%，为全年粮食丰收奠定了坚实基础。　　粮食生产再获丰收，种植面积成为牢靠“底盘”。　　稳政策，让农民吃上“定心丸”。今年，中央财政下达实际种粮农民一次性补贴资金100亿元；加大玉米和大豆生产者补贴力度，稳定实施稻谷补贴；在秋粮生产关键时期，安排玉米大豆“一喷多促”一次性补助资金24亿元……农业农村部、财政部聚焦300个重点县，增加投入支持力度。各地区各部门饭碗一起端，责任一起扛，稳定增加粮食种植面积。　　减“单”增“双”，湖南省湘乡市棋梓镇普安村农民田学文说：“单季稻改成双季稻，早稻集中育秧每亩补贴100元，流转的2000多亩田多种了一季，增收20万元左右。”　　农业农村部种植业管理司司长潘文博表示，算全年粮食生产大账，夏粮产量达到2923亿斤，虽然比上年略减，但仍为历史第二高位。要看到的是，占全年粮食大头的秋粮今年播种面积达到13.1亿亩，连续4年增加，比上年增加700多万亩。种植面积增加，再加上单产提升，对冲了洪涝、干旱等灾害影响，实现了全年粮食“以秋补夏、以丰补歉”。　　粮食生产再获丰收，集成技术应用成为有力支撑。　　今年，农业农村部推行良田、良种、良法、良机、良制“五良”集成组装的综合性解决方案，通过200个玉米主产县、100个大豆主产县整建制示范带动，集成配套各类资源措施，精准管控各生产环节。专家估计，全国约有3亿亩玉米具备实施密植精准调控技术的灌溉条件，全部推广应用可新增玉米年生产能力600亿斤。　　粮食生产再获丰收，农田建设是关键举措。　　水利是农业命脉。今年以来，农田水利工作扎实推进，全国7300多个大中型灌区，生产粮食约占全国粮食总产量的一半，亩均单产是全国平均水平的1.5到2倍。今年春灌、夏灌、秋灌累计供水2900多亿立方米，为全年粮食丰收提供了坚实水保障。今年1—8月完成高标准农田建设任务4470万亩，粮食产能基础不断夯实。　　抓重点、真投入，出真招、谋实招，开局之年粮食再获丰收，为经济总体保持回升向好态势奠定了坚实基础，为应对各种风险挑战赢得主动权。新征程上，坚持粮食生产年年要抓紧，始终绷紧粮食安全这根弦，大国粮仓根基越来越稳固，中国人的饭碗定能牢牢端在自己的手上。　　（相关报道见第三版）</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>新华日报</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">构建具有战略意义的中越命运共同体 开启携手迈向现代化的新篇章  </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>http://paper.people.com.cn/rmrb/html/2023-12/12/nw.D110000renmrb_20231212_2-01.htm</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>人民日报   2023年12月12日 星期二</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>习近平在越南媒体发表署名文章
+构建具有战略意义的中越命运共同体 开启携手迈向现代化的新篇章
+《
+          人民日报
+          》（
+          2023年12月12日
+          第 01
+          版）
+　　新华社北京12月12日电  12月12日，在赴河内对越南进行国事访问之际，中共中央总书记、国家主席习近平在越南《人民报》发表题为《构建具有战略意义的中越命运共同体  开启携手迈向现代化的新篇章》的署名文章。文章全文如下：　　构建具有战略意义的中越命运共同体　　开启携手迈向现代化的新篇章　　中共中央总书记、中华人民共和国主席  习近平　　应越共中央总书记阮富仲和越南国家主席武文赏邀请，我即将对越南社会主义共和国进行国事访问。这是我担任中共中央总书记、中华人民共和国主席以来第三次踏上越南这片美丽的土地，感到十分亲切，就像到亲戚和邻居家串门一样。　　中越两国山水相连，文化相通，理想相同，命运与共。毛泽东、胡志明等两党两国老一辈领导人怀着共同理想信念相交相知，携手缔造了“同志加兄弟”的中越传统友谊。在追求各自国家独立和民族解放事业进程中，我们团结一心、相互支持。在社会主义建设事业中，我们互学互鉴、拓展合作，共同书写了中越友好历史篇章。　　今年是中越建立全面战略合作伙伴关系15周年。不管国际风云如何变幻，中越两党两国共守和平安宁，共谋发展合作，共创繁荣富强，走出一条共建人类命运共同体的阳光大道。　　我们坚持以信相交。两党两国高层像走亲戚一样常来常往。今年，我同阮富仲总书记密切互动，共同从战略高度和长远角度擘画新时代中越关系蓝图，推动中越关系确立新定位、迈入新阶段。我先后会见了赴华访问或出席会议的国家主席武文赏、政府总理范明政、越共中央书记处常务书记张氏梅同志。双方召开了双边合作指导委员会、两党理论研讨会、两国公安部合作打击犯罪会议等机制会议。各部门各地方合作更趋密切。　　我们坚持以利相融。中国长期是越南最大贸易伙伴，越南是中国在东盟最大贸易伙伴和全球第四大贸易伙伴。应中方邀请，越南领导人出席第三届“一带一路”国际合作高峰论坛、第六届中国国际进口博览会、第七届中国—南亚博览会、第二十届中国—东盟博览会。越南输华的果蔬等农产品深受中国消费者喜爱。中国出口的原材料和机械设备有力支持了越南制造业发展。中国企业承建了河内轻轨2号线，这是越南首条城市轻轨项目，累计载客近2000万人次，为河内市民出行带来便利。中越国际班列开行，智慧口岸启动建设，陆地边界口岸互联互通加快推进。中国企业在越南建成海外最大的光伏产业集群，投资建设的光伏和风能电站为越南的能源转型发展作出积极贡献，在河内、芹苴等地投资建设多个垃圾发电项目。　　我们坚持以谊相亲。今年以来，两国人员往来迅速恢复，前10个月中国赴越游客超过130万人次，中越德天（板约）瀑布跨境旅游合作区成功试运营。中国全国政协和越南祖国阵线中央暨边境省份友好交流活动、中越边民大联欢等活动开展得有声有色。中国传统经典名著在越南家喻户晓，中国当代影视作品也深受越南民众喜爱。越南流行歌曲火爆中国社交媒体，越南歌手在中国综艺节目中收获大批中国“粉丝”。日益密切的人文交流就像蜿蜒流淌的涓涓细流，汇聚成中越友好交往的奔涌长河。　　我们坚持以诚相待。两国都高举多边主义旗帜，强调坚持对话协商、和平合作，坚定维护以联合国宪章宗旨和原则为基础的国际关系基本准则。双方在涉及彼此核心利益和重大关切问题上相互给予支持，在国际和地区合作机制中保持密切配合。越方积极参与全球发展倡议之友小组，支持全球安全倡议、全球文明倡议，支持中国加入《全面与进步跨太平洋伙伴关系协定》。　　今年是我提出构建人类命运共同体理念、共建“一带一路”倡议和亲诚惠容周边外交理念10周年。构建人类命运共同体，首先要从亚洲做起。中国有首耳熟能详的歌这样唱道，“我们亚洲，树都根连根；我们亚洲，云也手握手”，这反映出中国民众心中朴素的亚洲命运共同体意识。亚洲是我们共同的家园，周边是搬不走的邻居，成就邻居就是帮助自己。亲望亲好，邻望邻好。中国愿把自身发展同周边国家发展更紧密地结合起来，同周边国家一道打造命运共同体，让大家一起过上好日子。越南同中国有着“同志加兄弟”的深厚情谊。中国党和政府始终将发展中越关系视为中国周边外交的优先方向，衷心希望两国不忘传统友好初心，牢记共同理想使命，携手走好社会主义道路，不断推动构建具有战略意义的命运共同体。　　——保持战略沟通，夯实中越命运共同体政治基础。双方要继续保持高层战略沟通，确保中越关系这条航船劈波斩浪、稳步向前。双方要坚定支持对方走好符合本国国情的社会主义道路，统筹好发展和安全两件大事，共同践行全球发展倡议、全球安全倡议、全球文明倡议。要进一步深化社会主义建设理论和实践经验交流，共同抵御外部风险挑战，确保各自社会主义建设事业行稳致远。　　——发挥互补优势，强化中越命运共同体合作基础。中国正在以高水平对外开放推动构建新发展格局，越南经济保持稳步增长，双方要充分发挥地缘相近、产业互补优势，加快推动共建“一带一路”倡议和“两廊一圈”战略对接合作，不断拓展在互联互通、国企改革、绿色能源、关键矿产等领域合作，更好服务国家发展，更多惠及两国人民。　　——加强友好交流，筑牢中越命运共同体民意基础。远亲不如近邻。中越关系的根基在人民、血脉在人民、力量在人民。我们要加大友好合作交流，充分发挥中越央媒、智库、文旅、出版机构、广播影视等部门对口交流机制效能，深化中文教育、职业教育、体育、卫生等合作，办好中越人民论坛、青年友好会见等系列品牌活动，增进两国人民特别是青年一代相互了解和感情。两国要增开更多直航航班，中国将鼓励更多中国游客来到越南观光旅游，感受越南历史文化的独特魅力。　　——妥善管控分歧，扩大中越命运共同体共识基础。双方要落实两党两国领导人共识，妥善管控海上分歧，共同寻找双方都能接受的解决办法。双方要着眼两国人民长远福祉，坚持互利共赢，积极推进合作，为营造各自发展的良好外部环境、实现地区长治久安作出应有努力。　　当前，世界百年变局仍在加速演进，霸权主义、单边主义、保护主义有所上升，地区和平和发展面临较大不稳定性和不确定性。亚洲站在悠久文明的历史根基上，正迎来发展振兴的重要关口。亚洲新兴市场和发展中经济体将继续成为世界经济增长的主引擎。　　历史一再证明，一个国家、一个地区要振兴，就必须在历史前进的逻辑中前进，在时代发展的潮流中发展。亚洲地区的未来，掌握在亚洲人民自己手中。10年来，亚洲人民越来越深刻地认识到，只有共同践行亲诚惠容理念，弘扬和平、合作、包容、融合的亚洲价值观，才能融入人类和平、发展、进步的潮流；只有坚持合作共赢，共商共建共享“一带一路”，把开放的大门越开越大，才能促进区域经济循环畅通升级，为亚洲人民带来更多福祉；只有积极推动构建亚洲命运共同体，把本国发展寓于各国共同发展之中，才能共同建成和平安宁、繁荣美丽、友好共生的亚洲家园。　　万物得其本者生，百事得其道者成。无论世界如何沧桑巨变，中国坚持走人间正道。中国正以中国式现代化全面推进强国建设、民族复兴伟业，将持续推动高质量发展，坚持高水平对外开放，加快构建新发展格局。中国将保持周边外交政策的延续性和稳定性，坚持与邻为善、以邻为伴和睦邻、安邻、富邻方针，同时赋予亲诚惠容理念新的内涵，让中国式现代化更多惠及周边，共同推动亚洲现代化进程，为包括越南在内的亚洲国家提供新的发展机遇。　　我相信，中越两国构建具有战略意义的命运共同体，将吸引更多国家投身于构建亚洲命运共同体和人类命运共同体的伟大事业，为亚洲长足发展和睦邻友好提供更多正能量，为世界和平和发展作出更大贡献。</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>中俄两国元首互致新年贺电</t>
+          <t xml:space="preserve">《习近平喜欢的典故》第二季（越文版）在越南启播  </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://xh.xhby.net/pc/con/202301/01/content_1150741.html</t>
+          <t>http://paper.people.com.cn/rmrb/html/2023-12/12/nw.D110000renmrb_20231212_3-01.htm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023年01月01日 Sun</t>
+          <t>人民日报   2023年12月12日 星期二</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-     新华社北京12月31日电 2022年12月31日，国家主席习近平和俄罗斯总统普京互致新年贺电。    习近平代表中国政府和中国人民，向普京总统和俄罗斯人民致以诚挚的祝贺和美好的祝愿。习近平指出，2022年是极不平凡的一年。面对加速演变的国际形势和持续蔓延的全球疫情，中俄关系始终保持健康发展势头。这一年，中俄经贸合作稳步推进，能源、投资、互联互通等领域合作取得新成果，为两国共同发展提供了助力。双方正式启动中俄体育交流年，两国民众的相互了解和传统友谊进一步加深。    习近平指出，即将到来的2023年是中国全面落实中共二十大精神的开局之年，中俄关系也将迎来新的发展机遇。我愿同普京总统保持密切交往，引领双方深化全面战略协作和各领域务实合作，造福两国和两国人民。    普京总统向习近平主席致以衷心的节日祝贺，祝愿友好的中国人民幸福安康。普京表示，在即将过去的一年里，俄中全面战略协作伙伴关系持续加强，展现出强劲发展势头，经受住外部挑战考验。两国政治对话内容丰富，双边贸易额创历史新高，重大跨境交通基础设施项目建设完工。俄中体育交流年顺利举办，为推动双方人文合作作出重要贡献。相信通过共同努力，双方能够将两国合作提升至新的更高水平，造福俄中两国人民。    同日，国务院总理李克强同俄罗斯总理米舒斯京互致新年贺电。李克强表示，过去的一年，中俄全方位务实合作持续深化，人文交流日益密切，两国友好的社会民意基础愈加稳固。双方成功举行了中俄总理第二十七次定期会晤，达成重要共识。我愿同米舒斯京总理加强沟通交流，推动两国各领域务实合作取得更多实实在在的成果。米舒斯京表示，俄中全面战略协作伙伴关系不断向前发展，相信两国总理定期会晤框架下达成的各项共识将有助于增进两国战略协作，提升两国人民福祉。 
-</t>
+          <t>《习近平喜欢的典故》第二季（越文版）在越南启播
+《
+          人民日报
+          》（
+          2023年12月12日
+          第 01
+          版）
+　　本报河内12月11日电  在中共中央总书记、国家主席习近平即将对越南进行国事访问之际，由中国中央广播电视总台制作的《习近平喜欢的典故》第二季（越文版）11日起在越南播出。　　《习近平喜欢的典故》精心选取习近平主席重要讲话、文章、谈话中所引用的中国古籍和经典名句，生动展现习近平主席广博厚重的文化底蕴和人民至上、家国天下的深厚情怀，提炼阐释中华文明的独特精神标识、新时代内涵。　　《习近平喜欢的典故》第二季（越文版）11日起在越南数字电视台播出，并在其新媒体平台VTC Now同步上线。</t>
         </is>
       </c>
     </row>
@@ -728,24 +735,31 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>一往无前顽强拼搏 让明天的中国更美好</t>
+          <t xml:space="preserve">桑国卫同志遗体在京火化  </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://xh.xhby.net/pc/con/202301/01/content_1150742.html</t>
+          <t>http://paper.people.com.cn/rmrb/html/2023-12/12/nw.D110000renmrb_20231212_4-01.htm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023年01月01日 Sun</t>
+          <t>人民日报   2023年12月12日 星期二</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-     今天的中国    ■ 今天的中国，是梦想接连实现的中国。北京冬奥会、冬残奥会成功举办，冰雪健儿驰骋赛场，取得了骄人成绩。神舟十三号、十四号、十五号接力腾飞，中国空间站全面建成，我们的“太空之家”遨游苍穹。人民军队迎来95岁生日，广大官兵在强军伟业征程上昂扬奋进。第三艘航母“福建号”下水，首架C919大飞机正式交付，白鹤滩水电站全面投产……这一切，凝结着无数人的辛勤付出和汗水。点点星火，汇聚成炬，这就是中国力量！    ■ 今天的中国，是充满生机活力的中国。各自由贸易试验区、海南自由贸易港蓬勃兴起，沿海地区踊跃创新，中西部地区加快发展，东北振兴蓄势待发，边疆地区兴边富民。中国经济韧性强、潜力大、活力足，长期向好的基本面依然不变。只要笃定信心、稳中求进，就一定能实现我们的既定目标。今年我去了香港，看到香港将由治及兴十分欣慰。坚定不移落实好“一国两制”，香港、澳门必将长期繁荣稳定。    ■ 今天的中国，是赓续民族精神的中国。这一年发生的地震、洪水、干旱、山火等自然灾害和一些安全事故，让人揪心，令人难过，但一幕幕舍生取义、守望相助的场景感人至深，英雄的事迹永远铭记在我们心中。每当辞旧迎新，总会念及中华民族千年传承的浩然之气，倍增前行信心。    ■ 今天的中国，是紧密联系世界的中国。这一年，我在北京迎接了不少新老朋友，也走出国门讲述中国主张。百年变局加速演进，世界并不太平。我们始终如一珍视和平和发展，始终如一珍惜朋友和伙伴，坚定站在历史正确的一边、站在人类文明进步的一边，努力为人类和平与发展事业贡献中国智慧、中国方案。    明天的中国    ■ 明天的中国，奋斗创造奇迹。苏轼有句话：“犯其至难而图其至远”，意思是说“向最难之处攻坚，追求最远大的目标”。路虽远，行则将至；事虽难，做则必成。只要有愚公移山的志气、滴水穿石的毅力，脚踏实地，埋头苦干，积跬步以至千里，就一定能够把宏伟目标变为美好现实。    ■ 明天的中国，力量源于团结。中国这么大，不同人会有不同诉求，对同一件事也会有不同看法，这很正常，要通过沟通协商凝聚共识。14亿多中国人心往一处想、劲往一处使，同舟共济、众志成城，就没有干不成的事、迈不过的坎。海峡两岸一家亲。衷心希望两岸同胞相向而行、携手并进，共创中华民族绵长福祉。    ■ 明天的中国，希望寄予青年。青年兴则国家兴，中国发展要靠广大青年挺膺担当。年轻充满朝气，青春孕育希望。广大青年要厚植家国情怀、涵养进取品格，以奋斗姿态激扬青春，不负时代，不负华年。    ▶ 全文见2版 
-</t>
+          <t>桑国卫同志遗体在京火化
+习近平李强赵乐际王沪宁蔡奇丁薛祥李希韩正等到八宝山革命公墓送别桑国卫同志病重期间和逝世后，习近平李强赵乐际王沪宁蔡奇丁薛祥李希韩正胡锦涛等同志，前往医院看望或通过各种形式对桑国卫同志逝世表示沉痛哀悼并向其亲属表示深切慰问
+《
+          人民日报
+          》（
+          2023年12月12日
+          第 01
+          版）
+ 　　12月11日，桑国卫同志遗体在北京八宝山革命公墓火化。习近平、李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希、韩正等前往八宝山送别。这是习近平与桑国卫亲属握手，表示深切慰问。　　新华社记者  鞠  鹏摄
+　　新华社北京12月11日电  著名的药学家和社会活动家，中国农工民主党的杰出领导人，中国共产党的亲密朋友，中国工程院资深院士，第十一届全国人民代表大会常务委员会副委员长，中国农工民主党第十四届中央委员会主席桑国卫同志的遗体，11日在北京八宝山革命公墓火化。　　桑国卫同志因病于2023年12月7日17时10分在北京逝世，享年82岁。　　桑国卫同志病重期间和逝世后，习近平、李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希、韩正、胡锦涛等同志，前往医院看望或通过各种形式对桑国卫同志逝世表示沉痛哀悼并向其亲属表示深切慰问。　　11日上午，八宝山革命公墓礼堂庄严肃穆，哀乐低回。正厅上方悬挂着黑底白字的横幅“沉痛悼念桑国卫同志”，横幅下方是桑国卫同志的遗像。桑国卫同志的遗体安卧在鲜花翠柏丛中。　　上午9时30分许，习近平、李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希、韩正等，在哀乐声中缓步来到桑国卫同志的遗体前肃立默哀，向桑国卫同志的遗体三鞠躬，并与桑国卫同志亲属一一握手，表示慰问。　　党和国家有关领导同志前往送别或以各种方式表示哀悼。中央和国家机关有关部门负责同志，桑国卫同志生前友好和家乡代表也前往送别。</t>
         </is>
       </c>
     </row>
@@ -753,24 +767,30 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>为实现党的二十大确定的目标任务而团结奋斗</t>
+          <t xml:space="preserve">现代化产业体系建设取得重要进展（开局之年中国经济高质量发展述评③）  </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://xh.xhby.net/pc/con/202301/01/content_1150743.html</t>
+          <t>http://paper.people.com.cn/rmrb/html/2023-12/12/nw.D110000renmrb_20231212_5-01.htm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023年01月01日 Sun</t>
+          <t>人民日报   2023年12月12日 星期二</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-     新华社北京12月31日电 2023年1月1日出版的第1期《求是》杂志将发表中共中央总书记、国家主席、中央军委主席习近平在党的二十届一中全会上的讲话《为实现党的二十大确定的目标任务而团结奋斗》。    讲话强调，这次中央全会已经完成了选举产生新一届中央领导机构的任务。要牢记党和人民的重托，不忘初心、牢记使命，为全面建设社会主义现代化国家、全面推进中华民族伟大复兴而团结奋斗。    讲话指出，党的二十大是在全党全国各族人民迈上全面建设社会主义现代化国家新征程、向第二个百年奋斗目标进军的关键时刻召开的一次十分重要的大会，是一次高举旗帜、凝聚力量、团结奋进的大会，为新时代新征程党和国家事业发展、实现第二个百年奋斗目标指明了前进方向、确立了行动指南。    讲话指出，全面贯彻党的二十大精神，为实现党的二十大确定的目标任务而团结奋斗，是新一届中央领导集体的重大政治任务。第一，深刻认识我国发展面临的形势，始终保持战略清醒。既要坚定战略自信、保持必胜信念，又要增强忧患意识、坚持底线思维，准备经受风高浪急甚至惊涛骇浪的重大考验，继续披荆斩棘、勇毅前行，奋力开创事业发展新局面。第二，继续推进党的理论创新，不断提高马克思主义理论水平。要坚持把马克思主义基本原理同中国具体实际相结合、同中华优秀传统文化相结合，学懂弄通做实新时代中国特色社会主义思想，坚持好、运用好贯穿其中的立场观点方法，把这一思想贯彻落实到党和国家工作各方面全过程。第三，深刻把握中国式现代化的中国特色和本质要求，牢牢掌握我国发展主动权。要坚持党的基本理论、基本路线、基本方略不动摇，坚定道路自信、理论自信、制度自信、文化自信，坚持独立自主、自力更生，坚持道不变、志不改，既不走封闭僵化的老路，也不走改旗易帜的邪路，坚持把国家和民族发展放在自己力量的基点上，坚持把中国发展进步的命运牢牢掌握在自己手中。第四，扎实贯彻全面建设社会主义现代化国家各项部署，着力实现高质量发展。要聚焦实现高质量发展这个主题，进一步统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，完整、准确、全面贯彻新发展理念，用好改革这个关键一招，把教育、科技、人才作为全面建设社会主义现代化国家的基础性、战略性支撑，坚持走中国特色社会主义法治道路，坚定不移贯彻总体国家安全观。第五，全面落实以人民为中心的发展思想，扎实推进共同富裕。要把促进全体人民共同富裕摆在更加突出的位置，深入实施区域协调发展战略、区域重大战略、乡村振兴战略，着力保障和改善民生，坚持多劳多得，鼓励勤劳致富，完善促进机会公平、维护社会公平正义的制度机制，让每个人都获得发展自我和奉献社会的机会，共同享有人生出彩的机会，共同享有梦想成真的机会。第六，深入推进新时代党的建设新的伟大工程，着力推动全面从严治党取得新成效。要落实新时代党的建设总要求，健全全面从严治党体系，全面推进党的自我净化、自我完善、自我革新、自我提高，使我们党坚守初心使命，始终成为中国特色社会主义事业的坚强领导核心。要把学习贯彻党章作为贯彻党的二十大精神的重要内容，作为常态化长效化开展党史学习教育的重要举措，把党章要求贯彻到党的工作和党的建设各方面全过程。    讲话指出，新一届中央委员会成员承载着全党全国各族人民信任和重托，这既是莫大光荣，又是重大责任。一是牢记“国之大者”。要时刻把事关党和国家前途命运、事关人民根本利益的大事放在心上，旗帜鲜明讲政治，做政治上的明白人，把维护党中央权威和集中统一领导作为最根本的政治纪律和政治规矩，自觉在思想上政治上行动上同党中央保持高度一致，增强大局观念，牢固树立全国一盘棋思想，因地制宜、因时制宜，创造性开展工作，真正让党中央决策部署落地见效。二是全面增强本领。要加强思想淬炼、理论训练、政治历练、实践锻炼，坚持党的群众路线，继承和发扬党的优良传统，增强服务群众本领，保持强烈的忧患意识、风险意识，增强防范化解风险的意识和本领。三是增强斗争精神。要增强斗争的骨气、底气，在坚决斗争中赢得战略主动，敢于斗争、善于斗争，既当好指挥员，又当好战斗员，团结带领广大党员、干部、群众，依靠顽强斗争打开事业发展新天地。四是保持清正廉洁。必须做到洁身自爱、公道正派、坚守底线，为全党作表率。要树立正确权力观，自觉遵守中央八项规定精神，履行好抓班子、带队伍、正风气的领导责任，管好家人亲属、管好身边人身边事，树立良好家风。    讲话强调，做好全国人大、全国政协换届和省区市人大、政府、政协换届工作，意义重大。要把贯彻落实党的二十大精神和做好换届工作结合起来，统筹做好当前各项工作，确保人心稳定、工作有序。 
-</t>
+          <t>现代化产业体系建设取得重要进展（开局之年中国经济高质量发展述评③）
+                        本报记者  刘志强  丁怡婷  刘温馨
+                        《
+          人民日报
+          》（
+          2023年12月12日
+          第 01
+          版）
+　　习近平总书记强调：“现代化产业体系是现代化国家的物质技术基础，必须把发展经济的着力点放在实体经济上，为实现第二个百年奋斗目标提供坚强物质支撑。”　　新能源汽车、锂电池、光伏产品“新三样”出口快速增长，中国制造叫响全球；　　首艘国产大型邮轮命名交付、国产大飞机C919投入商业运营、全球最大18兆瓦海上直驱风电机组下线，大国重器昂首向前；　　5G标准必要专利声明量全球占比达42%、高温超导电动悬浮领域实现重要技术突破、自主可控的新一代通用处理器发布，技术创新步履不停；　　…………　　今年以来，我国经济在爬坡过坎中前行，在攻坚克难中奋进。在以习近平同志为核心的党中央坚强领导下，各地区各部门把发展经济的着力点放在实体经济上，扎实推进新型工业化，坚持科技创新引领，现代化产业体系建设取得重要进展。　　稳增长调结构促转型扎实有力，工业经济稳中有进　　11月4日，我国首艘国产大型邮轮“爱达·魔都号”命名交付。　　2500万个零部件，数量相当于C919大飞机的5倍、“复兴号”高铁列车的13倍；总电缆布置长度达4000多公里……在“爱达·魔都号”的建设过程中，中国船舶集团先后攻克邮轮重量控制、振动噪声、安全返港等关键设计技术，有力保障了项目推进。明年1月1日，这座“海上现代化城市”将从上海启航，正式开始商业运营。　　11月24日，17.4万立方米大型液化天然气（LNG）运输船“LNG  日内瓦”号较合同期提前5个月命名交付。　　码头系泊试验仅5个月，5.5天完成常规和气体“二合一”试航，总体建造周期17.5个月，液货舱殷瓦钢焊接密性检测4次零漏点……国际造船业舞台上，我国大型LNG运输船各项建造指标实现全面领先。　　攻坚克难，一路向前。如今，我国已具备同时建造航空母舰、大型LNG运输船、大型邮轮的能力，集齐造船工业“三颗明珠”。　　稳扎稳打，赢得主动。今年前10月，造船完工量、新接订单量、手持订单量三大指标全面增长，分别占世界市场份额的49.7%、67%和54.4%。我国造船企业批量交付2.4万标准箱集装箱船、LNG双燃料动力散货船及气体运输船等，高技术、高附加值船舶显著增加。　　开局之年，装备制造业稳步发展，有力支撑了工业生产增长——　　200多家企业高效协同，国产大飞机C919投入商业运营；雅万高铁开通运营，中国高铁首次全系统、全要素、全产业链“出海”；首台（套）设备2200多台、设备国产化率达93.4%，全球首座第四代核电站投入商运……前三季度，规上装备制造业增加值增长6%，比全部规模以上工业快2个百分点。　　习近平总书记就推进新型工业化作出重要指示强调，“把高质量发展的要求贯穿新型工业化全过程，把建设制造强国同发展数字经济、产业信息化等有机结合，为中国式现代化构筑强大物质技术基础”。　　今年以来，我国发展面临的形势错综复杂，国际政治经济环境不利因素增多，国内周期性和结构性矛盾叠加，实体经济特别是工业稳增长任务艰巨。　　机遇和挑战并存，各地区各部门积极作为、协同施策：挖潜提质，促进汽车和电子产品消费；聚焦钢铁、有色等10个重点行业，分别制定实施稳增长工作方案；出台一系列促进民营经济发展壮大的政策措施；开展“一起益企”中小企业服务行动，加快培育“专精特新”中小企业；稳步扩大制度型开放，继续吸引跨国企业来华发展……政策举措相继落地，广大企业共同努力，实体经济实现质的有效提升和量的合理增长。　　一方面，“稳”的态势在持续。　　生产持续恢复。前三季度，规上工业增加值同比增长4%，增速呈逐季回升态势，六成以上的工业大类行业和五成以上的主要工业产品产量同比实现增长。　　效益持续改善。10月，全国规上工业企业利润同比增长2.7%，连续3个月实现正增长，产品销售率连续4个月保持在97%以上。1至10月，41个工业大类行业中，有30个行业利润增速较1至9月加快或降幅收窄、由降转增。　　另一方面，“进”的力度在加大。　　搭载激光雷达等传感器，集成声波、光学、红外检测等功能，智能机器人全天候巡检；中控室屏幕实时跳动，工程师在线监控装置运行，有针对性地优化参数……在位于江苏连云港市的斯尔邦石化公司，丙烯产品的生产全面实现了智能化数字化。“不断提升智能制造和全产业链数字化协同水平，将使重资源投入、连续型操作的石化企业‘体质’更强健、竞争更有力。”盛虹石化产业集团总裁白玮说。　　加快“智改数转”，实现降本增效。目前，我国已建设近万家数字化车间和智能工厂，其中421个成为具有国际先进水平的智能制造示范工厂，示范工厂的产品研发周期平均缩短26%，生产效率平均提升29%。　　破碎、磁选、涡旋、脱漆、熔炼，在山东烟台市南山铝业10万吨再生铝保级利用项目车间，废弃易拉罐、铝罐等经过一系列处理后“变身”高品质铝锭，可供汽车、食品、包装等领域产品使用。“以再生铝替代火电原铝，生产能耗降至原来的1/20，还能减少废料、废液、废渣排放，兼具经济效益环保价值。”南山铝业董事长兼总经理吕正风说。　　推进节能降耗，厚植绿色底色。我国已累计建设国家级绿色工厂3616家、绿色工业园区267家、绿色供应链管理企业403家，绿色工业园区平均固废处置利用率超过95%。　　“在全球产业分工格局加速演进背景下，作为国民经济根基的制造业稳中有进，大大增强了我国经济发展的底气和后劲。”中国社会科学院副院长王昌林表示。　　新技术新业态新产业蓬勃发展，新质生产力加快形成　　广东广州市，广汽集团埃安总装车间，每条产线下线一台新能源汽车，仅需53秒。　　今年7月3日，随着一辆广汽埃安昊铂GT纯电动轿车缓缓驶下生产线，我国新能源汽车生产累计突破2000万辆。连续8年产销量位居世界第一，中国新能源汽车持续跑出“加速度”：前10个月，产销分别完成735.2万辆和728万辆，同比分别增长33.9%和37.8%，出口99.5万辆，同比增长近1倍。　　浙江海宁市，晶科能源光伏生产基地内，平均每天下线超过16万片光伏组件。　　“产线处于满产状态，订单已排至明年上半年，前三季度企业海外组件出货量同比增长超过61%。”工厂组件负责人刘志刚介绍。今年前三季度，我国硅料、硅片、电池、组件产量同比增长均超过70%，光伏行业总产值超过1.2万亿元。　　新能源汽车、锂电池、光伏产品，“新三样”扬帆远航，见证着中国制造全面提升、迈向高端的铿锵步履。　　今年9月，习近平总书记主持召开新时代推动东北全面振兴座谈会时强调：“积极培育新能源、新材料、先进制造、电子信息等战略性新兴产业，积极培育未来产业，加快形成新质生产力，增强发展新动能。”习近平总书记首次提出“新质生产力”这一重要概念，为加快建设现代化产业体系指明了方向。　　加快形成新质生产力，事关产业长远发展。“当前，新一轮科技革命和产业变革方兴未艾，通用人工智能、生命科学、新能源等前沿技术正在深刻改变着工业生产函数，引领产业发展的新方向、开辟产业发展的新赛道。只有紧紧跟踪并把握科技前沿变化，才能把创新主动权、发展主动权牢牢掌握在自己手中。”中国社会科学院工业经济研究所所长史丹说。　　练好内功、站稳脚跟，抓住机遇、乘势而上。　　今年1至10月份，制造业投资同比增长6.2%，明显高于全部投资，其中高技术制造业投资增长11.3%，连续37个月保持两位数增长；至今年9月，我国战略性新兴产业相关企业总数突破200万个……开局之年，现代信息技术、人工智能、大数据等技术广泛应用，新技术新业态新产业蓬勃发展。　　战略性新兴产业加速成长的同时，未来产业也在积极培育。　　可跳上0.2米高的台阶，能上下25度斜坡，浙江大学某实验室研发的人形机器人“悟空—4”在路面打滑和外部推力干扰等扰动下，也能快速恢复平衡并保持稳定行走。　　通用人工智能、氢能、新型储能、空天信息……瞄准代表新兴科技方向、引领产业升级的未来产业，精心“播种”、悉心“育种”，产业发展将持续焕发新动能、闯出新天地。　　以科技创新为引领，提升产业链供应链韧性和安全水平　　2018年，批量生产出宽度600毫米、厚度0.02毫米的“手撕钢”。　　2020年，“手撕钢”最薄厚度轧至0.015毫米，实现世界首创。　　今年4月，中国宝武山西太钢不锈钢精密带钢有限公司再次传出好消息：以“手撕钢”为原料的精密金属掩膜版基材实现量产。　　精密金属掩膜版，OLED（有机发光二极管）屏幕生产过程中的核心零部件，决定着分辨率和成像质量。一块约手机屏幕大小的掩膜版上，要打200万个以上的微孔，对掩膜版基材的表面工艺、平直度、稳定性等关键指标要求严苛。　　“过去，这种掩膜版都要依靠进口。2019年开始，随着‘手撕钢’技术日渐成熟，我们开始与下游应用企业一道研发掩膜版基材。”公司首席工程师廖席告诉记者，经过联合攻关、反复测试，研发团队成功突破超薄不锈钢箔材轧制工艺，攻克了“卡脖子”技术，“下一步，我们将在新材料领域不断突破，进一步增强产业链供应链自主可控能力。”　　作为全球第一制造业大国，我国产业发展基础坚实。同时，部分产业仍处在全球价值链中低端，还存在关键核心技术受制于人等问题。　　今年5月，习近平总书记主持召开二十届中央财经委员会第一次会议，会议强调“加快建设以实体经济为支撑的现代化产业体系，关系我们在未来发展和国际竞争中赢得战略主动”“建设具有完整性、先进性、安全性的现代化产业体系”。　　开拓创新、担当作为，打造自主可控、安全可靠、竞争力强的现代化产业体系，我国产业高质量发展前景广阔。　　——保持并增强产业体系完备和配套能力强的优势，提升产业完整性。　　天气渐寒，中铁装备总装车间依然生产繁忙，一批出口海外的盾构机正加紧生产。　　刀具和主轴承主要来自河南，电机主要来自山西，齿轮主要来自长三角地区和重庆……一台盾构机，1万多个零部件，绝大多数“中国造”。1200多家企业精诚合作、融通创新，中铁装备盾构机产品优势更强、品牌更响。　　攥指成拳，聚链成群。江西明确“一链一策”推动优势产业延链补链强链；河南提出，分链实施重点细分领域专项攻坚；浙江聚焦绿色石化等4个万亿级产业集群推进先进制造业集群建设……补链、延链、升链、建链，产业发展的接续性和竞争力还将不断增强。　　——高效集聚全球创新要素、自主拓展产业新赛道，提升产业先进性。　　不下井，如何监管偌大的矿区？在山东金鼎矿业淄博矿区，3名工作人员紧盯屏幕，13个矿井重点区域一目了然，人员定位、设备运行状态、井下环境等悉数掌握。　　“搭建‘虚拟矿区’，对70多公里长的井下矿道进行1∶1数字孪生建模，将气体、设备、通信等近10万个关键点进行物联采集，能够全方位感知矿区的‘风吹草动’。”海尔卡奥斯工业互联网平台相关负责人介绍。　　自动布孔精度达10厘米的矿山钻机、提供毫米级形变监测服务的灾害预警平台、每小时可清扫1万平方米的无人驾驶清扫机……当前，5G应用已融入67个国民经济大类，全国“5G+工业互联网”项目超7000个，移动物联网终端累计达22.2亿户，创新融合应用正全面深化。　　抓住新一代科技革命和产业变革宝贵机遇，加快发展数字经济、促进数实融合，发展新动能新优势将不断塑造。　　——实现重要产业链自主可控、确保国民经济循环畅通，提升产业安全性。　　“中国心”装上油气平台。10月，我国首台国产海上平台燃气轮机“太行7”投入使用，近300家单位联合攻关，全面实现关键零部件自主制造，成本较进口机组低15%左右。　　从150兆瓦级大型冲击式水轮机转轮成功投用，到首套自主可控抽水蓄能电站励磁系统通过鉴定、实现“芯片级”自主可控，再到国产直径8.61米盾构机主轴承下线、国产化取得积极进展，“大国重器”的产业基础能力持续增强。　　实施创新驱动发展战略，推动短板产业补链、优势产业延链，传统产业升链、新兴产业建链，产业链供应链韧性和安全水平将进一步提升，产业发展的接续性和竞争力将进一步增强。　　中国经济韧性强、潜力大、活力足，长期向好的基本面没有变也不会变，中国经济大船将乘风破浪继续前行。新征程上，以科技创新引领现代化产业体系建设，产业升级将不断迈出新步伐，实体经济将更加根深叶茂。</t>
         </is>
       </c>
     </row>
@@ -778,73 +798,699 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>锚定奋斗目标 创造新的伟业</t>
+          <t xml:space="preserve">推动外贸促稳提质（今日谈）  </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://xh.xhby.net/pc/con/202301/01/content_1150744.html</t>
+          <t>http://paper.people.com.cn/rmrb/html/2023-12/12/nw.D110000renmrb_20231212_6-01.htm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023年01月01日 Sun</t>
+          <t>人民日报   2023年12月12日 星期二</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-     时间的长河奔涌向前，奋斗的脚步永不停歇。走过波澜壮阔的历程，我们迎来了崭新的一年。    刚刚过去的2022年，是党和国家历史上极为重要的一年。党的二十大胜利召开，制定了当前和今后一个时期党和国家的大政方针，描绘了以中国式现代化全面推进中华民族伟大复兴的宏伟蓝图，全面建设社会主义现代化国家新征程迈出坚实步伐。一年来，国际环境风高浪急，国内改革发展稳定任务艰巨繁重。以习近平同志为核心的党中央团结带领全党全国各族人民迎难而上，全面落实疫情要防住、经济要稳住、发展要安全的要求，统筹国内国际两个大局，统筹疫情防控和经济社会发展，统筹发展和安全，加大宏观调控力度，发展质量稳步提升，科技创新成果丰硕，改革开放全面深化，保持了经济社会大局稳定。全年经济保持增长，就业总体稳定，物价平稳，国际收支状况较好。粮食产量连续8年保持在1.3万亿斤以上，粮食安全、能源安全和人民生活得到有效保障。成功举办北京冬奥会、冬残奥会。在百年变局和世纪疫情相互叠加的复杂局面下，面对超预期因素的冲击，面对诸多困难挑战，我们能够取得这样的成绩，殊为不易，值得倍加珍惜！    惟其艰巨，所以伟大；惟其艰巨，更显荣光。回望新时代以来这十年，有涉滩之险，有爬坡之艰，有闯关之难，在党和国家发展进程中极不寻常、极不平凡，我们肩负任务的繁重性和艰巨性世所罕见、史所罕见。稳经济、促发展，战贫困、建小康，控疫情、抗大灾，应变局、化危机……十年来，我们攻克了一个个看似不可攻克的难关险阻，创造了一个个令人刮目相看的人间奇迹，经受住了来自政治、经济、意识形态、自然界等方面的风险挑战考验，取得了新时代中国特色社会主义的伟大成就。    十年砥砺奋进，为实现中华民族伟大复兴提供了更为完善的制度保证。坚持和完善党的领导制度体系，坚持和完善社会主义基本经济制度，坚持和完善繁荣发展社会主义先进文化的制度，坚持和完善共建共治共享的社会治理制度，坚持和完善生态文明制度体系……各领域基础性制度框架基本确立，许多领域实现历史性变革、系统性重塑、整体性重构，中国特色社会主义制度更加成熟更加定型，国家治理体系和治理能力现代化水平明显提高，“中国之治”不断续写着新的时代华章。    十年勇毅前行，为实现中华民族伟大复兴提供了更为坚实的物质基础。实现了小康这个中华民族的千年梦想，打赢了人类历史上规模最大的脱贫攻坚战，切实贯彻新发展理念，着力推进高质量发展，推动构建新发展格局，推进一系列具有全局性意义的区域重大战略，国家经济实力、科技实力、综合国力跃上新台阶，书写了经济快速发展和社会长期稳定两大奇迹新篇章，人民群众获得感、幸福感、安全感更加充实、更有保障、更可持续，中国式现代化成功推进和拓展，为人类实现现代化提供了新的选择。    十年昂扬奋发，为实现中华民族伟大复兴提供了更为主动的精神力量。举旗帜、聚民心、育新人、兴文化、展形象，激发全民族文化创新创造活力，更好构筑中国精神、中国价值、中国力量，巩固团结奋斗的共同思想基础，全社会凝聚力和向心力极大提升，中国人民的前进动力更加强大、奋斗精神更加昂扬、必胜信念更加坚定，焕发出更为强烈的历史自觉和主动精神，正在信心百倍创造着新时代中国发展的伟大历史。    一路披荆斩棘，一路凯歌行进。新时代十年的伟大成就和变革，是在以习近平同志为核心的党中央坚强领导下、在习近平新时代中国特色社会主义思想指引下全党全国各族人民团结奋斗取得的。实践充分证明，“两个确立”是推动党和国家事业取得历史性成就、发生历史性变革的决定性因素，是战胜一切艰难险阻、应对一切不确定性的最大确定性、最大底气、最大保证。今天，一个欣欣向荣的中国、一个自信自强的民族，巍然屹立在世界东方，实现中华民族伟大复兴进入了不可逆转的历史进程。大道之行，天下为公。中国坚定站在历史正确的一边、站在人类文明进步的一边，同各国人民一道弘扬全人类共同价值，推动构建人类命运共同体，推动历史车轮向着光明的前途前进。    当前，世界之变、时代之变、历史之变正以前所未有的方式展开，我国发展进入战略机遇和风险挑战并存、不确定难预料因素增多的时期。走过万水千山，我们无比清醒，实现中华民族伟大复兴必须准备付出更为艰巨、更为艰苦的努力；穿越惊涛骇浪，我们更加笃定，比历史上任何时期都更接近、更有信心和能力实现中华民族伟大复兴的目标。2023年是全面贯彻落实党的二十大精神的开局之年，我们要胸怀中华民族伟大复兴战略全局和世界百年未有之大变局，坚定不移把党的二十大提出的目标任务落到实处，在新时代新征程上创造新的伟业，赢得更加伟大的胜利和荣光。    锚定奋斗目标、创造新的伟业，让我们保持战略定力，坚定信念信心。当今世界，要说哪个政党、哪个国家、哪个民族能够自信的话，那中国共产党、中华人民共和国、中华民族是最有理由自信的。前进道路上，越是风疾雨骤，越是爬坡过坎，越要坚定战略自信，保持战略定力。坚定志不改、道不变的决心，充分认识和用好我国发展的战略性有利条件，集中精力办好自己的事情，把中国发展进步的命运牢牢掌握在自己手中，稳扎稳打、稳中求进，中国号巨轮就一定能劈波斩浪、行稳致远。    锚定奋斗目标、创造新的伟业，让我们增强历史主动，发扬斗争精神。实现中华民族伟大复兴正处于关键时期，前进的每一步都是一次知重负重的艰难攀爬，都是一次攻坚克难的闯关夺隘，决不能因为胜利而骄傲，决不能因为成就而懈怠，决不能因为困难而退缩。无论风云如何变幻，无论挑战如何严峻，把握历史发展规律和大势，以思想的力量激扬奋进的力量，以理论的主动把握历史的主动，不断锤炼斗争精神和斗争本领，知难而进、奋发有为，我们就一定能依靠顽强斗争打开事业发展新天地。    锚定奋斗目标、创造新的伟业，让我们勇于担当作为，矢志团结奋斗。团结奋斗是中国人民创造历史伟业的必由之路。当此船到中流、人到半山之时，正需要全党全国各族人民在党的旗帜下团结成“一块坚硬的钢铁”，心往一处想、劲往一处使，凝聚起智慧和力量，激发出创造活力和发展动力。不断巩固全国各族人民大团结，加强海内外中华儿女大团结，汇聚万众一心的磅礴伟力，敢于担当、积极作为，求真务实、苦干实干，我们就一定能同心共圆中国梦。    当代中国，江山壮丽，人民豪迈，前程远大。奋进在全面建设社会主义现代化国家新征程上，中国人民具有无比广阔的时代舞台，具有无比光明的发展前景，具有无比强大的前进动力。让我们更加紧密地团结在以习近平同志为核心的党中央周围，全面贯彻习近平新时代中国特色社会主义思想，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚定信心，踔厉奋发，乘势而上，铆足干劲，为全面建设社会主义现代化国家、全面推进中华民族伟大复兴而团结奋斗！    （新华社北京12月31日电 载1月1日《人民日报》） 
-</t>
+          <t>推动外贸促稳提质（今日谈）
+                        崔  妍
+                        《
+          人民日报
+          》（
+          2023年12月12日
+          第 01
+          版）
+　　上料、研磨、抛光、加硬、镀膜……在江苏丹阳一家企业的自动化生产线上，1.5厘米厚的树脂镜片毛坯按照设定好的参数加工生产。在这个人口不到100万的城市，有1600多家眼镜相关企业、5万多名从业者，镜片年产量4亿多片，产品销往世界各地，形成了在全球市场具备优势和特色的产业集群。　　习近平总书记强调：“要加快建设贸易强国，升级货物贸易，创新服务贸易，发展数字贸易，以数字化绿色化为方向，进一步提升国际分工地位，向全球价值链中高端迈进。”小镜片提升附加值、开拓大市场，正是我国外贸稳规模、优结构的缩影。今年前11个月，我国货物贸易进出口总值37.96万亿元，其中出口21.6万亿元，增长0.3%；民营企业进出口20.24万亿元，增长6.1%；出口机电产品12.66万亿元，增长2.8%……一个个数字，是政策给力、企业努力、各方合力的结果，折射出我国制造业迈向高端化、智能化、绿色化的趋势。　　当前，外部环境复杂严峻，但我国经济长期向好的基本面没有变，外贸发展的有利因素不断增多，稳中向好的发展态势持续巩固。保持战略定力，以“稳”拉动提升、带动增长、协同创新，进一步激发外贸主体活力，推动结构持续优化升级，就一定能实现外贸促稳提质，在新征程上把握主动、赢得未来。</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>秦淮灯彩点亮老城南</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://xh.xhby.net/pc/con/202301/01/content_1150745.html</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2023年01月01日 Sun</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-     本报讯 （仇惠栋 秦萱） 2022年12月31日，南京秦淮灯会掀开神秘面纱。帅气十足的生肖福兔、喜庆满满的荷满秦淮、趣味盎然的瑞兔贺岁……各式造型精美、设计精巧的灯彩点亮老城南夜空。    今年灯会地点以夫子庙、门东、十里秦淮水上游览线为主，兼顾夫子庙周边节日氛围的营造，共设置各类灯组170组。元旦、春节假期，门东街区还将相继推出“‘我们的节日—我们的秦淮灯会’摄影图片展”“全城寻人——骑在爸爸肩上看花灯”等活动；夫子庙核心景区的南京中国科举博物馆、大成殿将举办科举文化、儒学文化系列主题展演。“冰墩墩”系列产品盛装回归，以兔年特别版的形式再现夫子庙秦淮礼物店。秦淮礼物店举办的秦淮灯彩文创艺术节将于1月14日开幕，为市民游客端上一场璀璨夺目的新春文创盛宴。 
-</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>人民日报</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022，那些令我们心潮澎湃的时刻</t>
+          <t xml:space="preserve">十四届全国人大二次会议在京开幕  </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://xh.xhby.net/pc/con/202301/01/content_1150746.html</t>
+          <t>http://paper.people.com.cn/rmrb/html/2024-03/06/nw.D110000renmrb_20240306_1-01.htm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023年01月01日 Sun</t>
+          <t>人民日报   2024年03月06日 星期三</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-     嗨，你好吗？这一年，你受过挫折、有难过、有温暖、发过光，总有一些回忆，令人心潮澎湃。    再见，2022。愿你砥砺前行，始终保持坚韧。你好，2023。一往无前、顽强拼搏，让明天的中国更美好！    本报记者 吴盈青 
+          <t>十四届全国人大二次会议在京开幕
+习近平王沪宁蔡奇丁薛祥李希韩正等在主席台就座李强作政府工作报告  赵乐际主持大会听取关于国务院组织法修订草案的说明等
+《
+          人民日报
+          》（
+          2024年03月06日
+          第 01
+          版）
+ 　　3月5日，第十四届全国人民代表大会第二次会议在北京人民大会堂开幕。党和国家领导人习近平、李强、王沪宁、蔡奇、丁薛祥、李希、韩正等出席大会。　　新华社记者  李学仁摄
+ 　　3月5日，第十四届全国人民代表大会第二次会议在北京人民大会堂开幕。国务院总理李强作政府工作报告。　　新华社记者  姚大伟摄
+ 　　3月5日，第十四届全国人民代表大会第二次会议在北京人民大会堂开幕。赵乐际主持开幕会。　　新华社记者  谢环驰摄
+　　本报北京3月5日电  第十四届全国人民代表大会第二次会议5日上午在北京人民大会堂开幕。近3000名全国人大代表肩负人民重托出席大会，履行宪法和法律赋予的神圣职责。　　人民大会堂大礼堂气氛隆重热烈，主席台帷幕正中的国徽在鲜艳的红旗映衬下熠熠生辉。　　大会主席团常务主席、执行主席赵乐际主持大会。大会主席团常务主席、执行主席李鸿忠、王东明、肖捷、郑建邦、丁仲礼、郝明金、蔡达峰、何维、武维华、铁凝、彭清华、张庆伟、洛桑江村、雪克来提·扎克尔、刘奇在主席台执行主席席就座。　　习近平、李强、王沪宁、蔡奇、丁薛祥、李希、韩正和大会主席团成员在主席台就座。　　十四届全国人大二次会议应出席代表2956人。5日上午的会议，出席2872人，缺席84人，出席人数符合法定人数。　　上午9时，赵乐际宣布：中华人民共和国第十四届全国人民代表大会第二次会议开幕。会场全体起立，高唱国歌。　　根据会议议程，国务院总理李强代表国务院向大会作政府工作报告。报告共分三个部分：一、2023年工作回顾；二、2024年经济社会发展总体要求和政策取向；三、2024年政府工作任务。　　李强在报告中指出，过去一年，是全面贯彻党的二十大精神的开局之年，是本届政府依法履职的第一年。面对异常复杂的国际环境和艰巨繁重的改革发展稳定任务，以习近平同志为核心的党中央团结带领全国各族人民，顶住外部压力、克服内部困难，付出艰辛努力，新冠疫情防控实现平稳转段、取得重大决定性胜利，全年经济社会发展主要目标任务圆满完成，高质量发展扎实推进，社会大局保持稳定，全面建设社会主义现代化国家迈出坚实步伐。　　李强在报告中指出，一年来，我们深入学习贯彻党的二十大和二十届二中全会精神，按照党中央决策部署，主要做了以下工作：一是加大宏观调控力度，推动经济运行持续好转；二是依靠创新引领产业升级，增强城乡区域发展新动能；三是深化改革扩大开放，持续改善营商环境；四是强化生态环境保护治理，加快发展方式绿色转型；五是着力抓好民生保障，推进社会事业发展；六是全面加强政府建设，大力提升治理效能。　　李强在报告中指出，在肯定成绩的同时，我们也清醒看到面临的困难和挑战。我们一定直面问题和挑战，尽心竭力做好工作，决不辜负人民期待和重托。　　李强在报告中指出，今年是中华人民共和国成立75周年，是实现“十四五”规划目标任务的关键一年。今年发展主要预期目标是：国内生产总值增长5%左右；城镇新增就业1200万人以上，城镇调查失业率5.5%左右；居民消费价格涨幅3%左右；居民收入增长和经济增长同步；国际收支保持基本平衡；粮食产量1.3万亿斤以上；单位国内生产总值能耗降低2.5%左右，生态环境质量持续改善。　　李强在报告中指出，我们要坚持稳中求进、以进促稳、先立后破。完成今年发展目标任务，必须深入贯彻习近平经济思想，集中精力推动高质量发展。要以更大的决心和力度深化改革开放，促进有效市场和有为政府更好结合，持续激发和增强社会活力，推动高质量发展取得新的更大成效。　　李强在报告中提出，党中央对今年工作作出了全面部署，我们要深入贯彻落实，紧紧抓住主要矛盾，着力突破瓶颈制约，扎实做好各项工作：大力推进现代化产业体系建设，加快发展新质生产力；深入实施科教兴国战略，强化高质量发展的基础支撑；着力扩大国内需求，推动经济实现良性循环；坚定不移深化改革，增强发展内生动力；扩大高水平对外开放，促进互利共赢；更好统筹发展和安全，有效防范化解重点领域风险；坚持不懈抓好“三农”工作，扎实推进乡村全面振兴；推动城乡融合和区域协调发展，大力优化经济布局；加强生态文明建设，推进绿色低碳发展；切实保障和改善民生，加强和创新社会治理。　　报告中，李强还就加强政府自身建设，民族、宗教和侨务工作，国防和军队建设，香港、澳门发展和两岸关系，以及我国外交政策等作了阐述。　　根据会议议程，大会审查国务院关于2023年国民经济和社会发展计划执行情况与2024年国民经济和社会发展计划草案的报告及2024年国民经济和社会发展计划草案、国务院关于2023年中央和地方预算执行情况与2024年中央和地方预算草案的报告及2024年中央和地方预算草案。　　受全国人大常委会委托，全国人大常委会副委员长李鸿忠作关于国务院组织法修订草案的说明。　　关于国务院组织法修订草案的说明指出，国务院组织法是关于国务院组织制度和工作制度的基本法律，对于保障国务院依宪依法履行职责发挥了重要作用。党的十八大以来，以习近平同志为核心的党中央大力推进党和国家机构改革进程，党和国家机构职能实现系统性、整体性重构，构建系统完备、科学规范、运行高效的党和国家机构职能体系不断取得新进展新成效。为了适应新形势新任务新要求，有必要在认真总结实践经验基础上修改国务院组织法，将坚持以习近平新时代中国特色社会主义思想为指导、坚持党的全面领导等重要内容载入国务院组织法，将深化党和国家机构改革的精神和成果通过法律规定予以体现。修改国务院组织法是新时代国务院坚持党的全面领导、全面加强政府自身建设的必然要求，是国务院坚持以人民为中心、坚持全心全意为人民服务根本宗旨的制度保障，是新时代全面贯彻实施宪法、全面建设法治政府的重要方面，是深化党和国家机构改革、推进国家治理体系和治理能力现代化的有力举措。国务院组织法修订草案共20条，主要修改内容包括：增加国务院性质地位的规定，明确国务院工作的指导思想，完善国务院职权的表述，完善国务院组成人员相关规定，完善国务院机构及其职权相关规定，健全国务院会议制度，增加国务院依法全面正确履行职能的制度措施。　　在主席台就座的还有：马兴瑞、王毅、尹力、石泰峰、刘国中、李干杰、李书磊、何卫东、何立峰、张又侠、张国清、陈文清、陈吉宁、陈敏尔、袁家军、黄坤明、刘金国、王小洪、吴政隆、谌贻琴、张军、应勇、胡春华、沈跃跃、王勇、周强、帕巴拉·格列朗杰、何厚铧、梁振英、巴特尔、苏辉、邵鸿、高云龙、陈武、穆虹、咸辉、王东峰、姜信治、蒋作君、何报翔、王光谦、秦博勇、朱永新、杨震，以及中央军委委员刘振立、张升民等。　　香港特别行政区行政长官李家超、澳门特别行政区行政长官贺一诚列席会议并在主席台就座。　　出席全国政协十四届二次会议的政协委员列席大会。　　中央和国家机关有关部门、解放军有关单位和武警部队、各人民团体有关负责人列席或旁听了大会。　　外国驻华使节旁听了大会。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">坚定信心、鼓足干劲、勇挑大梁  </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>http://paper.people.com.cn/rmrb/html/2024-03/06/nw.D110000renmrb_20240306_2-01.htm</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>人民日报   2024年03月06日 星期三</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>坚定信心、鼓足干劲、勇挑大梁
+——习近平总书记重要讲话在江苏广大干部群众中引发热烈反响
+《
+          人民日报
+          》（
+          2024年03月06日
+          第 01
+          版）
+　　习近平总书记参加十四届全国人大二次会议江苏代表团审议时的重要讲话，在江苏广大干部群众中引发热烈反响。大家表示，要坚定信心、鼓足干劲、勇挑大梁，为全国大局作出更大贡献。　　使江苏成为发展新质生产力的重要阵地　　“习近平总书记强调，‘要牢牢把握高质量发展这个首要任务，因地制宜发展新质生产力。’我们要以新质生产力为高质量发展注入新动能，锚定科技赋能，积极融入长三角科技创新共同体，深入开展高新技术企业创新能力提升行动、专精特新企业培育行动。”扬州市委书记王进健代表说。　　“习近平总书记强调，‘江苏发展新质生产力具备良好的条件和能力’‘使江苏成为发展新质生产力的重要阵地’。这让我们深受鼓舞、倍添动力。”无锡市市长赵建军代表说，“我们将立足无锡产业基础和特色优势，充分发挥企业创新主体地位，政府做好推动服务，支持把更多实验室建在企业中，打造产业科技创新高地。同时，我们要抢抓未来产业风口期，发挥产业配套和应用场景优势，加大重点企业和领先团队招引，加强关键零部件突破和集聚，扎实推进新型工业化。”　　江苏省盐业集团党委书记、董事长郑海龙说：“我们要紧紧围绕高水平科技自立自强持续推进科技创新，加紧实施传统产业基础再造工程，打造盐化产业、盐穴经济原创技术策源地和‘链主’企业，不断提升产业高端化、智能化、绿色化水平。”　　进一步全面深化改革　　“习近平总书记指出，‘持续建设市场化、法治化、国际化一流营商环境’。苏州作为首批全国法治政府建设示范市，将以法治激发创新活力，加快科技创新立法，提升执法司法质效，加强新技术新领域新业态知识产权保护，为发展新质生产力提供有力支撑。”苏州市委副书记、政法委书记黄爱军表示，让法治成为苏州现代化建设的金字招牌和核心竞争力，塑造更高水平开放型经济新优势。　　“总书记指出，‘深化科技体制、教育体制、人才体制等改革，打通束缚新质生产力发展的堵点卡点。’这要求我们积极顺应新质生产力的发展要求，加大改革举措，着力推进教育、科技、人才‘三位一体’协同发展，主动迎接数字化、信息化创新浪潮，持续创新人才培养模式，促进数字技术全面赋能，催生更多新产业、新模式、新动能。”南京艺术学院党委书记俞锋说。　　“总书记指出，‘要谋划进一步全面深化改革重大举措，为推动高质量发展、推进中国式现代化持续注入强劲动力。’深入贯彻落实习近平总书记重要讲话精神，发展新质生产力，必须进一步全面深化改革，形成与之相适应的新型生产关系。”江苏省委党校常务副校长杨明说，要深化经济体制、科技体制等改革，建立高标准市场体系，创新生产要素配置方式，让各类先进优质生产要素向发展新质生产力顺畅流动。　　更好发挥经济大省对区域乃至全国发展的辐射带动力　　“习近平总书记强调，‘江苏要全面融入和服务长江经济带发展和长三角一体化发展战略’。我们要牢记总书记嘱托，联动推进长三角一体化发展和长江经济带高质量发展，进一步加强跨部门、跨区域统计监测合作，及时跟踪、科学评估进展成效。”江苏省统计局局长王显东说。　　连云港市市长邢正军代表说，作为新亚欧大陆桥东端起点，连云港将深度融入共建“一带一路”，全面融入长三角发展、做足陇海线文章，巩固扩大中欧班列国际合作论坛成果，着力推动新亚欧陆海联运通道高质量发展，为江苏打造具有世界聚合力的双向开放枢纽作出更多贡献，在服务全国构建新发展格局中展现更大担当。　　“总书记强调，江苏要‘加强同其他区域发展战略和区域重大战略的对接，在更大范围内联动构建创新链、产业链、供应链，更好发挥经济大省对区域乃至全国发展的辐射带动力’。这激励我们必须坚定高质量发展信心，抢抓服务构建新发展格局带来的开放创新机遇。”宿迁市宿城区耿车镇党委书记陈茂辉表示，从一度“垃圾围城”变成全省闻名的生态镇、电商镇的耿车镇，将持续打造跨境出海的电商业务集群，不断提升经济发展的能级。　　江苏省科技厅厅长徐光辉代表说，紧紧围绕中国式现代化江苏新实践的重大要求，立足全局谋创新，在更大范围内联动构建创新链、产业链、供应链，促进科技、产业、金融有效循环，在更好地服务构建新发展格局和推动高质量发展中发挥重要作用。　　继续巩固和增强经济回升向好态势　　“习近平总书记强调，‘要继续巩固和增强经济回升向好态势，提振全社会发展信心，党员干部首先要坚定信心、真抓实干。’我们将牢记总书记的嘱托，把真抓实干的落脚点放在实体经济上，充分放活创新创业的因子，着力培育发展新质生产力，全力打造长三角重要的精密制造产业基地。”泰州市姜堰区委书记孙靓靓表示。　　“坚持以人民为中心的发展思想，就是要自觉扛起保障和改善民生政治责任，努力在推动高质量发展过程中办好各项民生实事、补齐民生短板。”淮安市洪泽区高良涧街道党工委书记邵加成表示，一方面，街道将落实各项就业保障政策，强化专业培训服务，支持鼓励灵活就业群体创新创业，精准对接重点骨干企业，强化稳岗扩产各项措施，倾力保障好重点群体就业；另一方面，全面加强困难弱势群体兜底保障，提高辖区内脱贫家庭、低保、残疾困难等群体兜底帮扶水平，健全多层次社会保障体系，持续推动参保扩面、加大社会救助力度。　　“我们要牢记总书记的嘱托，巩固拓展主题教育成果，鼓足干事创业的精气神，形成狠抓落实的好局面。”徐州市沛县栖山镇胡楼社区党总支书记、居委会主任王吉永表示，作为基层党支部书记，要肩负起乡村振兴“领头雁”的使命，积极发展农村电子商务，进一步促进农旅结合、农电融合，实现居民在家门口就业，多维度增加村民的收入，引导激励群众依靠自己的双手创造幸福生活，奋力推进乡村全面振兴。　　（本报记者何聪、金正波）</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">因地制宜发展新质生产力  </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>http://paper.people.com.cn/rmrb/html/2024-03/06/nw.D110000renmrb_20240306_3-01.htm</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>人民日报   2024年03月06日 星期三</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>习近平在参加江苏代表团审议时强调
+因地制宜发展新质生产力
+《
+          人民日报
+          》（
+          2024年03月06日
+          第 01
+          版）
+ 　　3月5日，中共中央总书记、国家主席、中央军委主席习近平参加他所在的十四届全国人大二次会议江苏代表团审议。　　新华社记者  岳月伟摄
+　　■要牢牢把握高质量发展这个首要任务，因地制宜发展新质生产力。面对新一轮科技革命和产业变革，我们必须抢抓机遇，加大创新力度，培育壮大新兴产业，超前布局建设未来产业，完善现代化产业体系。发展新质生产力不是忽视、放弃传统产业，要防止一哄而上、泡沫化，也不要搞一种模式。各地要坚持从实际出发，先立后破、因地制宜、分类指导，根据本地的资源禀赋、产业基础、科研条件等，有选择地推动新产业、新模式、新动能发展，用新技术改造提升传统产业，积极促进产业高端化、智能化、绿色化　　　　本报北京3月5日电  中共中央总书记、国家主席、中央军委主席习近平5日下午在参加他所在的十四届全国人大二次会议江苏代表团审议时强调，要牢牢把握高质量发展这个首要任务，因地制宜发展新质生产力。面对新一轮科技革命和产业变革，我们必须抢抓机遇，加大创新力度，培育壮大新兴产业，超前布局建设未来产业，完善现代化产业体系。发展新质生产力不是忽视、放弃传统产业，要防止一哄而上、泡沫化，也不要搞一种模式。各地要坚持从实际出发，先立后破、因地制宜、分类指导，根据本地的资源禀赋、产业基础、科研条件等，有选择地推动新产业、新模式、新动能发展，用新技术改造提升传统产业，积极促进产业高端化、智能化、绿色化。　　江苏代表团审议热烈，气氛活跃。崔铁军、高纪凡、宋燕、吴惠芳、吴新明、孙景南等6位代表分别就实现高水平科技自立自强、推动中国光伏行业高质量发展、加强文化遗产保护传承、建设共同富裕的幸福村、服务长三角一体化发展、弘扬工匠精神等问题发言。习近平不时插话，同大家交流。　　在认真听取大家发言后，习近平作了发言。他首先表示赞成政府工作报告，充分肯定江苏经济社会发展取得的新进展新成效，希望江苏坚定信心、鼓足干劲、勇挑大梁，为全国大局作出更大贡献。　　习近平强调，江苏发展新质生产力具备良好的条件和能力。要突出构建以先进制造业为骨干的现代化产业体系这个重点，以科技创新为引领，统筹推进传统产业升级、新兴产业壮大、未来产业培育，加强科技创新和产业创新深度融合，巩固传统产业领先地位，加快打造具有国际竞争力的战略性新兴产业集群，使江苏成为发展新质生产力的重要阵地。　　习近平指出，要谋划进一步全面深化改革重大举措，为推动高质量发展、推进中国式现代化持续注入强劲动力。围绕构建高水平社会主义市场经济体制，加快完善产权保护、市场准入、公平竞争、社会信用等市场经济基础制度。完善落实“两个毫不动摇”的体制机制，支持民营经济和民营企业发展壮大，激发各类经营主体的内生动力和创新活力。深化科技体制、教育体制、人才体制等改革，打通束缚新质生产力发展的堵点卡点。持续建设市场化、法治化、国际化一流营商环境，塑造更高水平开放型经济新优势。　　习近平强调，党的十八大以来，我们实施了一系列区域协调发展战略、区域重大战略、主体功能区战略等，为构建新发展格局、推动高质量发展发挥了重要支撑作用。江苏要全面融入和服务长江经济带发展和长三角一体化发展战略，加强同其他区域发展战略和区域重大战略的对接，在更大范围内联动构建创新链、产业链、供应链，更好发挥经济大省对区域乃至全国发展的辐射带动力。　　习近平指出，要继续巩固和增强经济回升向好态势，提振全社会发展信心，党员干部首先要坚定信心、真抓实干。要巩固拓展主题教育成果，建立长效机制，坚决纠治形式主义、官僚主义，切实为基层减负，激发全党全社会创造活力，提振党员干部干事创业的精气神。要坚持以人民为中心的发展思想，在发展中稳步提升民生保障水平，引导激励广大群众依靠自己的双手创造幸福生活。　　习近平最后强调，要抓好安全生产，进一步做好安全隐患排查，强化预警监测，落实应急措施，保障人民群众生命财产安全。　　中共中央政治局常委、中央办公厅主任蔡奇参加。　　穆虹、姜信治等参加。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>新华日报</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>担负新的文化使命 凝聚团结奋进力量</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202401/03/content_1282491.html</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024年01月03日 Wed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     ■ 将学习宣传贯彻习近平文化思想，置于全方位、系统性宣传阐释习近平新时代中国特色社会主义思想的大格局中，2023年宣传思想文化战线不断推动党的创新理论深入人心、落地生根。    ■ 深植中华优秀传统文化的丰厚沃土，推动创造性转化、创新性发展，中华文化的“一池春水”被彻底激活，焕发出勃勃生机。    ■ 胸怀大局、把握大势，充分发挥价值引领作用，坚持团结稳定鼓劲、正面宣传为主，不断强信心、聚民心、暖人心、筑同心。    ■ 坚持国家站位、全球视野，更加鲜明地展现中国故事及其背后的文化内涵和精神力量，推动中华文明在同其他文明的交流互鉴中，不断焕发新的生命力。    全文见10版 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>项目攻坚，淮安积势蓄能再跨越</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202401/03/content_1282492.html</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024年01月03日 Wed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     2023年12月9日，中天钢铁集团（淮安）新材料有限公司七厂首批成品下线。中天钢铁精品钢帘线项目投资超200亿元，预计年产钢帘线28万吨，为行业内首家实现全过程智能制造的企业。    淮安市委书记史志军说，近年来淮安主动围绕江苏制造强省建设，积极融入全省产业集群分工协作，坚持新型工业化引领，推动重特大项目攻坚，“四最”和101%优质营商环境建设取得历史性突破，全市上下攀高比强、跨越赶超的信心有力提振。淮安将始终把坚守实体经济、构建现代化产业体系作为强市之要，坚定不移走工业强市道路，争取“十四五”经济总量再上两个千亿级台阶，实现扩总量和优结构、增质效和提速度协同并进，全力打造长三角先进制造业融合发展集聚区，为建设长三角北部现代化中心城市筑牢支撑，奋力在现代化新征程上更好展示“象征意义”。    项目引建加速“积势蓄能”    寒冬时节，在淮安经开区天合光能基地，一期工厂一块块光伏组件产品快速下线；二期生产设备陆续进场；三期、四期钢架厂房拔地而起。“项目总投资200亿元，全部投产后预计实现年产值约800亿元，将成为天合光能全国最大的硅片电池组件一体化制造基地。”企业相关负责人张颜民说。    从2021年百亿级制造业项目招引实现零的突破后，淮安近两年陆续引进并实施百亿级工业项目11个，其中8个首期已竣工；去年10月又新签百亿级项目5个，均属战略性新兴产业，初步扭转项目“缺大少新”的状况。    “去年1—11月，全市完成规上工业投资1044.1亿元，同比增长28%，增速全省第一；预计去年全年新开工、新竣工、新列统亿元以上工业项目分别超400个、220个、160个，其中新开工50亿元以上项目超10个，新增长点贡献产值增量约500亿元。”市技术改造管理服务中心主任赵淮军说。    除了招引“顶天立地”大项目，淮安也不忘对本土企业的精心培育，尤其注重通过重抓技术改造项目培育骨干企业，连续多年实施百亿（50亿）企业培育、千企技改等行动计划。本土企业、中国液压行业标杆江苏威博液压公司连续数年进行重大技术改造，继2022年成为北交所注册制“第一股”之后，2023年又获评国家级专精特新“小巨人”企业。        “淮安市突出‘工业为先’‘创新为要’，深入实施规模企业、上市企业、高科技企业、创新平台载体培育和绿色制造、‘智改数转网联’等制造业高质量发展‘六项工程’，整合设立规模超3亿元的工业强市发展专项引导资金，充分激发企业创新驱动、数字赋能、绿色转型、质效提升的积极性，近两年全市技改投资、研发投入长期保持两位数以上增长。”淮安市工业和信息化局局长杨维东说。    去年1—11月，淮安列入百亿、50亿培育的29户企业，开工项目37个，完成投资420亿元，实现产值1088.3亿元，同比增长21%。    优良环境打造“良田沃土”    “51天、151天、120天！”捷泰新能源科技淮安公司总经理周福深表示，作为全球单体最大的N型太阳能电池制造基地，总投资130亿元的涟水项目签约后仅51天就落地开工，一期151天首线出片，二期更是仅用120天，“淮安速度”令人刮目相看。    除了捷泰新能源，百亿级项目从签约到开工，中天钢铁用时100天，台华新材70天，巨石玻纤51天，天合光能一期32天、四期单晶硅项目仅27天……“传奇”接连上演。    优质项目向淮而聚的背后，是101%服务的营商环境的支撑。围绕“项目为王、环境是金”工作导向，淮安连续三年将重特大项目攻坚暨优化营商环境大会作为“新春第一会”，充分发挥党政亲商会、经济网格帮办员作用，推行市级机关挂钩县区营商服务专员等制度，践行“做的要比说的好、服务要比需求早”理念；在省内率先开展重大工程建设“五证联发”“拿地即开工”专项改革，推动重点项目建设全过程畅通。    2023年，淮安通过“拿地即开工”方式落地项目233个，总数全省第二，重大项目占比全省第一。    产业集群夯实“经济底盘”    去年10月18日，比亚迪首款混动轻卡T5新品发布暨智慧工厂体验日在淮安举办，标志着总投资50亿元的淮安比亚迪新能源商用车及零部件项目竣工试生产。项目全部达产后，可实现年产新能源商用车10万辆，年产值150亿元，将成为全球最先进的新能源商用车制造基地。目前，淮安已集聚新能源汽车及零部件制造企业近百家，初步形成“原材料—电池电机电控等核心零部件—整车—充电设施和汽车后市场”相对完整的产业链，正在建设新能源汽车产业园。    除了新能源汽车及零部件，近年来，淮安将建设具有较强产业支撑力、创新驱动力和开放竞争力的现代化经济体系摆上全市“153”发展战略重要位置，明确全市“7+3”先进制造业集群发展定位，即聚力打造智能装备及新能源、新能源汽车及零部件、纤维新材料、化工新材料、PCB电子元器件、绿色食品、生物技术及新医药等7个优势产业集群，培育人工智能、集成电路、新兴数字产业3个先导产业集群。    淮安市市长顾坤说，集群链式发展是现代产业最显著的特征之一。淮安将深入贯彻党中央国务院关于大力发展先进制造业集群的重大战略部署，全面落实《加快建设制造强省行动方案》，充分发挥50亿、百亿级重特大项目产业之“锚”作用，积极引进培育一批专精特新上下游配套企业，有效协同推进强链补链延链，持续优化产业生态，加快打造充满活力和竞争力的产业集群，深度融入全省“1650”产业体系，全力在差别化竞争中彰显淮安后发优势、比较优势，筑牢先进制造业高质量发展的强支撑。    目前，淮安“7+3”产业集群已集聚规上企业1213户，产值总量占全市规上工业近八成。预计到2025年，将培育形成开票销售超千亿级产业集群4个。    通讯员 袁来 孙清阳 葛高华    刘圣明 乔超群 陈辉    本报记者 陈海霞 蔡志明 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>秉持“开年就是开工、开工就要实干”
+以高质量项目讲好高质量发展“硬道理”</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202401/03/content_1282493.html</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024年01月03日 Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     本报讯 （记者 黄伟） 1月2日，新年第一个工作日，全省重大项目建设启动会议在苏州举行。省委书记信长星、省长许昆林出席会议并讲话。    信长星指出，开年就是开工、开工就要实干，这既是鲜明信号，也是干事创业应有的作风、应有的干劲。重大项目是稳定经济运行的压舱石，是我们真正挑起大梁的硬支撑。要树牢正确政绩观抓项目建设，把绿色低碳、支撑能力、项目可持续性作为前提，看数量更看质量效益，看体量更看科技含量和绿色含量，看财税贡献更看带动引领效应，看当下产出更看未来竞争力，既高度关注、积极推进能催生新产业、新模式、新动能，发展新质生产力的重大项目，也关注和推进体量虽然不大但能够打通末梢和畅通循环的项目、强链补链延链不可或缺的项目、利在长远的项目、老百姓获得感强的项目，滚动谋划、压茬推进。    信长星强调，招引一批好项目不容易，招引来了之后把项目建设好更不容易，关键是要真正上心、用心。要有一份真心，设身处地为企业、为项目着想，主动提供全生命周期服务、全要素链条保障。要有一份热心，把项目的事当作自己的事来办，多帮助解决一些实际困难。要有一份诚心，形成地方与企业相互信任支持的良性互动，构建亲清统一的新型政商关系。    信长星强调，新的一年全省上下要把“当表率、做示范、走在前”的果敢担当充分展现在项目建设上，以高质量项目讲好高质量发展“硬道理”，为推进中国式现代化江苏新实践提供坚实支撑。    许昆林指出，要坚持以有效投资牵引为经济持续回升提供有力支撑，加快推进项目开工，形成更多投资量、实物量，促进项目尽快投产；坚持以优质资源导入为高质量发展蓄势赋能，围绕产业链优化项目布局，聚焦科技创新提升项目质效，做优招商引资抓好项目储备；坚持以高效联动协同凝聚更大工作合力，加强监测调度，用好政策支持，强化要素保障，推动高质量发展继续走在前列。    会前，信长星、许昆林听取了省级层面和各设区市今年重大项目情况介绍。会上，省发展改革委通报了今年全省重大项目安排及一季度计划开工重大项目情况，省交通运输厅、省自然资源厅、省生态环境厅分别发言。今年省重大项目共安排510个，包括实施项目450个、储备项目60个，数量规模同比大幅增加。与此同时，今年创新建立民间投资重点产业项目库，入库项目200个。一季度，全省计划开工亿元以上项目2710个，同比增加561个。这样的安排，进一步强化了发挥投资稳增长支撑作用、做大做强实体经济、注重科技创新引领、激发民营经济活力的导向。    启动会议后，举行了相关项目开工活动。信长星宣布项目开工。    省委常委、苏州市委书记刘小涛，省委常委、省委秘书长储永宏，陈之常等各设区市党委或政府主要负责同志，省有关部门单位主要负责同志参加启动会议和开工活动。省委常委、常务副省长马欣主持启动会议和开工活动。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>拓展合作空间 共享时代机遇
+助力台企融入新发展格局实现高质量发展</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202401/03/content_1282494.html</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2024年01月03日 Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     本报讯 （记者 王拓） 1月2日，省长许昆林在苏州调研台资企业并召开座谈会，深入了解企业发展情况，认真倾听意见建议。他强调，要深入贯彻落实习近平总书记关于对台工作重要论述和致2023两岸企业家峰会10周年年会重要贺信精神，坚定秉持“两岸一家亲”理念，着力为广大台企创造机遇、拓展空间、搭建平台、优化服务，更好融入新发展格局、实现高质量发展，努力在推动两岸关系和平发展、深化两岸各领域融合发展中走在前、做示范。    上银科技公司落户苏州已近10年，主要生产精密线性传动零部件。许昆林详细了解新设备、新产品，勉励企业聚焦主业、精耕细作，推动高端化、智能化、绿色化发展，更好助力江苏产业强链补链延链。仁宝信息技术公司是笔记本电脑专业制造商，目前出口订单增势良好。许昆林希望企业加大创新研发投入、保持产品竞争优势，加快“智改数转网联”步伐，不断向全球产业链价值链高端攀升。    随后，召开台资企业座谈会。会上，奇美化工等企业介绍了发展情况和未来打算，就进一步做好涉企服务、产业转型、人才招引等工作提出了意见建议。大家表示，江苏产业基础坚实、科教资源丰富、营商环境优良、市场规模巨大，台商台企对这片创新创业热土十分看好，将持续扩大投资、深耕发展。许昆林和大家展开交流，与相关部门一道就企业关切的各类问题作了回应解答，要求有关地方和部门聚焦台商台企所需所盼，拿出含金量高、务实管用的政策措施，努力当好台企发展的机遇创造者、平台打造者、资源集聚者、环境营造者。    许昆林指出，江苏是大陆台资最密集、台胞往来最热络、两岸交流合作成果最丰硕的地区之一，广大台商台胞是推进江苏现代化建设的重要力量，台资企业过去为江苏发展作出重要贡献，将来依然要发挥重要作用。我们将聚焦“一中心一基地一枢纽”建设，推进传统产业焕新、新兴产业壮大、未来产业培育，为台企高质量发展创造更多的机遇。推动各类平台载体提升发展水平，持续打造品牌化交流活动，促进人员密切往来、资源高效配置、市场深度融合，为台企发展开拓更广的空间。构建全周期、全链条、全过程、全身心服务体系，健全完善增进台胞福祉的制度和政策，为台企发展营造更优的环境。希望广大台商主动把握新时代发展机遇，坚定发展信心，加快转型升级，在江苏这片沃土上赢得主动、赢得未来，为推动祖国统一、民族复兴的历史伟业贡献更大力量。    省委常委、苏州市委书记刘小涛，副省长方伟，省政府秘书长吕德明参加有关活动。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>吴江一体化示范区创新中开新局</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202401/03/content_1282495.html</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2024年01月03日 Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     □ 本报记者 李仲勋 周成瑜    隆冬时节，苏州吴江汾湖高新区（黎里镇）三白荡、元鹤荡所夹的一片半岛区域上，长三角生态绿色一体化发展示范区重要的对外交通门户——苏州南站正在加紧建设中。中铁十四局苏州南站枢纽项目技术主管刘红坤介绍，2023年年初这里还只是一片裸露的工程地基，现在地下工程和地上涉铁区域建设已完成大半，标志性的六边形站房结构清晰可辨，“我们在确保工程质量和安全生产的前提下大干快干，项目工地24小时不停工，希望为加快示范区建设贡献一份力量。”    2023年是示范区建设4周年，也是示范区完成一轮3年建设步入“新三年”建设的关键一年。吴江瞄准“走在示范区建设最前列”的目标定位，拿出实干举措和实际行动，努力在对接、融入、服务一体化中率先形成标志性、引领性、突破性成果，加速把示范区“规划图”转化为“施工图”、落地成“实景画”。    以项目突破带动发展提速，是吴江人实干的鲜明特征。无尘车间内，全球最宽的聚酯薄膜生产线紧张运转，各种智能化设备分工协作，拉膜、收卷、分切等操作一气呵成……走进省重大项目恒力（长三角）国际新材料产业基地，映入眼帘的是高度智能化的生产画面，一卷卷厚度从2微米到350微米不等的薄膜成品整装待发。“多亏属地政府和相关部门的大力支持，项目建设快马加鞭！”基地相关负责人、江苏康辉新材料科技有限公司副总经理鞠金虎介绍，目前一期功能性聚酯薄膜项目已有一半以上的生产线投产试运行，预计2024年一季度可全部投产，年产量达47万吨。    全国一体化算力网络长三角枢纽节点吴江算力调度中心、长三角工业互联网创新示范基地等功能平台破土动工，江苏省海洋信息技术与装备创新中心、英诺赛科（苏州）全球研发中心等创新载体建成启用，中城工业智能制造星舰超级工厂一期、恒力高性能特种工业丝等高端产业项目陆续投产……借助一个个“拔节生长”的高显示度项目，吴江在做大做强已有四大千亿级产业的基础上，锚定新能源、生物医药、人工智能和算力、工业互联网、低空经济等前沿方向，培育壮大战略性新兴产业和未来产业，刷新示范区科技创新和产业创新“示范度”。前不久举行的2023吴江投资贸易洽谈会上，吴江“一口气”签下44个优质项目，总投资约580亿元，为示范区“新三年”后续建设积蓄强劲动能。    实打实的项目，促进产业升级；硬碰硬的改革，加速制度创新。“以前企业融资用‘房子’做抵押，现在可以用‘数据’来贷款。”吴江金帆纺织有限公司近日成功获得全国首笔以资产数据信息评估获取的银行贷款，公司负责人徐金明喜出望外。2023年，依托全国首个工业数据资产登记城市节点——苏州节点的成立，吴江积极推动金融机构基于企业的数据资产信息开展无抵押低息信用贷款服务，开启工业数据资产化、价值化的探索新实践， 有效帮助中小企业解决融资难、融资贵的问题。    立足示范区建设新起点，吴江不断推出创新性、引领性改革举措，催生更多具有一体化标识的案例场景。示范区地标性建筑项目——水乡客厅·方厅水院地处上海青浦、江苏吴江和浙江嘉善三地行政边界交汇处的核心区域，由示范区执委会统一立项，计划采用四合院形制，在四角分别设置沪苏浙皖的主题展示空间。2023年，吴江联合青浦、嘉善，探索运用委托审批、联合审批、模拟审批等创新举措，促成方厅水院江苏馆实现“拿地即开工”，为长三角地区跨域审批拓展了新模式、积累了新经验。    强化生态环境共保联治，吴江用实实在在的成果把示范区的底色——“生态绿色”描绘得更加鲜亮。伫立在吴江与青浦交界的元荡慢行桥上远眺，湖面碧波荡漾，不时有水鸟掠过，留下圈圈涟漪，水清、岸绿的田园风光美不胜收。在吴江、青浦两地的协同治理下，元荡实现河湖基本功能全面恢复、生态空间基本修复、水环境质量有效改善、管护机制提质增效，2023年10月成功获评示范区首个示范幸福河湖。    让老百姓幸福感越来越足的，还有“家门口”加速集聚的优质公共服务资源。徜徉全场景数字化空间，从远古瞬间穿越到未来，在光影变幻中与名画“互动”，通过智能算法将个人声音生成独特的数字艺术作品……2023年3月启幕的苏州湾数字艺术馆，带给市民游客独特而震撼的沉浸式体验，成为长三角热门的文旅新空间。吴江高品质运营苏州湾大剧院、数字艺术馆、苏州湾博物馆等文化地标，持续繁荣发展文化事业和文化产业，推动物质文明与精神文明协调发展、人文与经济相融共生。    在示范区的三个板块中，吴江面积最广、人口最多、经济体量最大，丰厚的“家底”给予这片热土更多的想象空间。吴江区委书记李铭表示，吴江将把握示范区建设“新三年”关键时期，以更加昂扬的姿态和有力的举措，深化沪苏同城和江浙联动，聚焦重点区域、重大项目、重大改革接续奋斗，以更多“走在最前列”的创新成果，全力当好示范区建设的江苏窗口、苏州窗口。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>怀着“自己人”的感情，迸发“生力军”的力量</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202401/03/content_1282496.html</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2024年01月03日 Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     □ 本报记者 周 敏    民营经济是推进中国式现代化的“生力军”。1月2日，2024年第一个工作日，南京市召开民营经济高质量发展推进大会。省委常委、南京市委书记韩立明提出，力争通过2—3年时间，在壮大创新型民营经济上实现新突破。    与此同时，《关于促进民营经济发展壮大的若干措施（征求意见稿）》（以下简称“《若干措施（征求意见稿）》”）发布，并现场面向广大民营企业家征集修改建议。    这一系列谋划传递出鲜明信号：南京要把握民营企业创新需求，营造一流成长环境，支持民营企业加强技术创新、产业创新、模式创新、开放创新，全面提升民营经济创新含量和发展质量，打造具有全球影响力的产业科技创新中心主承载区。    明方向——发展创新型民营企业    南京经济要实现高质量发展，必须更好发挥民营经济“生力军”作用；南京民营经济要走在前列，必须走求实扎实的创新路子。    回首来时路。从体制内人员“下海”批量孕育出一批企业，到高学历、高技术知识分子创业，中圣科技、久吾高科、诚迈科技等崭露头角，再到汇通达、运满满等平台企业，以及世和基因、超芯星半导体等生物医药、集成电路企业相继涌现，南京民营经济呈现出研创型、平台型特征。    要引导有能力、有条件的民营企业加强自主创新，勉励民营企业“心无旁骛创新创造”。截至2023年末，南京全市有效期内高新技术企业总数达10062家，入库科技型中小企业2.2万家，获评国家级专精特新“小巨人”企业213家，进入胡润排行榜的独角兽企业17家，其中民营企业占比分别为92.5%、98.2%、82.6%、88.2%。尤其在软件和信息服务业、生物医药等新兴产业领域，民营企业的支撑作用更加突出。    在全面推进中国式现代化南京新实践的新征程上，围绕打造具有全球影响力的产业科技创新中心主承载区的定位，南京市委、市政府提出，南京民营经济要走出一条依靠创新驱动、内涵型增长的高质量发展路子。    具体怎么走？在技术创新上，要系统布局政策、资金、项目、平台、人才等要素，支持民营企业牵头承担重大科技攻关任务，突破关键共性技术，推进科技成果转化。在产业创新上，既要参与“两钢四化”传统优势产业转型升级，也要在新兴赛道、细分领域“开道超车”。在模式创新上，要依托软件与硬件结合、制造业与服务业融合等优势，加快生产模式、组织模式、运营模式等全方位变革。在开放创新上，要主动融入国内国际双循环，用好自贸试验区南京片区等平台，在集聚要素、“链接全球”中大显身手。    优环境——直面民企难题和困惑    好的营商环境，是企业发展须臾不可或缺的水和空气。    南京已连续5年发布优化营商环境的政策举措。根据全国工商联2023年度“万家民营企业评营商环境”调查结论，该市入选营商环境最佳口碑省会及副省级城市。    新发布的《若干措施（征求意见稿）》包括6个部分26条措施，涉及破除壁垒、优化服务、扩大融资、拓展市场、强化创新、维护权益等方面。不少措施瞄准民企核心关切。比如，在“支持民间投资参与重大项目建设”中，提到“超过400万元的政府采购工程中适宜由中小企业提供的，预留该部分预算项目总额由30%以上阶段性提高至40%以上”，这意味着民企将获得更多发展机会和政策支持。针对民企融资难问题，《若干措施（征求意见稿）》在“宁创融”、“宁创贷”、转贷基金、“苏岗贷”等四项产品之外，提到开展企业上市“三年行动计划”，推动更多民企挂牌上市。    “先后5次征求不同方面的意见，形成了现在的《若干措施（征求意见稿）》。”南京市副市长吴炜现场邀请民营企业家继续提意见、给建议，会后将吸纳、完善、充实。    “政策的生命力在于执行，提高政府公信力的关键在于说到做到，提升民营企业获得感的关键在于让企业实实在在享受到政策。”南京市市长陈之常说，各板块、各部门要统筹把握时度效，做好权威发布、回应企业关切、加强效果评估，让民营企业对南京高质量发展的信心树起来、预期强起来。    鼓干劲——加快构建一流创新生态    会前暖场，两侧屏幕滚动播放2023年受省部级以上表彰（命名）的民营企业光荣榜；会议伊始，通报表扬了一批非公有制经济人士代表并授牌；发言环节，先请企业讲话，再由部门表态……两个小时的大会，民营企业和民营企业家始终居于C位。    民营企业和民营企业家是自己人。集成电路领军企业——华天科技，深切感受到南京对“自己人”的呵护。2018年，这家企业在浦口经开区动土建厂，建设全球领先的晶圆级先进封测基地，如今一期工程完工，春节后将投产。得益于南京不断打造的优质营商环境，华天南京创造了从开工建设到竣工投产用时仅17个月的“华天速度”，在宁累计投资近百亿元，实现产值50多亿元，带动就业近万人。华天电子集团副总裁、华天科技江苏公司总经理肖智轶透露：“未来3年计划在宁继续增加投资百亿元以上，在南京打造国内最大封测规模的生产基地。”    不光是华天科技。天加环境从“做洁净空气生意”起步，32年专注科技创新，洁净产品市场占有率连续13年居全国第一；诺唯赞在生命科学、生物医药原料、动物检疫等多个细分领域，确立了国内市场份额第一的龙头地位，近3年纳税超过5亿元；硅基智能、传奇生物、小视科技等新赛道企业，剑指行业空白，聚力交叉融合，从产业科技变革的风口中脱颖而出。    继续壮大民营经济这支“生力军”。南京提出，通过2—3年努力，力争再新增2—3个国家先进制造业集群；高新技术企业突破1.2万家、国家级专精特新“小巨人”企业达300家、上市公司超200家；人才资源总量突破450万人，高层次人才占比超过15%。同时，要高效配置和集聚人才、资本、技术、信息等创新要素，加快构建竞争力强的国际一流创新生态。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>镇江税务培优“两个服务”</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202401/03/content_1282497.html</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2024年01月03日 Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     □ 史 华    发布“优化税收营商环境提升12条”，出台便民办税春风行动4大类20条措施，联合5部门共同打造社会保障“惠民驿站”，99%以上税费服务事项实现线上办理，建设全智能“无柜台”办税服务厅……地处长江与京杭大运河“十字黄金水道”交汇处，2023年以来，镇江税务部门以培优“中国式现代化江苏新实践和中国税收现代化新实践”两个服务为目标，推出一大批实实在在举措，为地方经济社会高质量发展提供“税收方案”。    早感知：“一本账”解析经济“冷暖之变”    镇江焦山风景区特色文创店镇江·南京设计廊焦山店自2023年5月开办以来，以景区旅游美景为主题开发出系列书法、诗词类文创产品，常常火爆“出圈”。文创店负责人于涛告诉记者，“创业以来，办执照、领发票等一套流程非常方便，京口区税务局还通过‘政策找人’方式告知能享受‘六税两费’减免，这既降低了创业的门槛，也减少了运营成本。”     感知经济“冷暖之变”，既看微观主体活动，也看宏观运行大数据。    2023年三季度，镇江市新办涉税经营主体0.9万户、同比增长1.1%，较二季度上升1.3个百分点。“税收是经济运行的‘晴雨表’。”省社科院社会政策研究所所长张春龙表示，新办涉税经营主体增长，数据直观有力体现出市场复苏、经济回暖和预期改善。    2023年一季度高技术产业开票销售同比增长30%、增长迅猛，但传统制造行业支撑作用有待加强；2023年上半年出口退（免）税同比增长8.7%、增幅高于全省平均7.3个百分点，外贸出口“保稳提质”，但产品升级步伐仍需加快；2023年前三季度企业采购意愿有所增强、民营经济活力进一步激发、新发展动能持续集聚，但促进经济持续回升向好仍需政策加力……透过税收大数据，观数据变动之“形”，察经济发展积蓄之“势”。    “我们重点算好税收大数据这本账，全生命周期服务重大项目。”镇江市税务局经济分析科科长夏雨说，“2023年，我们建立健全‘税源监控、税收分析、税收预测’、重大产业项目税收跟踪评估等机制，累计报送重大产业项目、物流行业等经济分析报告27篇，跟踪评估项目52个。”    微改创：“工作室”答疑助企纾困解难    抓取、搬卸、装运之后，一个个沉甸甸的集装箱，随远洋巨轮扬帆远航……2023年12月12日，晨曦中的镇江港，一派繁忙景象。    同样繁忙的，还有镇江税企之间的一个个“服务答疑群”和“‘问诊’直播间”——“请问我们企业的情况是否可以申请纳税信用复评？”“2022年医疗保险费还能补缴吗？”“全电票和目前的电子发票有什么区别呀？”    2023年，镇江税务部门聚焦纳税人缴费人“急难愁盼”事项，用“微改”“微创”提升办税体验，专门抽调业务骨干组建“国勋”“税小希”“京小税”“菁税”“丹税e家”“宜税行”“问津”“江洲小蓝”等8个税务工作室，将“云上”授课、问需、释疑作为推动政策落地“第一站”，让一大批惠及经营主体的政策红利落地生根。    “为解决办税缴费过程中的难点堵点痛点问题，我们做强‘税费服务专家团队’，采取‘驻点+分散’方式，以‘小团队’建设发挥更加专业、更具效率的服务特色。”镇江市税务局纳税服务科科长蔡苏蘅告诉记者，截至目前，8个税务工作室已解决各类涉税疑难杂症412个。    延续、优化、完善并落实好减税降费政策，对推动经济运行持续好转、内生动力持续增强、社会预期持续改善等具有十分重要的意义。“快准稳好”落实新的组合式税费支持政策，2023年1—11月，镇江市新增减税降费36.68亿元，办理留抵退税18.78亿元。    优环境：“小切口”探寻兴业发展之道    产业链连接着生产消费的各个环节，是建设现代化产业体系的关键基石。    在镇江，每个新落地的重大项目方，都会收到税务部门送上的“大礼包”，里面有《电子税务局办税缴费“零跑动”业务事项操作指引》《减税降费政策汇编》和针对企业行业的“个性化服务清单”。    “税务部门主动上门辅导，重点帮助我们剖析了企业入驻、土地使用、开票等方面可能遇到的涉税费问题，提示我们规避涉税风险点，起到了未雨绸缪的作用。”国药集团资产管理部总监王付彬直言，这有助于促进项目的稳健发展，让企业安心入园。    聚链成群，集群成势，势成而产业兴。全力打好“产业强链”三年行动计划收官战，2023年，镇江税务部门持续擦亮“镇合意·税e行”服务品牌，精炼推出“优化税收营商环境提升12条”举措，以“1次”办成为标准创新服务产品，以“一窗双网一次通办”等8个项目为示范提升服务品质。数据显示，436项税费业务实现市域通办，在全省率先实现12366全市“一号对外”，服务质效位居全省前列。    “基于镇江市情税情，坚持以‘小切口’求‘大发展’，以‘小体量’作‘大文章’，为全省税收改革发展做出探索、贡献方案。”镇江市税务局党委书记、局长叶华说，将以“条块双优”，在“两个服务”中展现镇江税务更大作为。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>广陵攀高逐新培育新质生产力</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202401/03/content_1282498.html</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2024年01月03日 Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     本报讯 （记者 张晨） 1月2日，中科纳米新材料项目在扬州广陵经济开发区中欧（扬州）智能制造产业园开工。以这一项目为龙头，今年广陵区共有64个项目列入市级重大项目清单，计划总投资424亿元。以列市级重大项目总体数量和投资体量创历史新高为开局，广陵吹响新一年产业发展攀“高”逐“新”的冲锋号角。    总投资20亿元的中科纳米新材料项目拟建设纳米金属粉体、纳米石墨烯润滑油、纳米航天防护涂层、纳米催化剂、科技玻璃等制造工厂，形成目前国内稀缺的纳米产品综合应用制造集群。项目建成达产后，还将通过纳米技术赋能周边高新技术产业。    今年是广陵奋进“双千双百”产业目标的攻坚之年，日前召开的广陵区委全会提出，今年将聚焦“产业强区”不动摇，紧扣扬州“613”先进制造业体系，加快培育新质生产力。在产业上，该区将深耕集成电路、新材料、液压装备、新能源、智能驾驶等领域，持续构建“科技型中小企业—高新技术企业—科技创新领军企业”梯次培育机制，今年全区高新技术产业产值占规上工业产值比重将力争在72%以上。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>无标题</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202401/03/content_1282499.html</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2024年01月03日 Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>新华日报</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>构建具有战略意义的中越命运共同体
+开启携手迈向现代化的新篇章</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202312/12/content_1273659.html</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023年12月12日 Tue</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     新华社北京12月12日电  12月12日，在赴河内对越南进行国事访问之际，中共中央总书记、国家主席习近平在越南《人民报》发表题为《构建具有战略意义的中越命运共同体  开启携手迈向现代化的新篇章》的署名文章。文章全文如下：    构建具有战略意义的中越命运共同体    开启携手迈向现代化的新篇章    中共中央总书记、中华人民共和国主席 习近平    应越共中央总书记阮富仲和越南国家主席武文赏邀请，我即将对越南社会主义共和国进行国事访问。这是我担任中共中央总书记、中华人民共和国主席以来第三次踏上越南这片美丽的土地，感到十分亲切，就像到亲戚和邻居家串门一样。    中越两国山水相连，文化相通，理想相同，命运与共。毛泽东、胡志明等两党两国老一辈领导人怀着共同理想信念相交相知，携手缔造了“同志加兄弟”的中越传统友谊。在追求各自国家独立和民族解放事业进程中，我们团结一心、相互支持。在社会主义建设事业中，我们互学互鉴、拓展合作，共同书写了中越友好历史篇章。    今年是中越建立全面战略合作伙伴关系15周年。不管国际风云如何变幻，中越两党两国共守和平安宁，共谋发展合作，共创繁荣富强，走出一条共建人类命运共同体的阳光大道。    我们坚持以信相交。两党两国高层像走亲戚一样常来常往。今年，我同阮富仲总书记密切互动，共同从战略高度和长远角度擘画新时代中越关系蓝图，推动中越关系确立新定位、迈入新阶段。我先后会见了赴华访问或出席会议的国家主席武文赏、政府总理范明政、越共中央书记处常务书记张氏梅同志。双方召开了双边合作指导委员会、两党理论研讨会、两国公安部合作打击犯罪会议等机制会议。各部门各地方合作更趋密切。    我们坚持以利相融。中国长期是越南最大贸易伙伴，越南是中国在东盟最大贸易伙伴和全球第四大贸易伙伴。应中方邀请，越南领导人出席第三届“一带一路”国际合作高峰论坛、第六届中国国际进口博览会、第七届中国－南亚博览会、第二十届中国－东盟博览会。越南输华的果蔬等农产品深受中国消费者喜爱。中国出口的原材料和机械设备有力支持了越南制造业发展。中国企业承建了河内轻轨2号线，这是越南首条城市轻轨项目，累计载客近2000万人次，为河内市民出行带来便利。中越国际班列开行，智慧口岸启动建设，陆地边界口岸互联互通加快推进。中国企业在越南建成海外最大的光伏产业集群，投资建设的光伏和风能电站为越南的能源转型发展作出积极贡献，在河内、芹苴等地投资建设多个垃圾发电项目。    我们坚持以谊相亲。今年以来，两国人员往来迅速恢复，前10个月中国赴越游客超过130万人次，中越德天（板约）瀑布跨境旅游合作区成功试运营。中国全国政协和越南祖国阵线中央暨边境省份友好交流活动、中越边民大联欢等活动开展得有声有色。中国传统经典名著在越南家喻户晓，中国当代影视作品也深受越南民众喜爱。越南流行歌曲火爆中国社交媒体，越南歌手在中国综艺节目中收获大批中国“粉丝”。日益密切的人文交流就像蜿蜒流淌的涓涓细流，汇聚成中越友好交往的奔涌长河。    我们坚持以诚相待。两国都高举多边主义旗帜，强调坚持对话协商、和平合作，坚定维护以联合国宪章宗旨和原则为基础的国际关系基本准则。双方在涉及彼此核心利益和重大关切问题上相互给予支持，在国际和地区合作机制中保持密切配合。越方积极参与全球发展倡议之友小组，支持全球安全倡议、全球文明倡议，支持中国加入《全面与进步跨太平洋伙伴关系协定》。    今年是我提出构建人类命运共同体理念、共建“一带一路”倡议和亲诚惠容周边外交理念10周年。构建人类命运共同体，首先要从亚洲做起。中国有首耳熟能详的歌这样唱道，“我们亚洲，树都根连根；我们亚洲，云也手握手”，这反映出中国民众心中朴素的亚洲命运共同体意识。亚洲是我们共同的家园，周边是搬不走的邻居，成就邻居就是帮助自己。亲望亲好，邻望邻好。中国愿把自身发展同周边国家发展更紧密地结合起来，同周边国家一道打造命运共同体，让大家一起过上好日子。越南同中国有着“同志加兄弟”的深厚情谊。中国党和政府始终将发展中越关系视为中国周边外交的优先方向，衷心希望两国不忘传统友好初心，牢记共同理想使命，携手走好社会主义道路，不断推动构建具有战略意义的命运共同体。    ——保持战略沟通，夯实中越命运共同体政治基础。双方要继续保持高层战略沟通，确保中越关系这条航船劈波斩浪、稳步向前。双方要坚定支持对方走好符合本国国情的社会主义道路，统筹好发展和安全两件大事，共同践行全球发展倡议、全球安全倡议、全球文明倡议。要进一步深化社会主义建设理论和实践经验交流，共同抵御外部风险挑战，确保各自社会主义建设事业行稳致远。    ——发挥互补优势，强化中越命运共同体合作基础。中国正在以高水平对外开放推动构建新发展格局，越南经济保持稳步增长，双方要充分发挥地缘相近、产业互补优势，加快推动共建“一带一路”倡议和“两廊一圈”战略对接合作，不断拓展在互联互通、国企改革、绿色能源、关键矿产等领域合作，更好服务国家发展，更多惠及两国人民。    ——加强友好交流，筑牢中越命运共同体民意基础。远亲不如近邻。中越关系的根基在人民、血脉在人民、力量在人民。我们要加大友好合作交流，充分发挥中越央媒、智库、文旅、出版机构、广播影视等部门对口交流机制效能，深化中文教育、职业教育、体育、卫生等合作，办好中越人民论坛、青年友好会见等系列品牌活动，增进两国人民特别是青年一代相互了解和感情。两国要增开更多直航航班，中国将鼓励更多中国游客来到越南观光旅游，感受越南历史文化的独特魅力。    ——妥善管控分歧，扩大中越命运共同体共识基础。双方要落实两党两国领导人共识，妥善管控海上分歧，共同寻找双方都能接受的解决办法。双方要着眼两国人民长远福祉，坚持互利共赢，积极推进合作，为营造各自发展的良好外部环境、实现地区长治久安作出应有努力。    当前，世界百年变局仍在加速演进，霸权主义、单边主义、保护主义有所上升，地区和平和发展面临较大不稳定性和不确定性。亚洲站在悠久文明的历史根基上，正迎来发展振兴的重要关口。亚洲新兴市场和发展中经济体将继续成为世界经济增长的主引擎。    历史一再证明，一个国家、一个地区要振兴，就必须在历史前进的逻辑中前进，在时代发展的潮流中发展。亚洲地区的未来，掌握在亚洲人民自己手中。10年来，亚洲人民越来越深刻地认识到，只有共同践行亲诚惠容理念，弘扬和平、合作、包容、融合的亚洲价值观，才能融入人类和平、发展、进步的潮流；只有坚持合作共赢，共商共建共享“一带一路”，把开放的大门越开越大，才能促进区域经济循环畅通升级，为亚洲人民带来更多福祉；只有积极推动构建亚洲命运共同体，把本国发展寓于各国共同发展之中，才能共同建成和平安宁、繁荣美丽、友好共生的亚洲家园。    万物得其本者生，百事得其道者成。无论世界如何沧桑巨变，中国坚持走人间正道。中国正以中国式现代化全面推进强国建设、民族复兴伟业，将持续推动高质量发展，坚持高水平对外开放，加快构建新发展格局。中国将保持周边外交政策的延续性和稳定性，坚持与邻为善、以邻为伴和睦邻、安邻、富邻方针，同时赋予亲诚惠容理念新的内涵，让中国式现代化更多惠及周边，共同推动亚洲现代化进程，为包括越南在内的亚洲国家提供新的发展机遇。    我相信，中越两国构建具有战略意义的命运共同体，将吸引更多国家投身于构建亚洲命运共同体和人类命运共同体的伟大事业，为亚洲长足发展和睦邻友好提供更多正能量，为世界和平和发展作出更大贡献。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>丹阳将基层末梢打造成振兴前哨</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202312/12/content_1273660.html</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023年12月12日 Tue</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     □ 本报记者 晏培娟 艾培 通讯员 周宇亮 朱鹏飞    11月24日，丹阳市司徒镇屯甸村与三峡能源有限公司、军逸农业科技有限公司签订茶光互补项目合作经营意向协议，在屯甸村500亩茶园建设光伏电站，预计可增收20万元。“企业、银行和相关职能部门党组织都是茶产业融合发展联合体党委成员单位。”屯甸村党委书记毛锁龙说。    “把有限的资源和力量聚起来、联起来，推动基层党建和乡村振兴深度融合，真正将‘基层末梢’打造成‘振兴前哨’。”丹阳市委书记王成明表示，今年以来，该市全面推行乡村振兴联合体党委模式，实现党组织跨村跨域统筹发展，以组织优势引领村级资源要素整合提升、优势互补。今年，该市所有村集体稳定性收入全部超过120万元。    整合要素，打好产业振兴“致富牌”    11月25日，界牌镇界中社区第一工业园重建项目开始试桩。原本的工业园建于上世纪90年代初，不但容积率低，还存在用房安全隐患。为加快项目建设速度，界牌镇党委牵头，在工业园改造项目上成立了联合体党委，将自然资源和规划局滨江分局、丹阳农商银行界牌支行等相关单位、部门党组织纳入，把“社区事”变成了联合体党委大家庭的“自家事”。原先需要3个月才能办下来的建设用地规划许可证，1个月不到就由“家庭成员”全程代办完成；3000万元低息贷款“送货上门”；腾空、拆除、土地挂牌……预计明年底，3.1万平方米的厂房可以建成，不仅可以为界中社区新增租金200多万元，还为地方政府新增税收700多万元。    乡村振兴，关键是产业振兴。丹阳市根据各村资源禀赋、产业基础等情况，按照“地域相近、产业相通、资源相用、优势相补”的原则，推动村级党组织与机关事业单位、企业、银行等党组织建立27个功能型联合体党委。充分发挥联合体党委灵活调度、统筹联动的作用，畅通资源要素流通渠道，帮办解决项目推进中突出问题47个，发放整村授信农户贷3.7亿元，有力提升村级集体经济“造血”功能。    丹阳延陵镇拥有九里、柳茹、西庄湖3个省级特色田园乡村，但景区之间“单打独斗”，不仅规模小吸引力也有限。“通过组建特色田园乡村联合体党委，统筹布局、一体规划，形成了文化古村游、湿地风光游等多种业态融合支撑的全域旅游格局。”延陵镇副镇长赵春红介绍，前不久举行的延陵镇季子文化旅游节暨首届粉黛观光节，景区日均客流量近万人次。    丹阳全面整合联合体党委内部资源，对23个集体经济相对较弱的村推行村政联结帮促、村银联动赋能模式，对24个资源要素单一的村推行村村联营产业、村企联建项目模式，打破村域、镇域边界和领域界限，共同建设标准化厂房、农文旅融合、种子培育产业等增收项目12个，实现资源入股、分红增收。    因地制宜，蹚出富民强村“幸福路”    “以前卖粮食，现在卖种子，每亩效益增加了50%。”陵口镇陵口村党委书记蒋朝辉告诉记者，陵口村党委和省种子管理站党支部组建乡村振兴联合体党委，10多位省内知名的种业专家不仅带来了最新的稻麦良种，还将陵口村作为“南粳46号”繁种基地，流转了陵口村及周边新陵村、肇巷村3000亩土地，带动村民致富。    “因地制宜，发展特色项目，全力探索多元化强村富民之路。”丹阳市委副书记、市长宋飞雄介绍，丹阳乡村振兴联合体党委成员单位互联互动，推动61名技术专家、青年人才“线上+线下”结合开展指导服务1.1万余人次，帮助300余个种植养殖户解决作物育种、栽培技术等难题。今年，该市新增5家省级示范家庭农场，培育高素质农民1207人。    “这是我们江苏‘味稻小镇’珥陵镇的一款稻鸭共作大米，不打一次农药、不施一点化肥，欢迎大家下单。”在珥陵镇农业园区党群服务中心的“红色直播间”里，党员志愿者主播正在推介该镇的特色大米。直播过程中，珥陵镇的大施青虾、珥城螃蟹、丈山盆栽、中仙彩色马铃薯等特色农产品轮番“出镜”，为农户打开了增收渠道。    “今年我们已帮销农副产品6700万元，直播间成立以来累计帮助企业、农户销售农副产品超1.7亿元。”珥陵镇党委书记杨秋竹说。    服务联心，    织牢先锋为民“一张网”    在233国道东侧的丹阳高新区花园村新型农村社区试点项目建设现场，记者看到，一期的54户农房均已主体封顶，公共区域景观建设等配套附属项目也已进入最后收尾阶段。“前期通过与农商银行党委协商制定专项资金贷款方案，群众的资金问题得以快速解决，一期项目将在年底前完工。”丹阳高新区党工委书记荆东根介绍，该区的56名机关、村级党员干部和乡村振兴领航员组建了党员先锋队，在方案设计、规划布局、户型结构等各个节点共征求群众意见20多次，坚持让群众说了算。    “丰富村级为民服务菜单，让群众在乡村建设中享有更多获得感。”丹阳市委常委、组织部部长于舟说，聚焦群众最关心最直接最现实的利益问题，丹阳组织联合体党委成员深入开展“村村到、户户进、人人访”活动，走村串户听民声、问民需，收集群众意见建议和问题361个。    珥陵镇党委组建创业街区联合体党委，建成乡愁记忆与草根创业街区，不仅解决了困扰集镇多年的交通卫生顽疾，也让村集体经济收入实现了两年翻番；丹北镇通过组建联合体党委，推进8000平方米的新桥农贸市场提档升级；丹阳开发区党工委建立乡村夜市产业联合体党委，打造规模化、个性化的三桥村夜市产业……今年以来，丹阳已解决村民出行、环境卫生、纠纷调解等问题300余个，群众的获得感和幸福感不断提升。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>桑国卫同志遗体在京火化</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202312/12/content_1273661.html</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023年12月12日 Tue</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     新华社北京12月11日电  著名的药学家和社会活动家，中国农工民主党的杰出领导人，中国共产党的亲密朋友，中国工程院资深院士，第十一届全国人民代表大会常务委员会副委员长，中国农工民主党第十四届中央委员会主席桑国卫同志的遗体，11日在北京八宝山革命公墓火化。    桑国卫同志因病于2023年12月7日17时10分在北京逝世，享年82岁。    桑国卫同志病重期间和逝世后，习近平、李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希、韩正、胡锦涛等同志，前往医院看望或通过各种形式对桑国卫同志逝世表示沉痛哀悼并向其亲属表示深切慰问。    11日上午，八宝山革命公墓礼堂庄严肃穆，哀乐低回。正厅上方悬挂着黑底白字的横幅“沉痛悼念桑国卫同志”，横幅下方是桑国卫同志的遗像。桑国卫同志的遗体安卧在鲜花翠柏丛中。    上午9时30分许，习近平、李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希、韩正等，在哀乐声中缓步来到桑国卫同志的遗体前肃立默哀，向桑国卫同志的遗体三鞠躬，并与桑国卫同志亲属一一握手，表示慰问。    党和国家有关领导同志前往送别或以各种方式表示哀悼。中央和国家机关有关部门负责同志，桑国卫同志生前友好和家乡代表也前往送别。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>做强发展引擎 提升产业能级
+蹄疾步稳走好高质量发展之路</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202312/12/content_1273662.html</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023年12月12日 Tue</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     本报讯 （记者 王拓） 近日，省长许昆林在镇江丹阳市、京口区调研时强调，要深入学习贯彻习近平总书记对江苏工作重要讲话精神，全面落实“四个走在前”“四个新”重大任务，锚定目标定位、放大自身特色，在加力推进新型工业化中持续做强发展“引擎”、提升产业能级，以高质量发展过硬成果助力中国式现代化江苏新实践。    高端装备制造和新材料是镇江重点打造的特色产业。许昆林来到江苏恒神公司，了解企业产品研发、工艺流程等情况后说，要围绕碳纤维产业的基础研究、前沿技术和潜在应用等方面积聚力量、潜心攻关，以科技创新突破提升产品性能、开拓应用市场、引领产业发展。仅一联合智造公司是智能包装设备的专业制造与服务提供商。许昆林勉励企业专注研发创新、增强用户思维，坚持设计定制化、生产智能化、产品高端化方向，培育带动更多产业链企业勇攀技术工艺高峰，更好服务强链补链延链。许昆林要求当地负责同志持续做优营商环境、创新生态，加强人才引育和服务力度，为企业发展壮大保驾护航。    眼镜产业是丹阳的支柱产业之一。在中国（丹阳）国际眼镜城，许昆林了解产业发展情况，与企业、商户交谈，希望顺应技术迭代趋势强化产品设计研发、致力抢占高端市场，用好大数据等技术做好跟踪服务、增强客户“黏性”，发挥眼镜产品生产基地和重要集散地优势，向大健康延伸、与新文旅融合打造消费新场景，加快实现由规模效益型向科技效益型、品牌效益型转变，把丹阳眼镜名气打得更响、城市名片擦得更亮。    谏壁船闸位于长江和京杭大运河两条黄金水道“十字”交汇口。许昆林现场了解谏壁一线船闸扩容改造工程进展后说，京杭运河苏南段航道“三改二”工程是加快打造畅通高效的内河航道网的重要环节，要加快建设进度、打造精品工程，尽快释放水运综合效益，更好联通江河湖海、服务国家战略、支撑产业发展，让“水运江苏”特色更加鲜明。许昆林来到京杭运河镇江水上服务区，了解船舶污染物处理、便民服务设施建设等情况，指出要拓展服务功能、提升服务品质，为船民打造航途上的温馨港湾。    在国家能源集团谏壁发电厂，许昆林实地察看安全生产、机组运行、项目规划，详细询问煤炭采购运输、环保指标达标等情况，对企业在迎峰度夏保供电中作出的贡献表示感谢。他说，你们勇做电力保供压舱石，争当节能减碳排头兵，体现了央企的责任担当。希望加强电煤调运储备，做好设备运行管理，继续抓好电力迎峰度冬工作，同时加强节能降碳前沿技术攻关，深挖各环节节能降碳潜力，为江苏绿色低碳高质量发展贡献更大力量。    省政府秘书长吕德明参加调研。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>密切联系群众 真心服务群众
+以解决问题的实际成效检验主题教育成果</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202312/12/content_1273663.html</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023年12月12日 Tue</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     本报讯 （记者 林元沁） 12月8日至9日，省委副书记、省委组织部部长沈莹到盐城开展“四下基层”。她强调，要认真学习贯彻习近平总书记重要讲话重要指示特别是在盐城考察时的重要指示精神，传承弘扬“四下基层”优良作风，密切联系群众、真心服务群众，持续推动主题教育走深走实，为谱写“强富美高”新江苏现代化建设新篇章作出应有贡献。    沈莹带着问题直插基层，“四不两直”来到建湖县湖阳路夜市排档临时疏导点，围绕经营户反映的“气改电”改造问题实地走访调研。随后，她来到建湖县人民来访接待中心，随机察看了窗口信访登记情况，并与信访工作者深入交流。在接待信访群众时，沈莹认真倾听诉求，详细了解疏导点“气改电”的费用构成、矛盾焦点等内容，与县城管局、财政局、供电公司负责同志一同研究解决措施。沈莹指出，从摆摊设点到集中经营、再到“气改电”，群众都很支持，要真正把好事做好、实事做实，按照商定方案尽快解决费用问题、完成改造施工，让群众能够安全经营、安心生活。她强调，信访工作要把群众利益放在第一位，将心比心、换位思考，及时梳理解决群众合理诉求，以实际成效检验主题教育成果。接访前，沈莹还深入困难群众家中开展了走访慰问。    晶硅光伏产业是建湖县的重点产业，但在建湖高新区因一条高压线横贯航空路南侧，造成160亩土地无法规划使用，直接影响项目连片建设。沈莹实地察看了项目建设现场和高压线迁移方案，在与省电力公司、省交通厅负责同志就迁移可行性、施工进度、费用支出等进行现场勘查论证后指出，相关部门要会同建湖县尽快制定工作方案，依法依规加快落实推进，全力帮助解决企业发展难题。    此外，沈莹还参观了盐城新四军纪念馆，认真聆听介绍、观看展品，强调要切实用好红色资源，加强研究阐释宣传，深入开展革命传统教育和爱国主义教育，把学习教育成果转化为推动高质量发展的动力。走进建湖县近湖街道盂兰社区、盐都区秦南镇孙伙村和凤翔村、郭猛镇明朗村，调研了解主题教育开展情况和经济薄弱村提升工作。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>全省学习运用“千万工程”经验
+加快建设新时代鱼米之乡推进会召开</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202312/12/content_1273664.html</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023年12月12日 Tue</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     本报讯 （记者 吴琼） 12月11日，全省学习运用“千万工程”经验、加快建设新时代鱼米之乡推进会在南京召开。省委副书记、省委组织部部长沈莹出席并讲话，副省长徐缨主持并作总结讲话。    沈莹指出，“千万工程”是习近平总书记亲自谋划、亲自部署、亲自推动的一项重大决策，内涵丰富、影响深远，充分彰显了习近平新时代中国特色社会主义思想的真理力量和实践伟力。要结合主题教育，进一步深化思想认识，学好用好蕴含其中的思想理念、科学方法和务实作风，作为学习贯彻习近平新时代中国特色社会主义思想的生动实践，作为推进新时代鱼米之乡建设的重要抓手，作为落实总书记赋予江苏“走在前、做示范”重大要求的具体行动。    沈莹强调，要聚焦重点任务，发挥规划引领作用，突出集中连片整治，推进城乡基础设施一体化和基本公共服务均等化，以特色产业发展促进强村富民，健全乡村基层社会治理机制，推动宜居宜业和美乡村建设实现整体提升。要紧盯薄弱环节，加快补齐农村垃圾处理、污水治理、户厕改造短板，努力将事关农民群众切实利益的民生实事办实办好。建设新时代鱼米之乡是一项事关高质量发展的系统工程，必须压紧压实责任，健全工作机制，注重统筹协调，推动形成党政主导、各负其责、齐抓共管的工作格局，确保各项工作落到实处、见到实效。    徐缨指出，要切实抓好乡村规划和长效管护两个重点，加快构建完善“镇村布局规划+村庄规划”的乡村规划体系，进一步厘清管护责任，推动农村人居环境常治长效。要统筹抓好点上示范和面上提升两个结合，以特色田园乡村、宜居宜业和美乡村建设为主要抓手，进一步彰显各美其美的村庄风貌，实现“一地美”变“全域美”。要着力抓好基础设施建设和文化赋能两个协同，突出文化引领，推进移风易俗，以文化赋能新时代鱼米之乡建设。    会议以视频形式召开，省设主会场，各市、县（市、涉农区）设分会场，3个省级部门、4个设区市发言。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>徐州将“百姓城管”融进百姓心坎</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202312/12/content_1273665.html</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023年12月12日 Tue</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     □ 本报记者 李 刚    打开“一起经分类”手机小程序，提交预约回收申请；系统随即向企业派单，企业接单后第一时间进行登记并联系预约人，确定上门时间，完成清运……12月初，徐州经济技术开发区金山桥街道金苑社区内，物业经理点点手机，便完成了小区暂存家庭大件垃圾收运登记手续。    回收利用率低、运输成本高、现场拆解不便，随着生活水平提高，居民家中激增的大件垃圾成为城市垃圾分类处理新难题。徐州市城管局第一时间响应百姓诉求，在经开区推出“大件垃圾、有害垃圾收运线上预约平台”，全区76家小区物业公司都能在小程序上预约后完成集中免费上门回收。    “对标国内一流城市标准，不断丰富‘百姓城管’服务品牌内涵，深入实施利企便民举措，打造城管领域全国一流营商环境，为徐州高质量发展奉献力量。”年初，徐州市城管局党委书记、局长房浩要求，干部职工要牢固树立“民有所呼、我有所应”价值取向，走出机关，走进社区和企业，与百姓心贴心沟通，与企业面对面交流，通过实实在在的举措，把“百姓城管”理念融入到百姓心里。    为百姓服务中体现城管温度    3月，徐州市城管局以“城管企业面对面”的形式，组织召开彭城广场中心商圈企业代表座谈会，现场收集问题和建议20条，相关单位负责人逐一回应答复。截至目前，徐州市城管局不间断组织对服务对象大走访、大座谈、“企业服务月”和领导干部深入企业现场办公等活动。据统计，共走访服务对象1439家，召开座谈会177个，梳理问题427个。    徐州市城管局有针对性地优化为民服务举措：在招牌设置备案事项中，推行“证明事项告知承诺制”；优化审批流程，实现了“网上全流程不见面”审批等。收到“全省首张电子证照”后，市民李女士高兴地说：“太贴心、太周到了。徐州市城管局做到了让数据多跑路，让百姓少跑腿。”    请百姓参与中体现城管态度    10月26日，2023年江苏省第十二届“城管开放日”暨“垃圾分类体验周”活动在徐州启动，身处“主场”，徐州各县（市、区）城管部门努力将活动办得丰富多彩、吸引群众。    11月11日，铜山区铜山街道龙腰山社区国基逸境小区垃圾分类主题广场内，徐州市和铜山区垃圾分类办公室联合组织开展宣传活动。小区居民贺女士参加了发朋友圈集赞兑换礼品活动，不到10分钟就领到了奖励。    人人尽责、人人享有，如今，徐州市民广泛参与到城市长效管理工作“点滴”之中。    为进一步畅通市民反映城市管理问题渠道，徐州市城管局积极研发“城管随手拍”微信小程序，市民可以通过微信小程序进行注册，并对城区范围内城市管理问题进行社会有奖监督举报。    不久前，徐州市城管局邀请住徐省、市人大代表和政协委员，围绕着百姓最关心的停车、建筑垃圾处置等问题，现场调研了徐州市智慧停车、城管进社区等工作。对意见建议进行整理后，徐州市城管局强化了以智慧停车系统建设为主的停车管理工作，市级停车管理平台建设持续完善，智慧化不断提升，形成集停车监管平台、停车运营平台、车主端APP+微信公众号等功能于一体的全市停车一张网；持续推进各类停车设施建设，截至目前已新增各类停车泊位66716个……得知徐州矿总医院立体停车场、展览馆地下智能停车场均已建成投入使用，有效缓解了周边停车老大难问题，省人大代表邵勇表示，徐州城管在城市精细化管理、为民服务规范有序上成效显著，自己也为代表人民参与城市管理更有信心。    让百姓满意中体现城管深度    近日，徐州市城管局组织徐州市纪委监委派驻组、新闻媒体和市民来到郭庄路东延工程项目建设现场，开展“钻芯取样”道路质量检测。记者看到，市民耿先生主动要求指定检测点位，随后钻机在指定地点开始工作。徐州市城管局相关负责人王世超表示，当天点位都是随机选取的，这是以揭露性检测方式实施民生工程过程监督和竣工验收的一次创新，目的就是让百姓满意。    截至目前，在“百姓城管”品牌建设指引下，一系列智慧城管类创新创优项目开始服务于百姓：利用激光扫描、视频监控等科技手段，徐州将市政设施管养过程中的流程、文件及成果进行数字化，形成全面的管养数据；9月，市检察院联合市区窨井盖监督管理工作领导小组办公室、市城管局举办“守护脚下安全，检察与你同行”检察开放日活动，签署了窨井盖管理行政执法与检察司法协作配合文件；建设“智慧工地”系统平台，利用视频监控系统、环保在线检测等设备，实现工地扬尘问题自动预警，开发“日报备”系统，实现渣土车智能化管理……    如今，“为百姓服务、请百姓参与、让百姓满意”的“百姓城管”品牌已在彭城大地熠熠生辉，徐州城管将不忘为民初心，践行为民服务宗旨，全力为市民百姓守好城、建新功。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>全省将发放3.7亿元惠民消费券</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202312/12/content_1273666.html</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023年12月12日 Tue</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     本报讯 （记者 王梦然 陈明慧） 12月11日，“苏新消费·冬季购物节”在宿迁举办启动仪式，本届购物节将累计开展2600余场消费促进活动，发放3.7亿元惠民消费券及3000万元数字人民币红包，持续至明年2月。    本届购物节将推出金融促消费、网上年货节、冬季家电节、老字号“三进三促”、销售竞赛季等5项省级重点活动。其中，金融促消费专项活动将组织金融机构在汽车、家居、餐饮等领域开展消费促进活动，发放数字人民币红包，推出信贷投放、支付结算、免息贴息等方面的专项优惠政策。网上年货节期间将组织电商平台和企业，举办特色年货网络促销活动，丰富春节期间市场供应。冬季家电节活动组织我省家电售后服务领跑企业开展冬季促消费活动，支持省家电协会举办中国家电（南京）高峰论坛。老字号“三进三促”活动将融合各地商圈特色，举办老字号现场展销、互动制作体验、沉浸式文化表演、直播带货等活动。销售竞赛季专项活动将对促流通扩消费成效明显的企业和地区进行奖励激励。    活动期间，全省13个设区市还将同步举办主题多元、丰富多彩的“一市一主题”活动。南京将以“宁好2024”为主题，组织开展“白+黑”全时段系列消费促进活动，发放6000万元汽车补贴。第四届“双12苏州购物节”将聚焦八大行业举办岁末狂欢季，推出2000万元数字人民币红包及1亿元新能源汽车补贴政策。扬州将开展电商高质量发展专项计划，推出20项重点主题活动。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>无标题</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202312/12/content_1273667.html</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023年12月12日 Tue</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>新华日报</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>坚定沿着总书记指引的方向奋勇前进</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202403/06/content_1302711.html</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2024年03月06日 Wed</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     江河湖海，春意盎然。3月5日，习近平总书记参加十四届全国人大二次会议江苏代表团审议，充分肯定江苏经济社会发展取得的新进展新成效，希望江苏坚定信心、鼓足干劲、勇挑大梁，为全国大局作出更大贡献，强调要牢牢把握高质量发展这个首要任务，因地制宜发展新质生产力。    这是对江苏人民的亲切关怀。党的十八大以来，习近平总书记多次亲临江苏考察，对江苏工作发表重要讲话、作出重要指示。在江苏考察期间，总书记进企业、到社区、走乡村，与人民群众面对面、心连心，话发展、听喜忧。江苏的山山水水、大江南北，总书记始终装在心里；江苏百姓的安危冷暖，总书记始终念兹在兹。这次在参加江苏代表团审议时，总书记同大家的交流，让代表们倍感亲切。总书记的重要讲话重要指示，饱含着对江苏大地的深情厚爱，凝结着对江苏工作的深切关怀，充满着对江苏干部群众的殷切期望，彰显着党的领袖“江山就是人民、人民就是江山”的根本立场和“我将无我，不负人民”的深厚情怀，让全省干部群众倍感温暖。    这是对全省上下的巨大鼓舞。过去的一年，我们以贯彻落实总书记对江苏工作重要讲话重要指示精神为主线，牢记嘱托、感恩奋进，各项事业取得新进步，推进中国式现代化江苏新实践实现良好开局。这一成绩，是在经历三年疫情严重冲击、经受复杂形势严峻考验的情况下取得的，殊为不易。总书记肯定江苏经济社会发展取得新进展新成效，这是对全省干部群众的巨大鼓舞，必将极大地激发全省人民不怕困难、不畏艰险，勇于斗争、敢于胜利，不断夺取现代化建设新胜利的必胜信念和坚定信心！    这是激励前行的磅礴力量。党的十八大以来，每逢关键时期、重要节点，总书记都对江苏工作发表重要讲话、作出重要指示，为江苏发展指明前进方向、提供根本遵循。从建设“强富美高”新江苏，到“争当表率、争做示范、走在前列”，从“四个必须”“四个走在前”到“四个新”，再到这次总书记期望江苏“因地制宜发展新质生产力”“谋划进一步全面深化改革重大举措”“全面融入和服务长江经济带发展和长三角一体化发展战略”“继续巩固和增强经济回升向好态势”，既是对江苏工作把脉定向，又蕴含对党和国家事业的深邃思考。总书记的重要讲话立意高远、思想深邃、内涵丰富，具有很强的思想性、指导性、针对性，充满着感染人、打动人、鼓舞人的思想伟力、话语魅力、实践动力，必将凝聚起全省人民投身强国建设、民族复兴伟业的磅礴力量。    厚望如山岳，德泽若阳春。今年是中华人民共和国成立75周年，是实现“十四五”规划目标任务的关键一年。深入学习领会、全面贯彻落实习近平总书记参加十四届全国人大二次会议江苏代表团审议时重要讲话精神，是当前和今后一个时期摆在全省人民面前的头等大事和首要政治任务。全省各地各部门和广大党员干部群众要迅速掀起学习贯彻总书记重要讲话精神的热潮，以高度的责任感、使命感、紧迫感，深刻领悟总书记重要讲话精神中深远的思想引领力、政治动员力、实践穿透力、时代感召力，把思想和行动统一到总书记重要讲话重要指示精神上来。    深入学习贯彻习近平总书记今年参加江苏代表团审议时重要讲话精神，要同学习贯彻总书记对江苏工作一系列重要讲话重要指示精神联系起来，一体学习、一体理解，学深悟透、学懂弄通，细照笃行、知行合一，切实把总书记重要讲话重要指示精神转化为推动实际工作的强大力量。要从中感悟“走在前、做示范”的使命担当，坚定沿着总书记指引的方向奋勇前进，在推进强国建设、民族复兴伟业中展现江苏作为；要从中感悟“国之大者”，把总书记关心的、强调的“国之大者”不折不扣地贯彻好落实好，一步一个脚印把总书记擘画的宏伟蓝图变成美好现实；要从中感悟科学方法，用心体悟总书记重要讲话重要指示中蕴含的立场、观点和方法，坚持正确的政绩观，把省委十四届四次、五次全会和省委经济工作会议作出的各项部署扎实推向前进；要从中感悟人民情怀，持续保障和改善民生，以实际行动践行以人民为中心的发展思想。最根本的是，要从中感悟“两个确立”的决定性意义，坚决做到“两个维护”，不断增强“牢记嘱托、感恩奋进、走在前列”的政治自觉。    东风浩荡启新程，凝心聚力再奋楫。前行路上，让我们沐浴总书记重要讲话重要指示的春风，牢牢把握高质量发展这个首要任务，以“汇通江淮之气概、畅达黄海之辽阔”的胸襟格局、“当表率、做示范、走在前”的果敢担当和“扎扎实实、踏踏实实”的作风状态，坚定信心、鼓足干劲、勇挑大梁，努力创造更多高质量发展的新成果，不断谱写“强富美高”新江苏现代化建设新篇章，为全国大局作出更大贡献！ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>十四届全国人大二次会议在京开幕</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202403/06/content_1302712.html</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2024年03月06日 Wed</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     新华社北京3月5日电 第十四届全国人民代表大会第二次会议5日上午在北京人民大会堂开幕。近3000名全国人大代表肩负人民重托出席大会，履行宪法和法律赋予的神圣职责。    人民大会堂大礼堂气氛隆重热烈，主席台帷幕正中的国徽在鲜艳的红旗映衬下熠熠生辉。    大会主席团常务主席、执行主席赵乐际主持大会。大会主席团常务主席、执行主席李鸿忠、王东明、肖捷、郑建邦、丁仲礼、郝明金、蔡达峰、何维、武维华、铁凝、彭清华、张庆伟、洛桑江村、雪克来提·扎克尔、刘奇在主席台执行主席席就座。    习近平、李强、王沪宁、蔡奇、丁薛祥、李希、韩正和大会主席团成员在主席台就座。    十四届全国人大二次会议应出席代表2956人。5日上午的会议，出席2872人，缺席84人，出席人数符合法定人数。    上午9时，赵乐际宣布：中华人民共和国第十四届全国人民代表大会第二次会议开幕。会场全体起立，高唱国歌。    根据会议议程，国务院总理李强代表国务院向大会作政府工作报告。报告共分三个部分：一、2023年工作回顾；二、2024年经济社会发展总体要求和政策取向；三、2024年政府工作任务。    李强在报告中指出，过去一年，是全面贯彻党的二十大精神的开局之年，是本届政府依法履职的第一年。面对异常复杂的国际环境和艰巨繁重的改革发展稳定任务，以习近平同志为核心的党中央团结带领全国各族人民，顶住外部压力、克服内部困难，付出艰辛努力，新冠疫情防控实现平稳转段、取得重大决定性胜利，全年经济社会发展主要目标任务圆满完成，高质量发展扎实推进，社会大局保持稳定，全面建设社会主义现代化国家迈出坚实步伐。    李强在报告中指出，一年来，我们深入学习贯彻党的二十大和二十届二中全会精神，按照党中央决策部署，主要做了以下工作：一是加大宏观调控力度，推动经济运行持续好转；二是依靠创新引领产业升级，增强城乡区域发展新动能；三是深化改革扩大开放，持续改善营商环境；四是强化生态环境保护治理，加快发展方式绿色转型；五是着力抓好民生保障，推进社会事业发展；六是全面加强政府建设，大力提升治理效能。    李强在报告中指出，在肯定成绩的同时，我们也清醒看到面临的困难和挑战。我们一定直面问题和挑战，尽心竭力做好工作，决不辜负人民期待和重托。    李强在报告中指出，今年是中华人民共和国成立75周年，是实现“十四五”规划目标任务的关键一年。今年发展主要预期目标是：国内生产总值增长5%左右；城镇新增就业1200万人以上，城镇调查失业率5.5%左右；居民消费价格涨幅3%左右；居民收入增长和经济增长同步；国际收支保持基本平衡；粮食产量1.3万亿斤以上；单位国内生产总值能耗降低2.5%左右，生态环境质量持续改善。    李强在报告中指出，我们要坚持稳中求进、以进促稳、先立后破。完成今年发展目标任务，必须深入贯彻习近平经济思想，集中精力推动高质量发展。要以更大的决心和力度深化改革开放，促进有效市场和有为政府更好结合，持续激发和增强社会活力，推动高质量发展取得新的更大成效。    李强在报告中提出，党中央对今年工作作出了全面部署，我们要深入贯彻落实，紧紧抓住主要矛盾，着力突破瓶颈制约，扎实做好各项工作：大力推进现代化产业体系建设，加快发展新质生产力；深入实施科教兴国战略，强化高质量发展的基础支撑；着力扩大国内需求，推动经济实现良性循环；坚定不移深化改革，增强发展内生动力；扩大高水平对外开放，促进互利共赢；更好统筹发展和安全，有效防范化解重点领域风险；坚持不懈抓好“三农”工作，扎实推进乡村全面振兴；推动城乡融合和区域协调发展，大力优化经济布局；加强生态文明建设，推进绿色低碳发展；切实保障和改善民生，加强和创新社会治理。    报告中，李强还就加强政府自身建设，民族、宗教和侨务工作，国防和军队建设，香港、澳门发展和两岸关系，以及我国外交政策等作了阐述。    根据会议议程，大会审查国务院关于2023年国民经济和社会发展计划执行情况与2024年国民经济和社会发展计划草案的报告及2024年国民经济和社会发展计划草案、国务院关于2023年中央和地方预算执行情况与2024年中央和地方预算草案的报告及2024年中央和地方预算草案。    受全国人大常委会委托，全国人大常委会副委员长李鸿忠作关于国务院组织法修订草案的说明。    关于国务院组织法修订草案的说明指出，国务院组织法是关于国务院组织制度和工作制度的基本法律，对于保障国务院依宪依法履行职责发挥了重要作用。党的十八大以来，以习近平同志为核心的党中央大力推进党和国家机构改革进程，党和国家机构职能实现系统性、整体性重构，构建系统完备、科学规范、运行高效的党和国家机构职能体系不断取得新进展新成效。为了适应新形势新任务新要求，有必要在认真总结实践经验基础上修改国务院组织法，将坚持以习近平新时代中国特色社会主义思想为指导、坚持党的全面领导等重要内容载入国务院组织法，将深化党和国家机构改革的精神和成果通过法律规定予以体现。修改国务院组织法是新时代国务院坚持党的全面领导、全面加强政府自身建设的必然要求，是国务院坚持以人民为中心、坚持全心全意为人民服务根本宗旨的制度保障，是新时代全面贯彻实施宪法、全面建设法治政府的重要方面，是深化党和国家机构改革、推进国家治理体系和治理能力现代化的有力举措。国务院组织法修订草案共20条，主要修改内容包括：增加国务院性质地位的规定，明确国务院工作的指导思想，完善国务院职权的表述，完善国务院组成人员相关规定，完善国务院机构及其职权相关规定，健全国务院会议制度，增加国务院依法全面正确履行职能的制度措施。    在主席台就座的还有：马兴瑞、王毅、尹力、石泰峰、刘国中、李干杰、李书磊、何卫东、何立峰、张又侠、张国清、陈文清、陈吉宁、陈敏尔、袁家军、黄坤明、刘金国、王小洪、吴政隆、谌贻琴、张军、应勇、胡春华、沈跃跃、王勇、周强、帕巴拉·格列朗杰、何厚铧、梁振英、巴特尔、苏辉、邵鸿、高云龙、陈武、穆虹、咸辉、王东峰、姜信治、蒋作君、何报翔、王光谦、秦博勇、朱永新、杨震，以及中央军委委员刘振立、张升民等。    香港特别行政区行政长官李家超、澳门特别行政区行政长官贺一诚列席会议并在主席台就座。    出席全国政协十四届二次会议的政协委员列席大会。    中央和国家机关有关部门、解放军有关单位和武警部队、各人民团体有关负责人列席或旁听了大会。    外国驻华使节旁听了大会。 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>因地制宜发展新质生产力</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://xh.xhby.net/pc/con/202403/06/content_1302713.html</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2024年03月06日 Wed</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+     ■ 要牢牢把握高质量发展这个首要任务，因地制宜发展新质生产力。面对新一轮科技革命和产业变革，我们必须抢抓机遇，加大创新力度，培育壮大新兴产业，超前布局建设未来产业，完善现代化产业体系。发展新质生产力不是忽视、放弃传统产业，要防止一哄而上、泡沫化，也不要搞一种模式。各地要坚持从实际出发，先立后破、因地制宜、分类指导，根据本地的资源禀赋、产业基础、科研条件等，有选择地推动新产业、新模式、新动能发展，用新技术改造提升传统产业，积极促进产业高端化、智能化、绿色化。    ■ 江苏发展新质生产力具备良好的条件和能力。要突出构建以先进制造业为骨干的现代化产业体系这个重点，以科技创新为引领，统筹推进传统产业升级、新兴产业壮大、未来产业培育，加强科技创新和产业创新深度融合，巩固传统产业领先地位，加快打造具有国际竞争力的战略性新兴产业集群，使江苏成为发展新质生产力的重要阵地。    ■ 要谋划进一步全面深化改革重大举措，为推动高质量发展、推进中国式现代化持续注入强劲动力。    ■ 江苏要全面融入和服务长江经济带发展和长三角一体化发展战略，加强同其他区域发展战略和区域重大战略的对接，在更大范围内联动构建创新链、产业链、供应链，更好发挥经济大省对区域乃至全国发展的辐射带动力。    ■ 要继续巩固和增强经济回升向好态势，提振全社会发展信心，党员干部首先要坚定信心、真抓实干。     新华社北京3月5日电 中共中央总书记、国家主席、中央军委主席习近平5日下午在参加他所在的十四届全国人大二次会议江苏代表团审议时强调，要牢牢把握高质量发展这个首要任务，因地制宜发展新质生产力。面对新一轮科技革命和产业变革，我们必须抢抓机遇，加大创新力度，培育壮大新兴产业，超前布局建设未来产业，完善现代化产业体系。发展新质生产力不是忽视、放弃传统产业，要防止一哄而上、泡沫化，也不要搞一种模式。各地要坚持从实际出发，先立后破、因地制宜、分类指导，根据本地的资源禀赋、产业基础、科研条件等，有选择地推动新产业、新模式、新动能发展，用新技术改造提升传统产业，积极促进产业高端化、智能化、绿色化。    江苏代表团审议热烈，气氛活跃。崔铁军、高纪凡、宋燕、吴惠芳、吴新明、孙景南等6位代表分别就实现高水平科技自立自强、推动中国光伏行业高质量发展、加强文化遗产保护传承、建设共同富裕的幸福村、服务长三角一体化发展、弘扬工匠精神等问题发言。习近平不时插话，同大家交流。    在认真听取大家发言后，习近平作了发言。他首先表示赞成政府工作报告，充分肯定江苏经济社会发展取得的新进展新成效，希望江苏坚定信心、鼓足干劲、勇挑大梁，为全国大局作出更大贡献。    习近平强调，江苏发展新质生产力具备良好的条件和能力。要突出构建以先进制造业为骨干的现代化产业体系这个重点，以科技创新为引领，统筹推进传统产业升级、新兴产业壮大、未来产业培育，加强科技创新和产业创新深度融合，巩固传统产业领先地位，加快打造具有国际竞争力的战略性新兴产业集群，使江苏成为发展新质生产力的重要阵地。    习近平指出，要谋划进一步全面深化改革重大举措，为推动高质量发展、推进中国式现代化持续注入强劲动力。围绕构建高水平社会主义市场经济体制，加快完善产权保护、市场准入、公平竞争、社会信用等市场经济基础制度。完善落实“两个毫不动摇”的体制机制，支持民营经济和民营企业发展壮大，激发各类经营主体的内生动力和创新活力。深化科技体制、教育体制、人才体制等改革，打通束缚新质生产力发展的堵点卡点。持续建设市场化、法治化、国际化一流营商环境，塑造更高水平开放型经济新优势。    习近平强调，党的十八大以来，我们实施了一系列区域协调发展战略、区域重大战略、主体功能区战略等，为构建新发展格局、推动高质量发展发挥了重要支撑作用。江苏要全面融入和服务长江经济带发展和长三角一体化发展战略，加强同其他区域发展战略和区域重大战略的对接，在更大范围内联动构建创新链、产业链、供应链，更好发挥经济大省对区域乃至全国发展的辐射带动力。    习近平指出，要继续巩固和增强经济回升向好态势，提振全社会发展信心，党员干部首先要坚定信心、真抓实干。要巩固拓展主题教育成果，建立长效机制，坚决纠治形式主义、官僚主义，切实为基层减负，激发全党全社会创造活力，提振党员干部干事创业的精气神。要坚持以人民为中心的发展思想，在发展中稳步提升民生保障水平，引导激励广大群众依靠自己的双手创造幸福生活。    习近平最后强调，要抓好安全生产，进一步做好安全隐患排查，强化预警监测，落实应急措施，保障人民群众生命财产安全。    中共中央政治局常委、中央办公厅主任蔡奇参加。    穆虹、姜信治等参加。 
 </t>
         </is>
       </c>
